--- a/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.831846941430086</v>
+        <v>1.831846941430058</v>
       </c>
       <c r="C2">
-        <v>0.4443186235173755</v>
+        <v>0.4443186235174039</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05629624323842108</v>
+        <v>0.05629624323841043</v>
       </c>
       <c r="F2">
-        <v>1.398988592382224</v>
+        <v>1.39898859238221</v>
       </c>
       <c r="G2">
-        <v>0.859529217013737</v>
+        <v>0.8595292170137583</v>
       </c>
       <c r="H2">
-        <v>0.6080419755384554</v>
+        <v>0.6080419755384483</v>
       </c>
       <c r="I2">
-        <v>0.08993248789287622</v>
+        <v>0.08993248789286135</v>
       </c>
       <c r="J2">
-        <v>0.5118660615166064</v>
+        <v>0.5118660615166348</v>
       </c>
       <c r="K2">
-        <v>0.1528521125646449</v>
+        <v>0.1528521125646414</v>
       </c>
       <c r="L2">
-        <v>0.5552888910391829</v>
+        <v>0.5552888910391758</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.585012134986755</v>
+        <v>1.585012134986869</v>
       </c>
       <c r="C3">
-        <v>0.3842242471683335</v>
+        <v>0.3842242471681345</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -465,19 +465,19 @@
         <v>1.227170459312902</v>
       </c>
       <c r="G3">
-        <v>0.7941324762525284</v>
+        <v>0.7941324762525426</v>
       </c>
       <c r="H3">
-        <v>0.57943122815756</v>
+        <v>0.5794312281575813</v>
       </c>
       <c r="I3">
-        <v>0.09494800125702119</v>
+        <v>0.09494800125702274</v>
       </c>
       <c r="J3">
-        <v>0.4427244483660573</v>
+        <v>0.4427244483660644</v>
       </c>
       <c r="K3">
-        <v>0.1323138666104278</v>
+        <v>0.1323138666104136</v>
       </c>
       <c r="L3">
         <v>0.4802607888106181</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.434705322844962</v>
+        <v>1.434705322845105</v>
       </c>
       <c r="C4">
-        <v>0.3477223854026192</v>
+        <v>0.3477223854027898</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04520526890745558</v>
+        <v>0.04520526890743426</v>
       </c>
       <c r="F4">
         <v>1.12402443675866</v>
       </c>
       <c r="G4">
-        <v>0.7562571601396755</v>
+        <v>0.7562571601397039</v>
       </c>
       <c r="H4">
-        <v>0.563546452612286</v>
+        <v>0.5635464526122433</v>
       </c>
       <c r="I4">
-        <v>0.09813854023001212</v>
+        <v>0.09813854023002233</v>
       </c>
       <c r="J4">
-        <v>0.4006464932884626</v>
+        <v>0.4006464932884839</v>
       </c>
       <c r="K4">
-        <v>0.1198438548733591</v>
+        <v>0.1198438548733769</v>
       </c>
       <c r="L4">
-        <v>0.4346263318077348</v>
+        <v>0.4346263318077135</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.373714023773516</v>
+        <v>1.373714023773573</v>
       </c>
       <c r="C5">
-        <v>0.3329296703234945</v>
+        <v>0.3329296703237503</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.043510740975087</v>
+        <v>0.0435107409750799</v>
       </c>
       <c r="F5">
         <v>1.082521402909279</v>
@@ -544,16 +544,16 @@
         <v>0.7413477832351703</v>
       </c>
       <c r="H5">
-        <v>0.5574649442002126</v>
+        <v>0.5574649442002055</v>
       </c>
       <c r="I5">
-        <v>0.09946593515351876</v>
+        <v>0.09946593515353697</v>
       </c>
       <c r="J5">
-        <v>0.3835772971186913</v>
+        <v>0.3835772971187055</v>
       </c>
       <c r="K5">
-        <v>0.1147926621366793</v>
+        <v>0.1147926621367041</v>
       </c>
       <c r="L5">
         <v>0.41612172808059</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.363600648891719</v>
+        <v>1.363600648891691</v>
       </c>
       <c r="C6">
-        <v>0.3304778215730551</v>
+        <v>0.3304778215735382</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04323003337795583</v>
+        <v>0.04323003337795939</v>
       </c>
       <c r="F6">
         <v>1.075660138184986</v>
       </c>
       <c r="G6">
-        <v>0.738902474876042</v>
+        <v>0.7389024748760491</v>
       </c>
       <c r="H6">
-        <v>0.5564778947606328</v>
+        <v>0.5564778947606399</v>
       </c>
       <c r="I6">
-        <v>0.09968797378667227</v>
+        <v>0.09968797378667138</v>
       </c>
       <c r="J6">
-        <v>0.3807472186565164</v>
+        <v>0.3807472186565022</v>
       </c>
       <c r="K6">
-        <v>0.1139556168852245</v>
+        <v>0.1139556168851783</v>
       </c>
       <c r="L6">
         <v>0.413054121606784</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.433881789441045</v>
+        <v>1.433881789440875</v>
       </c>
       <c r="C7">
         <v>0.3475225755229872</v>
@@ -611,28 +611,28 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04518237031918915</v>
+        <v>0.0451823703191998</v>
       </c>
       <c r="F7">
-        <v>1.12346264529296</v>
+        <v>1.123462645292946</v>
       </c>
       <c r="G7">
-        <v>0.7560540215981604</v>
+        <v>0.7560540215981462</v>
       </c>
       <c r="H7">
-        <v>0.5634628892667592</v>
+        <v>0.5634628892667521</v>
       </c>
       <c r="I7">
-        <v>0.09815633255998546</v>
+        <v>0.09815633255998857</v>
       </c>
       <c r="J7">
-        <v>0.4004159975092918</v>
+        <v>0.4004159975092847</v>
       </c>
       <c r="K7">
-        <v>0.1197756157140617</v>
+        <v>0.1197756157140404</v>
       </c>
       <c r="L7">
-        <v>0.4343764222129067</v>
+        <v>0.4343764222128996</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>1.746444465417596</v>
       </c>
       <c r="C8">
-        <v>0.4235047938712739</v>
+        <v>0.4235047938715581</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05390406252904256</v>
+        <v>0.05390406252906033</v>
       </c>
       <c r="F8">
         <v>1.339219454503692</v>
       </c>
       <c r="G8">
-        <v>0.8364775970106209</v>
+        <v>0.8364775970106137</v>
       </c>
       <c r="H8">
-        <v>0.5978082187860281</v>
+        <v>0.597808218786021</v>
       </c>
       <c r="I8">
-        <v>0.09163836271379577</v>
+        <v>0.09163836271378312</v>
       </c>
       <c r="J8">
-        <v>0.4879378197864668</v>
+        <v>0.4879378197864739</v>
       </c>
       <c r="K8">
-        <v>0.1457382866592987</v>
+        <v>0.1457382866592773</v>
       </c>
       <c r="L8">
-        <v>0.529318598736694</v>
+        <v>0.5293185987367082</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>2.372022818160929</v>
       </c>
       <c r="C9">
-        <v>0.5765262822631598</v>
+        <v>0.5765262822630177</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0714891727953173</v>
+        <v>0.07148917279534217</v>
       </c>
       <c r="F9">
         <v>1.783984577246315</v>
       </c>
       <c r="G9">
-        <v>1.014624359078979</v>
+        <v>1.014624359079008</v>
       </c>
       <c r="H9">
-        <v>0.6800503625746188</v>
+        <v>0.680050362574633</v>
       </c>
       <c r="I9">
-        <v>0.07977258737922499</v>
+        <v>0.07977258737925119</v>
       </c>
       <c r="J9">
-        <v>0.6633654222109584</v>
+        <v>0.6633654222109797</v>
       </c>
       <c r="K9">
-        <v>0.1980084588492232</v>
+        <v>0.1980084588492446</v>
       </c>
       <c r="L9">
-        <v>0.7197852483793312</v>
+        <v>0.7197852483793241</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.843560067166834</v>
+        <v>2.84356006716672</v>
       </c>
       <c r="C10">
-        <v>0.6927630938988329</v>
+        <v>0.6927630938987477</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08480683195202232</v>
+        <v>0.08480683195202943</v>
       </c>
       <c r="F10">
-        <v>2.1285633335428</v>
+        <v>2.128563333542786</v>
       </c>
       <c r="G10">
         <v>1.161589361533331</v>
       </c>
       <c r="H10">
-        <v>0.7519168962577183</v>
+        <v>0.7519168962577254</v>
       </c>
       <c r="I10">
-        <v>0.0716703732448396</v>
+        <v>0.07167037324481695</v>
       </c>
       <c r="J10">
-        <v>0.7958388878604836</v>
+        <v>0.7958388878604694</v>
       </c>
       <c r="K10">
         <v>0.2376106647428458</v>
       </c>
       <c r="L10">
-        <v>0.863644054541524</v>
+        <v>0.8636440545415027</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.061729083711839</v>
+        <v>3.061729083711896</v>
       </c>
       <c r="C11">
-        <v>0.7468161239097526</v>
+        <v>0.7468161239096389</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0909772882074833</v>
+        <v>0.09097728820747619</v>
       </c>
       <c r="F11">
-        <v>2.290333840964735</v>
+        <v>2.290333840964749</v>
       </c>
       <c r="G11">
         <v>1.232852416078657</v>
       </c>
       <c r="H11">
-        <v>0.7876909552341047</v>
+        <v>0.7876909552341189</v>
       </c>
       <c r="I11">
-        <v>0.06813385330321164</v>
+        <v>0.0681338533032072</v>
       </c>
       <c r="J11">
         <v>0.857205118128789</v>
       </c>
       <c r="K11">
-        <v>0.2559798796909476</v>
+        <v>0.2559798796909405</v>
       </c>
       <c r="L11">
-        <v>0.9302702496574327</v>
+        <v>0.9302702496574184</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.144970829770273</v>
+        <v>3.14497082977033</v>
       </c>
       <c r="C12">
-        <v>0.7674865411637199</v>
+        <v>0.7674865411634357</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09333233537783414</v>
+        <v>0.09333233537784125</v>
       </c>
       <c r="F12">
         <v>2.352420607754397</v>
       </c>
       <c r="G12">
-        <v>1.260558030771236</v>
+        <v>1.260558030771222</v>
       </c>
       <c r="H12">
         <v>0.8017370392173504</v>
       </c>
       <c r="I12">
-        <v>0.06681773964806004</v>
+        <v>0.06681773964805737</v>
       </c>
       <c r="J12">
         <v>0.8806318339224788</v>
       </c>
       <c r="K12">
-        <v>0.2629953312883373</v>
+        <v>0.2629953312883515</v>
       </c>
       <c r="L12">
-        <v>0.9557008729991878</v>
+        <v>0.9557008729992091</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.127013695633934</v>
+        <v>3.127013695633877</v>
       </c>
       <c r="C13">
-        <v>0.7630252649287286</v>
+        <v>0.7630252649288423</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09282427530002835</v>
+        <v>0.09282427530008164</v>
       </c>
       <c r="F13">
-        <v>2.339010487103849</v>
+        <v>2.339010487103835</v>
       </c>
       <c r="G13">
-        <v>1.254557638902469</v>
+        <v>1.254557638902455</v>
       </c>
       <c r="H13">
         <v>0.7986887978239423</v>
       </c>
       <c r="I13">
-        <v>0.06710013236923063</v>
+        <v>0.06710013236920487</v>
       </c>
       <c r="J13">
-        <v>0.8755775655657345</v>
+        <v>0.8755775655657203</v>
       </c>
       <c r="K13">
         <v>0.261481639559598</v>
       </c>
       <c r="L13">
-        <v>0.9502144840554223</v>
+        <v>0.9502144840554365</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.06856428117618</v>
+        <v>3.068564281176123</v>
       </c>
       <c r="C14">
-        <v>0.7485124484433072</v>
+        <v>0.748512448443222</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09117065608156594</v>
+        <v>0.09117065608160502</v>
       </c>
       <c r="F14">
-        <v>2.295424519414766</v>
+        <v>2.29542451941478</v>
       </c>
       <c r="G14">
-        <v>1.235116818742284</v>
+        <v>1.235116818742299</v>
       </c>
       <c r="H14">
-        <v>0.7888361854555441</v>
+        <v>0.7888361854555583</v>
       </c>
       <c r="I14">
-        <v>0.0680251027486376</v>
+        <v>0.06802510274863183</v>
       </c>
       <c r="J14">
-        <v>0.8591284828450938</v>
+        <v>0.859128482845108</v>
       </c>
       <c r="K14">
-        <v>0.2565558019776972</v>
+        <v>0.2565558019776759</v>
       </c>
       <c r="L14">
-        <v>0.9323582327948543</v>
+        <v>0.9323582327948756</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.03284696579243</v>
+        <v>3.032846965792373</v>
       </c>
       <c r="C15">
-        <v>0.7396502311381994</v>
+        <v>0.7396502311385404</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09016023842934828</v>
+        <v>0.0901602384293696</v>
       </c>
       <c r="F15">
         <v>2.268837994263762</v>
       </c>
       <c r="G15">
-        <v>1.223305221783733</v>
+        <v>1.223305221783718</v>
       </c>
       <c r="H15">
         <v>0.7828679642766332</v>
       </c>
       <c r="I15">
-        <v>0.06859473393005278</v>
+        <v>0.06859473393006743</v>
       </c>
       <c r="J15">
         <v>0.8490784632344202</v>
@@ -936,7 +936,7 @@
         <v>0.2535465921895366</v>
       </c>
       <c r="L15">
-        <v>0.9214478661591059</v>
+        <v>0.9214478661591272</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.829384148446366</v>
+        <v>2.829384148446309</v>
       </c>
       <c r="C16">
-        <v>0.6892569667407997</v>
+        <v>0.6892569667406576</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08440602716624213</v>
+        <v>0.08440602716624568</v>
       </c>
       <c r="F16">
-        <v>2.118101067262685</v>
+        <v>2.118101067262671</v>
       </c>
       <c r="G16">
-        <v>1.157027980622246</v>
+        <v>1.157027980622232</v>
       </c>
       <c r="H16">
-        <v>0.7496456386553803</v>
+        <v>0.7496456386553874</v>
       </c>
       <c r="I16">
-        <v>0.07190462919874951</v>
+        <v>0.07190462919878238</v>
       </c>
       <c r="J16">
-        <v>0.7918531488439839</v>
+        <v>0.7918531488439768</v>
       </c>
       <c r="K16">
-        <v>0.236418024849705</v>
+        <v>0.2364180248497334</v>
       </c>
       <c r="L16">
-        <v>0.8593162307615714</v>
+        <v>0.8593162307615643</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.705571757942209</v>
+        <v>2.705571757942096</v>
       </c>
       <c r="C17">
-        <v>0.6586655801617951</v>
+        <v>0.6586655801618235</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -994,25 +994,25 @@
         <v>0.08090630742371374</v>
       </c>
       <c r="F17">
-        <v>2.026986500804725</v>
+        <v>2.026986500804711</v>
       </c>
       <c r="G17">
         <v>1.117556174185765</v>
       </c>
       <c r="H17">
-        <v>0.7300920475204933</v>
+        <v>0.7300920475204862</v>
       </c>
       <c r="I17">
-        <v>0.07397443934197412</v>
+        <v>0.0739744393419719</v>
       </c>
       <c r="J17">
-        <v>0.7570501487559866</v>
+        <v>0.7570501487560222</v>
       </c>
       <c r="K17">
-        <v>0.2260066550158371</v>
+        <v>0.2260066550158442</v>
       </c>
       <c r="L17">
-        <v>0.821524396694997</v>
+        <v>0.8215243966950041</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.634696500252289</v>
+        <v>2.634696500252403</v>
       </c>
       <c r="C18">
-        <v>0.6411787796656085</v>
+        <v>0.6411787796655801</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07890377121369241</v>
+        <v>0.07890377121369596</v>
       </c>
       <c r="F18">
         <v>1.975045345757437</v>
@@ -1038,19 +1038,19 @@
         <v>1.095262238003599</v>
       </c>
       <c r="H18">
-        <v>0.7191316843679942</v>
+        <v>0.7191316843679871</v>
       </c>
       <c r="I18">
-        <v>0.07517887199223461</v>
+        <v>0.07517887199222528</v>
       </c>
       <c r="J18">
-        <v>0.7371342514182118</v>
+        <v>0.7371342514182331</v>
       </c>
       <c r="K18">
-        <v>0.2200510672381739</v>
+        <v>0.2200510672381668</v>
       </c>
       <c r="L18">
-        <v>0.7998969756161145</v>
+        <v>0.7998969756161003</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>2.610754634050636</v>
       </c>
       <c r="C19">
-        <v>0.6352757643862788</v>
+        <v>0.6352757643863356</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07822746820052728</v>
+        <v>0.07822746820049886</v>
       </c>
       <c r="F19">
         <v>1.957535869579104</v>
       </c>
       <c r="G19">
-        <v>1.08778171242399</v>
+        <v>1.087781712423975</v>
       </c>
       <c r="H19">
-        <v>0.715468266293108</v>
+        <v>0.7154682662931151</v>
       </c>
       <c r="I19">
-        <v>0.07558901971725906</v>
+        <v>0.07558901971722176</v>
       </c>
       <c r="J19">
         <v>0.7304077082184151</v>
       </c>
       <c r="K19">
-        <v>0.2180399881052182</v>
+        <v>0.2180399881051898</v>
       </c>
       <c r="L19">
-        <v>0.7925922250444657</v>
+        <v>0.7925922250444302</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.7187160987624</v>
+        <v>2.718716098762343</v>
       </c>
       <c r="C20">
-        <v>0.6619106268508403</v>
+        <v>0.6619106268507551</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08127776519805252</v>
+        <v>0.08127776519807028</v>
       </c>
       <c r="F20">
-        <v>2.036636888865715</v>
+        <v>2.036636888865701</v>
       </c>
       <c r="G20">
         <v>1.121715072632696</v>
       </c>
       <c r="H20">
-        <v>0.7321435388013526</v>
+        <v>0.7321435388013384</v>
       </c>
       <c r="I20">
-        <v>0.07375265158104005</v>
+        <v>0.07375265158104272</v>
       </c>
       <c r="J20">
-        <v>0.7607442382925527</v>
+        <v>0.7607442382925242</v>
       </c>
       <c r="K20">
-        <v>0.2271115139743998</v>
+        <v>0.227111513974414</v>
       </c>
       <c r="L20">
-        <v>0.825535865086259</v>
+        <v>0.8255358650862874</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.085714459431813</v>
+        <v>3.085714459431756</v>
       </c>
       <c r="C21">
-        <v>0.7527694609857747</v>
+        <v>0.7527694609855189</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09165584458977705</v>
+        <v>0.09165584458975573</v>
       </c>
       <c r="F21">
-        <v>2.308203408240729</v>
+        <v>2.308203408240715</v>
       </c>
       <c r="G21">
         <v>1.240806787510223</v>
       </c>
       <c r="H21">
-        <v>0.7917161085319577</v>
+        <v>0.7917161085319648</v>
       </c>
       <c r="I21">
-        <v>0.06775277548888292</v>
+        <v>0.0677527754888847</v>
       </c>
       <c r="J21">
-        <v>0.8639546005748855</v>
+        <v>0.8639546005748713</v>
       </c>
       <c r="K21">
-        <v>0.2580009545036646</v>
+        <v>0.2580009545036717</v>
       </c>
       <c r="L21">
-        <v>0.9375973391812806</v>
+        <v>0.9375973391812735</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>3.329271659062556</v>
       </c>
       <c r="C22">
-        <v>0.8133447460702712</v>
+        <v>0.8133447460701007</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09854716472118596</v>
+        <v>0.09854716472123926</v>
       </c>
       <c r="F22">
-        <v>2.490570409911214</v>
+        <v>2.490570409911186</v>
       </c>
       <c r="G22">
-        <v>1.32288329697252</v>
+        <v>1.322883296972535</v>
       </c>
       <c r="H22">
-        <v>0.8335909610821659</v>
+        <v>0.8335909610821588</v>
       </c>
       <c r="I22">
-        <v>0.06396706163098642</v>
+        <v>0.06396706163099308</v>
       </c>
       <c r="J22">
-        <v>0.9325247212183285</v>
+        <v>0.9325247212183427</v>
       </c>
       <c r="K22">
-        <v>0.2785400224396923</v>
+        <v>0.2785400224397137</v>
       </c>
       <c r="L22">
-        <v>1.012022677841955</v>
+        <v>1.012022677841934</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.198906048927427</v>
+        <v>3.198906048927483</v>
       </c>
       <c r="C23">
-        <v>0.7808935243364203</v>
+        <v>0.7808935243363351</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.094858380161714</v>
+        <v>0.09485838016172821</v>
       </c>
       <c r="F23">
-        <v>2.392752918773269</v>
+        <v>2.392752918773255</v>
       </c>
       <c r="G23">
-        <v>1.278658170082153</v>
+        <v>1.278658170082139</v>
       </c>
       <c r="H23">
-        <v>0.8109522170276549</v>
+        <v>0.8109522170276477</v>
       </c>
       <c r="I23">
-        <v>0.06597455096145088</v>
+        <v>0.06597455096146509</v>
       </c>
       <c r="J23">
         <v>0.8958145732354978</v>
       </c>
       <c r="K23">
-        <v>0.2675427538629762</v>
+        <v>0.2675427538629975</v>
       </c>
       <c r="L23">
-        <v>0.9721809135925312</v>
+        <v>0.9721809135925454</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.712772596068817</v>
+        <v>2.712772596069044</v>
       </c>
       <c r="C24">
-        <v>0.6604432303208796</v>
+        <v>0.660443230320908</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08110979972109433</v>
+        <v>0.08110979972108368</v>
       </c>
       <c r="F24">
-        <v>2.032272580109378</v>
+        <v>2.032272580109392</v>
       </c>
       <c r="G24">
         <v>1.119833598437253</v>
       </c>
       <c r="H24">
-        <v>0.7312151876999806</v>
+        <v>0.7312151876999735</v>
       </c>
       <c r="I24">
-        <v>0.07385287687307374</v>
+        <v>0.07385287687306707</v>
       </c>
       <c r="J24">
-        <v>0.7590738535495163</v>
+        <v>0.7590738535495376</v>
       </c>
       <c r="K24">
-        <v>0.2266119142812713</v>
+        <v>0.2266119142812784</v>
       </c>
       <c r="L24">
-        <v>0.8237219722295706</v>
+        <v>0.8237219722295848</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.20102397390491</v>
+        <v>2.201023973904967</v>
       </c>
       <c r="C25">
-        <v>0.5345676326942623</v>
+        <v>0.5345676326945181</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1298,25 +1298,25 @@
         <v>0.06667010823915831</v>
       </c>
       <c r="F25">
-        <v>1.660894640709756</v>
+        <v>1.660894640709742</v>
       </c>
       <c r="G25">
-        <v>0.9638909472613619</v>
+        <v>0.9638909472613761</v>
       </c>
       <c r="H25">
-        <v>0.6559774046382572</v>
+        <v>0.6559774046382714</v>
       </c>
       <c r="I25">
-        <v>0.0828791788830705</v>
+        <v>0.08287917888307827</v>
       </c>
       <c r="J25">
-        <v>0.6153775750295765</v>
+        <v>0.6153775750295836</v>
       </c>
       <c r="K25">
-        <v>0.1836863648324965</v>
+        <v>0.1836863648325036</v>
       </c>
       <c r="L25">
-        <v>0.6676725974370257</v>
+        <v>0.6676725974370186</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.831846941430058</v>
+        <v>1.831846941430086</v>
       </c>
       <c r="C2">
-        <v>0.4443186235174039</v>
+        <v>0.4443186235173755</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05629624323841043</v>
+        <v>0.05629624323842108</v>
       </c>
       <c r="F2">
-        <v>1.39898859238221</v>
+        <v>1.398988592382224</v>
       </c>
       <c r="G2">
-        <v>0.8595292170137583</v>
+        <v>0.859529217013737</v>
       </c>
       <c r="H2">
-        <v>0.6080419755384483</v>
+        <v>0.6080419755384554</v>
       </c>
       <c r="I2">
-        <v>0.08993248789286135</v>
+        <v>0.08993248789287622</v>
       </c>
       <c r="J2">
-        <v>0.5118660615166348</v>
+        <v>0.5118660615166064</v>
       </c>
       <c r="K2">
-        <v>0.1528521125646414</v>
+        <v>0.1528521125646449</v>
       </c>
       <c r="L2">
-        <v>0.5552888910391758</v>
+        <v>0.5552888910391829</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.585012134986869</v>
+        <v>1.585012134986755</v>
       </c>
       <c r="C3">
-        <v>0.3842242471681345</v>
+        <v>0.3842242471683335</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -465,19 +465,19 @@
         <v>1.227170459312902</v>
       </c>
       <c r="G3">
-        <v>0.7941324762525426</v>
+        <v>0.7941324762525284</v>
       </c>
       <c r="H3">
-        <v>0.5794312281575813</v>
+        <v>0.57943122815756</v>
       </c>
       <c r="I3">
-        <v>0.09494800125702274</v>
+        <v>0.09494800125702119</v>
       </c>
       <c r="J3">
-        <v>0.4427244483660644</v>
+        <v>0.4427244483660573</v>
       </c>
       <c r="K3">
-        <v>0.1323138666104136</v>
+        <v>0.1323138666104278</v>
       </c>
       <c r="L3">
         <v>0.4802607888106181</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.434705322845105</v>
+        <v>1.434705322844962</v>
       </c>
       <c r="C4">
-        <v>0.3477223854027898</v>
+        <v>0.3477223854026192</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04520526890743426</v>
+        <v>0.04520526890745558</v>
       </c>
       <c r="F4">
         <v>1.12402443675866</v>
       </c>
       <c r="G4">
-        <v>0.7562571601397039</v>
+        <v>0.7562571601396755</v>
       </c>
       <c r="H4">
-        <v>0.5635464526122433</v>
+        <v>0.563546452612286</v>
       </c>
       <c r="I4">
-        <v>0.09813854023002233</v>
+        <v>0.09813854023001212</v>
       </c>
       <c r="J4">
-        <v>0.4006464932884839</v>
+        <v>0.4006464932884626</v>
       </c>
       <c r="K4">
-        <v>0.1198438548733769</v>
+        <v>0.1198438548733591</v>
       </c>
       <c r="L4">
-        <v>0.4346263318077135</v>
+        <v>0.4346263318077348</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.373714023773573</v>
+        <v>1.373714023773516</v>
       </c>
       <c r="C5">
-        <v>0.3329296703237503</v>
+        <v>0.3329296703234945</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0435107409750799</v>
+        <v>0.043510740975087</v>
       </c>
       <c r="F5">
         <v>1.082521402909279</v>
@@ -544,16 +544,16 @@
         <v>0.7413477832351703</v>
       </c>
       <c r="H5">
-        <v>0.5574649442002055</v>
+        <v>0.5574649442002126</v>
       </c>
       <c r="I5">
-        <v>0.09946593515353697</v>
+        <v>0.09946593515351876</v>
       </c>
       <c r="J5">
-        <v>0.3835772971187055</v>
+        <v>0.3835772971186913</v>
       </c>
       <c r="K5">
-        <v>0.1147926621367041</v>
+        <v>0.1147926621366793</v>
       </c>
       <c r="L5">
         <v>0.41612172808059</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.363600648891691</v>
+        <v>1.363600648891719</v>
       </c>
       <c r="C6">
-        <v>0.3304778215735382</v>
+        <v>0.3304778215730551</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04323003337795939</v>
+        <v>0.04323003337795583</v>
       </c>
       <c r="F6">
         <v>1.075660138184986</v>
       </c>
       <c r="G6">
-        <v>0.7389024748760491</v>
+        <v>0.738902474876042</v>
       </c>
       <c r="H6">
-        <v>0.5564778947606399</v>
+        <v>0.5564778947606328</v>
       </c>
       <c r="I6">
-        <v>0.09968797378667138</v>
+        <v>0.09968797378667227</v>
       </c>
       <c r="J6">
-        <v>0.3807472186565022</v>
+        <v>0.3807472186565164</v>
       </c>
       <c r="K6">
-        <v>0.1139556168851783</v>
+        <v>0.1139556168852245</v>
       </c>
       <c r="L6">
         <v>0.413054121606784</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.433881789440875</v>
+        <v>1.433881789441045</v>
       </c>
       <c r="C7">
         <v>0.3475225755229872</v>
@@ -611,28 +611,28 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0451823703191998</v>
+        <v>0.04518237031918915</v>
       </c>
       <c r="F7">
-        <v>1.123462645292946</v>
+        <v>1.12346264529296</v>
       </c>
       <c r="G7">
-        <v>0.7560540215981462</v>
+        <v>0.7560540215981604</v>
       </c>
       <c r="H7">
-        <v>0.5634628892667521</v>
+        <v>0.5634628892667592</v>
       </c>
       <c r="I7">
-        <v>0.09815633255998857</v>
+        <v>0.09815633255998546</v>
       </c>
       <c r="J7">
-        <v>0.4004159975092847</v>
+        <v>0.4004159975092918</v>
       </c>
       <c r="K7">
-        <v>0.1197756157140404</v>
+        <v>0.1197756157140617</v>
       </c>
       <c r="L7">
-        <v>0.4343764222128996</v>
+        <v>0.4343764222129067</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>1.746444465417596</v>
       </c>
       <c r="C8">
-        <v>0.4235047938715581</v>
+        <v>0.4235047938712739</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05390406252906033</v>
+        <v>0.05390406252904256</v>
       </c>
       <c r="F8">
         <v>1.339219454503692</v>
       </c>
       <c r="G8">
-        <v>0.8364775970106137</v>
+        <v>0.8364775970106209</v>
       </c>
       <c r="H8">
-        <v>0.597808218786021</v>
+        <v>0.5978082187860281</v>
       </c>
       <c r="I8">
-        <v>0.09163836271378312</v>
+        <v>0.09163836271379577</v>
       </c>
       <c r="J8">
-        <v>0.4879378197864739</v>
+        <v>0.4879378197864668</v>
       </c>
       <c r="K8">
-        <v>0.1457382866592773</v>
+        <v>0.1457382866592987</v>
       </c>
       <c r="L8">
-        <v>0.5293185987367082</v>
+        <v>0.529318598736694</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>2.372022818160929</v>
       </c>
       <c r="C9">
-        <v>0.5765262822630177</v>
+        <v>0.5765262822631598</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07148917279534217</v>
+        <v>0.0714891727953173</v>
       </c>
       <c r="F9">
         <v>1.783984577246315</v>
       </c>
       <c r="G9">
-        <v>1.014624359079008</v>
+        <v>1.014624359078979</v>
       </c>
       <c r="H9">
-        <v>0.680050362574633</v>
+        <v>0.6800503625746188</v>
       </c>
       <c r="I9">
-        <v>0.07977258737925119</v>
+        <v>0.07977258737922499</v>
       </c>
       <c r="J9">
-        <v>0.6633654222109797</v>
+        <v>0.6633654222109584</v>
       </c>
       <c r="K9">
-        <v>0.1980084588492446</v>
+        <v>0.1980084588492232</v>
       </c>
       <c r="L9">
-        <v>0.7197852483793241</v>
+        <v>0.7197852483793312</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.84356006716672</v>
+        <v>2.843560067166834</v>
       </c>
       <c r="C10">
-        <v>0.6927630938987477</v>
+        <v>0.6927630938988329</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08480683195202943</v>
+        <v>0.08480683195202232</v>
       </c>
       <c r="F10">
-        <v>2.128563333542786</v>
+        <v>2.1285633335428</v>
       </c>
       <c r="G10">
         <v>1.161589361533331</v>
       </c>
       <c r="H10">
-        <v>0.7519168962577254</v>
+        <v>0.7519168962577183</v>
       </c>
       <c r="I10">
-        <v>0.07167037324481695</v>
+        <v>0.0716703732448396</v>
       </c>
       <c r="J10">
-        <v>0.7958388878604694</v>
+        <v>0.7958388878604836</v>
       </c>
       <c r="K10">
         <v>0.2376106647428458</v>
       </c>
       <c r="L10">
-        <v>0.8636440545415027</v>
+        <v>0.863644054541524</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.061729083711896</v>
+        <v>3.061729083711839</v>
       </c>
       <c r="C11">
-        <v>0.7468161239096389</v>
+        <v>0.7468161239097526</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09097728820747619</v>
+        <v>0.0909772882074833</v>
       </c>
       <c r="F11">
-        <v>2.290333840964749</v>
+        <v>2.290333840964735</v>
       </c>
       <c r="G11">
         <v>1.232852416078657</v>
       </c>
       <c r="H11">
-        <v>0.7876909552341189</v>
+        <v>0.7876909552341047</v>
       </c>
       <c r="I11">
-        <v>0.0681338533032072</v>
+        <v>0.06813385330321164</v>
       </c>
       <c r="J11">
         <v>0.857205118128789</v>
       </c>
       <c r="K11">
-        <v>0.2559798796909405</v>
+        <v>0.2559798796909476</v>
       </c>
       <c r="L11">
-        <v>0.9302702496574184</v>
+        <v>0.9302702496574327</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.14497082977033</v>
+        <v>3.144970829770273</v>
       </c>
       <c r="C12">
-        <v>0.7674865411634357</v>
+        <v>0.7674865411637199</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09333233537784125</v>
+        <v>0.09333233537783414</v>
       </c>
       <c r="F12">
         <v>2.352420607754397</v>
       </c>
       <c r="G12">
-        <v>1.260558030771222</v>
+        <v>1.260558030771236</v>
       </c>
       <c r="H12">
         <v>0.8017370392173504</v>
       </c>
       <c r="I12">
-        <v>0.06681773964805737</v>
+        <v>0.06681773964806004</v>
       </c>
       <c r="J12">
         <v>0.8806318339224788</v>
       </c>
       <c r="K12">
-        <v>0.2629953312883515</v>
+        <v>0.2629953312883373</v>
       </c>
       <c r="L12">
-        <v>0.9557008729992091</v>
+        <v>0.9557008729991878</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.127013695633877</v>
+        <v>3.127013695633934</v>
       </c>
       <c r="C13">
-        <v>0.7630252649288423</v>
+        <v>0.7630252649287286</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09282427530008164</v>
+        <v>0.09282427530002835</v>
       </c>
       <c r="F13">
-        <v>2.339010487103835</v>
+        <v>2.339010487103849</v>
       </c>
       <c r="G13">
-        <v>1.254557638902455</v>
+        <v>1.254557638902469</v>
       </c>
       <c r="H13">
         <v>0.7986887978239423</v>
       </c>
       <c r="I13">
-        <v>0.06710013236920487</v>
+        <v>0.06710013236923063</v>
       </c>
       <c r="J13">
-        <v>0.8755775655657203</v>
+        <v>0.8755775655657345</v>
       </c>
       <c r="K13">
         <v>0.261481639559598</v>
       </c>
       <c r="L13">
-        <v>0.9502144840554365</v>
+        <v>0.9502144840554223</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.068564281176123</v>
+        <v>3.06856428117618</v>
       </c>
       <c r="C14">
-        <v>0.748512448443222</v>
+        <v>0.7485124484433072</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09117065608160502</v>
+        <v>0.09117065608156594</v>
       </c>
       <c r="F14">
-        <v>2.29542451941478</v>
+        <v>2.295424519414766</v>
       </c>
       <c r="G14">
-        <v>1.235116818742299</v>
+        <v>1.235116818742284</v>
       </c>
       <c r="H14">
-        <v>0.7888361854555583</v>
+        <v>0.7888361854555441</v>
       </c>
       <c r="I14">
-        <v>0.06802510274863183</v>
+        <v>0.0680251027486376</v>
       </c>
       <c r="J14">
-        <v>0.859128482845108</v>
+        <v>0.8591284828450938</v>
       </c>
       <c r="K14">
-        <v>0.2565558019776759</v>
+        <v>0.2565558019776972</v>
       </c>
       <c r="L14">
-        <v>0.9323582327948756</v>
+        <v>0.9323582327948543</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.032846965792373</v>
+        <v>3.03284696579243</v>
       </c>
       <c r="C15">
-        <v>0.7396502311385404</v>
+        <v>0.7396502311381994</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0901602384293696</v>
+        <v>0.09016023842934828</v>
       </c>
       <c r="F15">
         <v>2.268837994263762</v>
       </c>
       <c r="G15">
-        <v>1.223305221783718</v>
+        <v>1.223305221783733</v>
       </c>
       <c r="H15">
         <v>0.7828679642766332</v>
       </c>
       <c r="I15">
-        <v>0.06859473393006743</v>
+        <v>0.06859473393005278</v>
       </c>
       <c r="J15">
         <v>0.8490784632344202</v>
@@ -936,7 +936,7 @@
         <v>0.2535465921895366</v>
       </c>
       <c r="L15">
-        <v>0.9214478661591272</v>
+        <v>0.9214478661591059</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.829384148446309</v>
+        <v>2.829384148446366</v>
       </c>
       <c r="C16">
-        <v>0.6892569667406576</v>
+        <v>0.6892569667407997</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08440602716624568</v>
+        <v>0.08440602716624213</v>
       </c>
       <c r="F16">
-        <v>2.118101067262671</v>
+        <v>2.118101067262685</v>
       </c>
       <c r="G16">
-        <v>1.157027980622232</v>
+        <v>1.157027980622246</v>
       </c>
       <c r="H16">
-        <v>0.7496456386553874</v>
+        <v>0.7496456386553803</v>
       </c>
       <c r="I16">
-        <v>0.07190462919878238</v>
+        <v>0.07190462919874951</v>
       </c>
       <c r="J16">
-        <v>0.7918531488439768</v>
+        <v>0.7918531488439839</v>
       </c>
       <c r="K16">
-        <v>0.2364180248497334</v>
+        <v>0.236418024849705</v>
       </c>
       <c r="L16">
-        <v>0.8593162307615643</v>
+        <v>0.8593162307615714</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.705571757942096</v>
+        <v>2.705571757942209</v>
       </c>
       <c r="C17">
-        <v>0.6586655801618235</v>
+        <v>0.6586655801617951</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -994,25 +994,25 @@
         <v>0.08090630742371374</v>
       </c>
       <c r="F17">
-        <v>2.026986500804711</v>
+        <v>2.026986500804725</v>
       </c>
       <c r="G17">
         <v>1.117556174185765</v>
       </c>
       <c r="H17">
-        <v>0.7300920475204862</v>
+        <v>0.7300920475204933</v>
       </c>
       <c r="I17">
-        <v>0.0739744393419719</v>
+        <v>0.07397443934197412</v>
       </c>
       <c r="J17">
-        <v>0.7570501487560222</v>
+        <v>0.7570501487559866</v>
       </c>
       <c r="K17">
-        <v>0.2260066550158442</v>
+        <v>0.2260066550158371</v>
       </c>
       <c r="L17">
-        <v>0.8215243966950041</v>
+        <v>0.821524396694997</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.634696500252403</v>
+        <v>2.634696500252289</v>
       </c>
       <c r="C18">
-        <v>0.6411787796655801</v>
+        <v>0.6411787796656085</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07890377121369596</v>
+        <v>0.07890377121369241</v>
       </c>
       <c r="F18">
         <v>1.975045345757437</v>
@@ -1038,19 +1038,19 @@
         <v>1.095262238003599</v>
       </c>
       <c r="H18">
-        <v>0.7191316843679871</v>
+        <v>0.7191316843679942</v>
       </c>
       <c r="I18">
-        <v>0.07517887199222528</v>
+        <v>0.07517887199223461</v>
       </c>
       <c r="J18">
-        <v>0.7371342514182331</v>
+        <v>0.7371342514182118</v>
       </c>
       <c r="K18">
-        <v>0.2200510672381668</v>
+        <v>0.2200510672381739</v>
       </c>
       <c r="L18">
-        <v>0.7998969756161003</v>
+        <v>0.7998969756161145</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>2.610754634050636</v>
       </c>
       <c r="C19">
-        <v>0.6352757643863356</v>
+        <v>0.6352757643862788</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07822746820049886</v>
+        <v>0.07822746820052728</v>
       </c>
       <c r="F19">
         <v>1.957535869579104</v>
       </c>
       <c r="G19">
-        <v>1.087781712423975</v>
+        <v>1.08778171242399</v>
       </c>
       <c r="H19">
-        <v>0.7154682662931151</v>
+        <v>0.715468266293108</v>
       </c>
       <c r="I19">
-        <v>0.07558901971722176</v>
+        <v>0.07558901971725906</v>
       </c>
       <c r="J19">
         <v>0.7304077082184151</v>
       </c>
       <c r="K19">
-        <v>0.2180399881051898</v>
+        <v>0.2180399881052182</v>
       </c>
       <c r="L19">
-        <v>0.7925922250444302</v>
+        <v>0.7925922250444657</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.718716098762343</v>
+        <v>2.7187160987624</v>
       </c>
       <c r="C20">
-        <v>0.6619106268507551</v>
+        <v>0.6619106268508403</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08127776519807028</v>
+        <v>0.08127776519805252</v>
       </c>
       <c r="F20">
-        <v>2.036636888865701</v>
+        <v>2.036636888865715</v>
       </c>
       <c r="G20">
         <v>1.121715072632696</v>
       </c>
       <c r="H20">
-        <v>0.7321435388013384</v>
+        <v>0.7321435388013526</v>
       </c>
       <c r="I20">
-        <v>0.07375265158104272</v>
+        <v>0.07375265158104005</v>
       </c>
       <c r="J20">
-        <v>0.7607442382925242</v>
+        <v>0.7607442382925527</v>
       </c>
       <c r="K20">
-        <v>0.227111513974414</v>
+        <v>0.2271115139743998</v>
       </c>
       <c r="L20">
-        <v>0.8255358650862874</v>
+        <v>0.825535865086259</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.085714459431756</v>
+        <v>3.085714459431813</v>
       </c>
       <c r="C21">
-        <v>0.7527694609855189</v>
+        <v>0.7527694609857747</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09165584458975573</v>
+        <v>0.09165584458977705</v>
       </c>
       <c r="F21">
-        <v>2.308203408240715</v>
+        <v>2.308203408240729</v>
       </c>
       <c r="G21">
         <v>1.240806787510223</v>
       </c>
       <c r="H21">
-        <v>0.7917161085319648</v>
+        <v>0.7917161085319577</v>
       </c>
       <c r="I21">
-        <v>0.0677527754888847</v>
+        <v>0.06775277548888292</v>
       </c>
       <c r="J21">
-        <v>0.8639546005748713</v>
+        <v>0.8639546005748855</v>
       </c>
       <c r="K21">
-        <v>0.2580009545036717</v>
+        <v>0.2580009545036646</v>
       </c>
       <c r="L21">
-        <v>0.9375973391812735</v>
+        <v>0.9375973391812806</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>3.329271659062556</v>
       </c>
       <c r="C22">
-        <v>0.8133447460701007</v>
+        <v>0.8133447460702712</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09854716472123926</v>
+        <v>0.09854716472118596</v>
       </c>
       <c r="F22">
-        <v>2.490570409911186</v>
+        <v>2.490570409911214</v>
       </c>
       <c r="G22">
-        <v>1.322883296972535</v>
+        <v>1.32288329697252</v>
       </c>
       <c r="H22">
-        <v>0.8335909610821588</v>
+        <v>0.8335909610821659</v>
       </c>
       <c r="I22">
-        <v>0.06396706163099308</v>
+        <v>0.06396706163098642</v>
       </c>
       <c r="J22">
-        <v>0.9325247212183427</v>
+        <v>0.9325247212183285</v>
       </c>
       <c r="K22">
-        <v>0.2785400224397137</v>
+        <v>0.2785400224396923</v>
       </c>
       <c r="L22">
-        <v>1.012022677841934</v>
+        <v>1.012022677841955</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.198906048927483</v>
+        <v>3.198906048927427</v>
       </c>
       <c r="C23">
-        <v>0.7808935243363351</v>
+        <v>0.7808935243364203</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09485838016172821</v>
+        <v>0.094858380161714</v>
       </c>
       <c r="F23">
-        <v>2.392752918773255</v>
+        <v>2.392752918773269</v>
       </c>
       <c r="G23">
-        <v>1.278658170082139</v>
+        <v>1.278658170082153</v>
       </c>
       <c r="H23">
-        <v>0.8109522170276477</v>
+        <v>0.8109522170276549</v>
       </c>
       <c r="I23">
-        <v>0.06597455096146509</v>
+        <v>0.06597455096145088</v>
       </c>
       <c r="J23">
         <v>0.8958145732354978</v>
       </c>
       <c r="K23">
-        <v>0.2675427538629975</v>
+        <v>0.2675427538629762</v>
       </c>
       <c r="L23">
-        <v>0.9721809135925454</v>
+        <v>0.9721809135925312</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.712772596069044</v>
+        <v>2.712772596068817</v>
       </c>
       <c r="C24">
-        <v>0.660443230320908</v>
+        <v>0.6604432303208796</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08110979972108368</v>
+        <v>0.08110979972109433</v>
       </c>
       <c r="F24">
-        <v>2.032272580109392</v>
+        <v>2.032272580109378</v>
       </c>
       <c r="G24">
         <v>1.119833598437253</v>
       </c>
       <c r="H24">
-        <v>0.7312151876999735</v>
+        <v>0.7312151876999806</v>
       </c>
       <c r="I24">
-        <v>0.07385287687306707</v>
+        <v>0.07385287687307374</v>
       </c>
       <c r="J24">
-        <v>0.7590738535495376</v>
+        <v>0.7590738535495163</v>
       </c>
       <c r="K24">
-        <v>0.2266119142812784</v>
+        <v>0.2266119142812713</v>
       </c>
       <c r="L24">
-        <v>0.8237219722295848</v>
+        <v>0.8237219722295706</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.201023973904967</v>
+        <v>2.20102397390491</v>
       </c>
       <c r="C25">
-        <v>0.5345676326945181</v>
+        <v>0.5345676326942623</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1298,25 +1298,25 @@
         <v>0.06667010823915831</v>
       </c>
       <c r="F25">
-        <v>1.660894640709742</v>
+        <v>1.660894640709756</v>
       </c>
       <c r="G25">
-        <v>0.9638909472613761</v>
+        <v>0.9638909472613619</v>
       </c>
       <c r="H25">
-        <v>0.6559774046382714</v>
+        <v>0.6559774046382572</v>
       </c>
       <c r="I25">
-        <v>0.08287917888307827</v>
+        <v>0.0828791788830705</v>
       </c>
       <c r="J25">
-        <v>0.6153775750295836</v>
+        <v>0.6153775750295765</v>
       </c>
       <c r="K25">
-        <v>0.1836863648325036</v>
+        <v>0.1836863648324965</v>
       </c>
       <c r="L25">
-        <v>0.6676725974370186</v>
+        <v>0.6676725974370257</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.831846941430086</v>
+        <v>1.831837984042636</v>
       </c>
       <c r="C2">
-        <v>0.4443186235173755</v>
+        <v>0.4439907086313895</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05629624323842108</v>
+        <v>0.05639765307817868</v>
       </c>
       <c r="F2">
-        <v>1.398988592382224</v>
+        <v>1.398062621947034</v>
       </c>
       <c r="G2">
-        <v>0.859529217013737</v>
+        <v>0.2640991860847066</v>
       </c>
       <c r="H2">
-        <v>0.6080419755384554</v>
+        <v>0.5977446227581709</v>
       </c>
       <c r="I2">
-        <v>0.08993248789287622</v>
+        <v>0.606798536839861</v>
       </c>
       <c r="J2">
-        <v>0.5118660615166064</v>
+        <v>0.08986684875504247</v>
       </c>
       <c r="K2">
-        <v>0.1528521125646449</v>
+        <v>0.511761926386562</v>
       </c>
       <c r="L2">
-        <v>0.5552888910391829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1529381134602019</v>
+      </c>
+      <c r="M2">
+        <v>0.5554162267506229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.585012134986755</v>
+        <v>1.585022471542914</v>
       </c>
       <c r="C3">
-        <v>0.3842242471683335</v>
+        <v>0.3839471720007168</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04939225099029088</v>
+        <v>0.04948283942868059</v>
       </c>
       <c r="F3">
-        <v>1.227170459312902</v>
+        <v>1.226351144523647</v>
       </c>
       <c r="G3">
-        <v>0.7941324762525284</v>
+        <v>0.2398556624926229</v>
       </c>
       <c r="H3">
-        <v>0.57943122815756</v>
+        <v>0.5568433914364874</v>
       </c>
       <c r="I3">
-        <v>0.09494800125702119</v>
+        <v>0.5783028833258399</v>
       </c>
       <c r="J3">
-        <v>0.4427244483660573</v>
+        <v>0.09487932267424437</v>
       </c>
       <c r="K3">
-        <v>0.1323138666104278</v>
+        <v>0.4426395109266039</v>
       </c>
       <c r="L3">
-        <v>0.4802607888106181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.13239003859346</v>
+      </c>
+      <c r="M3">
+        <v>0.4803759448590341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.434705322844962</v>
+        <v>1.434725085093078</v>
       </c>
       <c r="C4">
-        <v>0.3477223854026192</v>
+        <v>0.3474755954981958</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04520526890745558</v>
+        <v>0.04528929132765569</v>
       </c>
       <c r="F4">
-        <v>1.12402443675866</v>
+        <v>1.123269502710585</v>
       </c>
       <c r="G4">
-        <v>0.7562571601396755</v>
+        <v>0.2256945409463995</v>
       </c>
       <c r="H4">
-        <v>0.563546452612286</v>
+        <v>0.5332802345140522</v>
       </c>
       <c r="I4">
-        <v>0.09813854023001212</v>
+        <v>0.5624873567535431</v>
       </c>
       <c r="J4">
-        <v>0.4006464932884626</v>
+        <v>0.09806774914388483</v>
       </c>
       <c r="K4">
-        <v>0.1198438548733591</v>
+        <v>0.4005725732382501</v>
       </c>
       <c r="L4">
-        <v>0.4346263318077348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1199139479520888</v>
+      </c>
+      <c r="M4">
+        <v>0.4347334826682854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.373714023773516</v>
+        <v>1.373737089322049</v>
       </c>
       <c r="C5">
-        <v>0.3329296703234945</v>
+        <v>0.3326950231539172</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.043510740975087</v>
+        <v>0.04359210511096379</v>
       </c>
       <c r="F5">
-        <v>1.082521402909279</v>
+        <v>1.081792476282772</v>
       </c>
       <c r="G5">
-        <v>0.7413477832351703</v>
+        <v>0.2200896053092762</v>
       </c>
       <c r="H5">
-        <v>0.5574649442002126</v>
+        <v>0.5240365398714601</v>
       </c>
       <c r="I5">
-        <v>0.09946593515351876</v>
+        <v>0.5564337609690142</v>
       </c>
       <c r="J5">
-        <v>0.3835772971186913</v>
+        <v>0.09939422551952948</v>
       </c>
       <c r="K5">
-        <v>0.1147926621366793</v>
+        <v>0.3835076978701792</v>
       </c>
       <c r="L5">
-        <v>0.41612172808059</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1148602675888846</v>
+      </c>
+      <c r="M5">
+        <v>0.4162254980502951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.363600648891719</v>
+        <v>1.363624232423263</v>
       </c>
       <c r="C6">
-        <v>0.3304778215730551</v>
+        <v>0.3302451796609205</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04323003337795583</v>
+        <v>0.04331095709564892</v>
       </c>
       <c r="F6">
-        <v>1.075660138184986</v>
+        <v>1.074935517650985</v>
       </c>
       <c r="G6">
-        <v>0.738902474876042</v>
+        <v>0.2191684703728924</v>
       </c>
       <c r="H6">
-        <v>0.5564778947606328</v>
+        <v>0.5225224083311062</v>
       </c>
       <c r="I6">
-        <v>0.09968797378667227</v>
+        <v>0.5554513292387</v>
       </c>
       <c r="J6">
-        <v>0.3807472186565164</v>
+        <v>0.0996161082610163</v>
       </c>
       <c r="K6">
-        <v>0.1139556168852245</v>
+        <v>0.3806783273554117</v>
       </c>
       <c r="L6">
-        <v>0.413054121606784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1140228086548341</v>
+      </c>
+      <c r="M6">
+        <v>0.413157323388667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.433881789441045</v>
+        <v>1.433901598326969</v>
       </c>
       <c r="C7">
-        <v>0.3475225755229872</v>
+        <v>0.3472759501400446</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04518237031918915</v>
+        <v>0.04526635682123725</v>
       </c>
       <c r="F7">
-        <v>1.12346264529296</v>
+        <v>1.122708062851828</v>
       </c>
       <c r="G7">
-        <v>0.7560540215981604</v>
+        <v>0.2256183001105683</v>
       </c>
       <c r="H7">
-        <v>0.5634628892667592</v>
+        <v>0.5331541591517777</v>
       </c>
       <c r="I7">
-        <v>0.09815633255998546</v>
+        <v>0.5624041710273815</v>
       </c>
       <c r="J7">
-        <v>0.4004159975092918</v>
+        <v>0.09808552931422843</v>
       </c>
       <c r="K7">
-        <v>0.1197756157140617</v>
+        <v>0.4003421363835855</v>
       </c>
       <c r="L7">
-        <v>0.4343764222129067</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1198456752852621</v>
+      </c>
+      <c r="M7">
+        <v>0.4344835279410546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.746444465417596</v>
+        <v>1.746442707918362</v>
       </c>
       <c r="C8">
-        <v>0.4235047938712739</v>
+        <v>0.4231946239074489</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05390406252904256</v>
+        <v>0.05400172346622156</v>
       </c>
       <c r="F8">
-        <v>1.339219454503692</v>
+        <v>1.338330520228268</v>
       </c>
       <c r="G8">
-        <v>0.8364775970106209</v>
+        <v>0.2555794294350662</v>
       </c>
       <c r="H8">
-        <v>0.5978082187860281</v>
+        <v>0.5833004862849123</v>
       </c>
       <c r="I8">
-        <v>0.09163836271379577</v>
+        <v>0.5966047905770395</v>
       </c>
       <c r="J8">
-        <v>0.4879378197864668</v>
+        <v>0.09157172936962077</v>
       </c>
       <c r="K8">
-        <v>0.1457382866592987</v>
+        <v>0.4878404794993116</v>
       </c>
       <c r="L8">
-        <v>0.529318598736694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1458209080753576</v>
+      </c>
+      <c r="M8">
+        <v>0.5294418529732567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.372022818160929</v>
+        <v>2.371955967476197</v>
       </c>
       <c r="C9">
-        <v>0.5765262822631598</v>
+        <v>0.57608233722911</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0714891727953173</v>
+        <v>0.0716143820267412</v>
       </c>
       <c r="F9">
-        <v>1.783984577246315</v>
+        <v>1.782820845638483</v>
       </c>
       <c r="G9">
-        <v>1.014624359078979</v>
+        <v>0.3208870517596836</v>
       </c>
       <c r="H9">
-        <v>0.6800503625746188</v>
+        <v>0.6954842963350387</v>
       </c>
       <c r="I9">
-        <v>0.07977258737922499</v>
+        <v>0.6785493649165772</v>
       </c>
       <c r="J9">
-        <v>0.6633654222109584</v>
+        <v>0.07971196274996517</v>
       </c>
       <c r="K9">
-        <v>0.1980084588492232</v>
+        <v>0.6632146765298899</v>
       </c>
       <c r="L9">
-        <v>0.7197852483793312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1981153298066332</v>
+      </c>
+      <c r="M9">
+        <v>0.7199352879325644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.843560067166834</v>
+        <v>2.843425779156007</v>
       </c>
       <c r="C10">
-        <v>0.6927630938988329</v>
+        <v>0.6922124542463166</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08480683195202232</v>
+        <v>0.08495289444717002</v>
       </c>
       <c r="F10">
-        <v>2.1285633335428</v>
+        <v>2.1271866919773</v>
       </c>
       <c r="G10">
-        <v>1.161589361533331</v>
+        <v>0.3741014435055945</v>
       </c>
       <c r="H10">
-        <v>0.7519168962577183</v>
+        <v>0.7887221076515232</v>
       </c>
       <c r="I10">
-        <v>0.0716703732448396</v>
+        <v>0.7501848387201235</v>
       </c>
       <c r="J10">
-        <v>0.7958388878604836</v>
+        <v>0.0716125005388677</v>
       </c>
       <c r="K10">
-        <v>0.2376106647428458</v>
+        <v>0.7956424276600842</v>
       </c>
       <c r="L10">
-        <v>0.863644054541524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2377350514320113</v>
+      </c>
+      <c r="M10">
+        <v>0.8638096700643203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.061729083711839</v>
+        <v>3.061558341703062</v>
       </c>
       <c r="C11">
-        <v>0.7468161239097526</v>
+        <v>0.7462143762880373</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0909772882074833</v>
+        <v>0.09113301089009695</v>
       </c>
       <c r="F11">
-        <v>2.290333840964735</v>
+        <v>2.288856850861137</v>
       </c>
       <c r="G11">
-        <v>1.232852416078657</v>
+        <v>0.3997581930346854</v>
       </c>
       <c r="H11">
-        <v>0.7876909552341047</v>
+        <v>0.8340857985173216</v>
       </c>
       <c r="I11">
-        <v>0.06813385330321164</v>
+        <v>0.7858500210445243</v>
       </c>
       <c r="J11">
-        <v>0.857205118128789</v>
+        <v>0.06807678092623082</v>
       </c>
       <c r="K11">
-        <v>0.2559798796909476</v>
+        <v>0.856985928563418</v>
       </c>
       <c r="L11">
-        <v>0.9302702496574327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2561121480819608</v>
+      </c>
+      <c r="M11">
+        <v>0.9304417560677791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.144970829770273</v>
+        <v>3.144785302543426</v>
       </c>
       <c r="C12">
-        <v>0.7674865411637199</v>
+        <v>0.7668649973349773</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09333233537783414</v>
+        <v>0.09349174474951738</v>
       </c>
       <c r="F12">
-        <v>2.352420607754397</v>
+        <v>2.35090500668322</v>
       </c>
       <c r="G12">
-        <v>1.260558030771236</v>
+        <v>0.4097115991925477</v>
       </c>
       <c r="H12">
-        <v>0.8017370392173504</v>
+        <v>0.8517445478167645</v>
       </c>
       <c r="I12">
-        <v>0.06681773964806004</v>
+        <v>0.7998542305739704</v>
       </c>
       <c r="J12">
-        <v>0.8806318339224788</v>
+        <v>0.06676089639506744</v>
       </c>
       <c r="K12">
-        <v>0.2629953312883373</v>
+        <v>0.8804037073128228</v>
       </c>
       <c r="L12">
-        <v>0.9557008729991878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2631305693739208</v>
+      </c>
+      <c r="M12">
+        <v>0.9558744076942176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.127013695633934</v>
+        <v>3.126831398935792</v>
       </c>
       <c r="C13">
-        <v>0.7630252649287286</v>
+        <v>0.7624080055353772</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09282427530002835</v>
+        <v>0.09298288934589749</v>
       </c>
       <c r="F13">
-        <v>2.339010487103849</v>
+        <v>2.337503230691979</v>
       </c>
       <c r="G13">
-        <v>1.254557638902469</v>
+        <v>0.4075568769522278</v>
       </c>
       <c r="H13">
-        <v>0.7986887978239423</v>
+        <v>0.8479190811090831</v>
       </c>
       <c r="I13">
-        <v>0.06710013236923063</v>
+        <v>0.7968150381072263</v>
       </c>
       <c r="J13">
-        <v>0.8755775655657345</v>
+        <v>0.06704324321760202</v>
       </c>
       <c r="K13">
-        <v>0.261481639559598</v>
+        <v>0.8753513792932779</v>
       </c>
       <c r="L13">
-        <v>0.9502144840554223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2616162387798155</v>
+      </c>
+      <c r="M13">
+        <v>0.9503875914709425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.06856428117618</v>
+        <v>3.068392343380538</v>
       </c>
       <c r="C14">
-        <v>0.7485124484433072</v>
+        <v>0.7479090815045311</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09117065608156594</v>
+        <v>0.09132668147600853</v>
       </c>
       <c r="F14">
-        <v>2.295424519414766</v>
+        <v>2.293944365695708</v>
       </c>
       <c r="G14">
-        <v>1.235116818742284</v>
+        <v>0.4005721205626571</v>
       </c>
       <c r="H14">
-        <v>0.7888361854555441</v>
+        <v>0.8355286180170509</v>
       </c>
       <c r="I14">
-        <v>0.0680251027486376</v>
+        <v>0.7869918198096713</v>
       </c>
       <c r="J14">
-        <v>0.8591284828450938</v>
+        <v>0.0679680507604008</v>
       </c>
       <c r="K14">
-        <v>0.2565558019776972</v>
+        <v>0.8589085649613111</v>
       </c>
       <c r="L14">
-        <v>0.9323582327948543</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2566883150033448</v>
+      </c>
+      <c r="M14">
+        <v>0.9325299103249733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.03284696579243</v>
+        <v>3.032681240530451</v>
       </c>
       <c r="C15">
-        <v>0.7396502311381994</v>
+        <v>0.7390553137257712</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09016023842934828</v>
+        <v>0.09031468203352944</v>
       </c>
       <c r="F15">
-        <v>2.268837994263762</v>
+        <v>2.267374358620131</v>
       </c>
       <c r="G15">
-        <v>1.223305221783733</v>
+        <v>0.3963256469559013</v>
       </c>
       <c r="H15">
-        <v>0.7828679642766332</v>
+        <v>0.828003462562279</v>
       </c>
       <c r="I15">
-        <v>0.06859473393005278</v>
+        <v>0.7810415159813502</v>
       </c>
       <c r="J15">
-        <v>0.8490784632344202</v>
+        <v>0.06853757227876756</v>
       </c>
       <c r="K15">
-        <v>0.2535465921895366</v>
+        <v>0.8488623402796946</v>
       </c>
       <c r="L15">
-        <v>0.9214478661591059</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2536778253298593</v>
+      </c>
+      <c r="M15">
+        <v>0.9216186404795934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.829384148446366</v>
+        <v>2.829252114223777</v>
       </c>
       <c r="C16">
-        <v>0.6892569667407997</v>
+        <v>0.6887096093691412</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08440602716624213</v>
+        <v>0.08455146214450338</v>
       </c>
       <c r="F16">
-        <v>2.118101067262685</v>
+        <v>2.116730904482765</v>
       </c>
       <c r="G16">
-        <v>1.157027980622246</v>
+        <v>0.372456310611895</v>
       </c>
       <c r="H16">
-        <v>0.7496456386553803</v>
+        <v>0.7858215070364594</v>
       </c>
       <c r="I16">
-        <v>0.07190462919874951</v>
+        <v>0.7479206121577633</v>
       </c>
       <c r="J16">
-        <v>0.7918531488439839</v>
+        <v>0.07184669436390312</v>
       </c>
       <c r="K16">
-        <v>0.236418024849705</v>
+        <v>0.7916581308917117</v>
       </c>
       <c r="L16">
-        <v>0.8593162307615714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2365418945130031</v>
+      </c>
+      <c r="M16">
+        <v>0.8594814347506841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.705571757942209</v>
+        <v>2.705458812658037</v>
       </c>
       <c r="C17">
-        <v>0.6586655801617951</v>
+        <v>0.6581466919809884</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08090630742371374</v>
+        <v>0.08104626290526085</v>
       </c>
       <c r="F17">
-        <v>2.026986500804725</v>
+        <v>2.025672713393476</v>
       </c>
       <c r="G17">
-        <v>1.117556174185765</v>
+        <v>0.3582042874261049</v>
       </c>
       <c r="H17">
-        <v>0.7300920475204933</v>
+        <v>0.7607377812031615</v>
       </c>
       <c r="I17">
-        <v>0.07397443934197412</v>
+        <v>0.7284282062658747</v>
       </c>
       <c r="J17">
-        <v>0.7570501487559866</v>
+        <v>0.07391590854250363</v>
       </c>
       <c r="K17">
-        <v>0.2260066550158371</v>
+        <v>0.7568675482511011</v>
       </c>
       <c r="L17">
-        <v>0.821524396694997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2261259837177931</v>
+      </c>
+      <c r="M17">
+        <v>0.8216858571687666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.634696500252289</v>
+        <v>2.63459400094456</v>
       </c>
       <c r="C18">
-        <v>0.6411787796656085</v>
+        <v>0.6406760290583406</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07890377121369241</v>
+        <v>0.07904059117487705</v>
       </c>
       <c r="F18">
-        <v>1.975045345757437</v>
+        <v>1.973763662444938</v>
       </c>
       <c r="G18">
-        <v>1.095262238003599</v>
+        <v>0.3501413684223991</v>
       </c>
       <c r="H18">
-        <v>0.7191316843679942</v>
+        <v>0.7465841579973755</v>
       </c>
       <c r="I18">
-        <v>0.07517887199223461</v>
+        <v>0.7175026877697164</v>
       </c>
       <c r="J18">
-        <v>0.7371342514182118</v>
+        <v>0.07511995652308268</v>
       </c>
       <c r="K18">
-        <v>0.2200510672381739</v>
+        <v>0.7369586146265732</v>
       </c>
       <c r="L18">
-        <v>0.7998969756161145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2201677761616381</v>
+      </c>
+      <c r="M18">
+        <v>0.8000561725722619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.610754634050636</v>
+        <v>2.610655584161691</v>
       </c>
       <c r="C19">
-        <v>0.6352757643862788</v>
+        <v>0.6347784390042364</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07822746820052728</v>
+        <v>0.07836322919623129</v>
       </c>
       <c r="F19">
-        <v>1.957535869579104</v>
+        <v>1.956265003981983</v>
       </c>
       <c r="G19">
-        <v>1.08778171242399</v>
+        <v>0.3474336568132657</v>
       </c>
       <c r="H19">
-        <v>0.715468266293108</v>
+        <v>0.7418374070293936</v>
       </c>
       <c r="I19">
-        <v>0.07558901971725906</v>
+        <v>0.7138510107331655</v>
       </c>
       <c r="J19">
-        <v>0.7304077082184151</v>
+        <v>0.07552996706426596</v>
       </c>
       <c r="K19">
-        <v>0.2180399881052182</v>
+        <v>0.7302344000250116</v>
       </c>
       <c r="L19">
-        <v>0.7925922250444657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2181558087203541</v>
+      </c>
+      <c r="M19">
+        <v>0.7927506375159297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.7187160987624</v>
+        <v>2.71860117765749</v>
       </c>
       <c r="C20">
-        <v>0.6619106268508403</v>
+        <v>0.6613887331146202</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08127776519805252</v>
+        <v>0.08141830228584368</v>
       </c>
       <c r="F20">
-        <v>2.036636888865715</v>
+        <v>2.035317134210118</v>
       </c>
       <c r="G20">
-        <v>1.121715072632696</v>
+        <v>0.3597073207035208</v>
       </c>
       <c r="H20">
-        <v>0.7321435388013526</v>
+        <v>0.7633792537698696</v>
       </c>
       <c r="I20">
-        <v>0.07375265158104005</v>
+        <v>0.7304732209385136</v>
       </c>
       <c r="J20">
-        <v>0.7607442382925527</v>
+        <v>0.07369418861907584</v>
       </c>
       <c r="K20">
-        <v>0.2271115139743998</v>
+        <v>0.7605603347519221</v>
       </c>
       <c r="L20">
-        <v>0.825535865086259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2272313269072441</v>
+      </c>
+      <c r="M20">
+        <v>0.8256977356905963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.085714459431813</v>
+        <v>3.085539506909242</v>
       </c>
       <c r="C21">
-        <v>0.7527694609857747</v>
+        <v>0.7521620261465785</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09165584458977705</v>
+        <v>0.09181262952809988</v>
       </c>
       <c r="F21">
-        <v>2.308203408240729</v>
+        <v>2.306715311341833</v>
       </c>
       <c r="G21">
-        <v>1.240806787510223</v>
+        <v>0.4026170094309975</v>
       </c>
       <c r="H21">
-        <v>0.7917161085319577</v>
+        <v>0.8391544745736894</v>
       </c>
       <c r="I21">
-        <v>0.06775277548888292</v>
+        <v>0.7898631275492889</v>
       </c>
       <c r="J21">
-        <v>0.8639546005748855</v>
+        <v>0.06769577341531807</v>
       </c>
       <c r="K21">
-        <v>0.2580009545036646</v>
+        <v>0.8637328509202291</v>
       </c>
       <c r="L21">
-        <v>0.9375973391812806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2581340807239272</v>
+      </c>
+      <c r="M21">
+        <v>0.9377694424679461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.329271659062556</v>
+        <v>3.329051667884357</v>
       </c>
       <c r="C22">
-        <v>0.8133447460702712</v>
+        <v>0.8126787825716804</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09854716472118596</v>
+        <v>0.0987147370574526</v>
       </c>
       <c r="F22">
-        <v>2.490570409911214</v>
+        <v>2.488968665880776</v>
       </c>
       <c r="G22">
-        <v>1.32288329697252</v>
+        <v>0.432062946267223</v>
       </c>
       <c r="H22">
-        <v>0.8335909610821659</v>
+        <v>0.8915097904750269</v>
       </c>
       <c r="I22">
-        <v>0.06396706163098642</v>
+        <v>0.8316147784896728</v>
       </c>
       <c r="J22">
-        <v>0.9325247212183285</v>
+        <v>0.06391057808616019</v>
       </c>
       <c r="K22">
-        <v>0.2785400224396923</v>
+        <v>0.932276283815284</v>
       </c>
       <c r="L22">
-        <v>1.012022677841955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2786817609395271</v>
+      </c>
+      <c r="M22">
+        <v>1.012200270557933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.198906048927427</v>
+        <v>3.198710682782632</v>
       </c>
       <c r="C23">
-        <v>0.7808935243364203</v>
+        <v>0.7802590656704638</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.094858380161714</v>
+        <v>0.09502017838698507</v>
       </c>
       <c r="F23">
-        <v>2.392752918773269</v>
+        <v>2.391212202665102</v>
       </c>
       <c r="G23">
-        <v>1.278658170082153</v>
+        <v>0.4162082014637605</v>
       </c>
       <c r="H23">
-        <v>0.8109522170276549</v>
+        <v>0.8632872664613842</v>
       </c>
       <c r="I23">
-        <v>0.06597455096145088</v>
+        <v>0.8090421774769752</v>
       </c>
       <c r="J23">
-        <v>0.8958145732354978</v>
+        <v>0.06591783394317963</v>
       </c>
       <c r="K23">
-        <v>0.2675427538629762</v>
+        <v>0.8955805775748331</v>
       </c>
       <c r="L23">
-        <v>0.9721809135925312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2676799049575251</v>
+      </c>
+      <c r="M23">
+        <v>0.9723556976438346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.712772596068817</v>
+        <v>2.712658569867926</v>
       </c>
       <c r="C24">
-        <v>0.6604432303208796</v>
+        <v>0.6599226961065767</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08110979972109433</v>
+        <v>0.08125007381912752</v>
       </c>
       <c r="F24">
-        <v>2.032272580109378</v>
+        <v>2.030955524192734</v>
       </c>
       <c r="G24">
-        <v>1.119833598437253</v>
+        <v>0.3590273942492672</v>
       </c>
       <c r="H24">
-        <v>0.7312151876999806</v>
+        <v>0.7621842154830603</v>
       </c>
       <c r="I24">
-        <v>0.07385287687307374</v>
+        <v>0.7295477989367853</v>
       </c>
       <c r="J24">
-        <v>0.7590738535495163</v>
+        <v>0.07379438337204425</v>
       </c>
       <c r="K24">
-        <v>0.2266119142812713</v>
+        <v>0.7588905396533718</v>
       </c>
       <c r="L24">
-        <v>0.8237219722295706</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2267315083215493</v>
+      </c>
+      <c r="M24">
+        <v>0.8238836577583513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.20102397390491</v>
+        <v>2.200977717927458</v>
       </c>
       <c r="C25">
-        <v>0.5345676326942623</v>
+        <v>0.5341611282563292</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06667010823915831</v>
+        <v>0.06678776998852598</v>
       </c>
       <c r="F25">
-        <v>1.660894640709756</v>
+        <v>1.659806852463703</v>
       </c>
       <c r="G25">
-        <v>0.9638909472613619</v>
+        <v>0.302397646744609</v>
       </c>
       <c r="H25">
-        <v>0.6559774046382572</v>
+        <v>0.6634223016880298</v>
       </c>
       <c r="I25">
-        <v>0.0828791788830705</v>
+        <v>0.6545587688548622</v>
       </c>
       <c r="J25">
-        <v>0.6153775750295765</v>
+        <v>0.0828171933242916</v>
       </c>
       <c r="K25">
-        <v>0.1836863648324965</v>
+        <v>0.6152422549011547</v>
       </c>
       <c r="L25">
-        <v>0.6676725974370257</v>
+        <v>0.1837867225050971</v>
+      </c>
+      <c r="M25">
+        <v>0.667816020115616</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.831837984042636</v>
+        <v>2.430484771450324</v>
       </c>
       <c r="C2">
-        <v>0.4439907086313895</v>
+        <v>0.3143461407511268</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05639765307817868</v>
+        <v>0.03223522217795116</v>
       </c>
       <c r="F2">
-        <v>1.398062621947034</v>
+        <v>1.799206576892033</v>
       </c>
       <c r="G2">
-        <v>0.2640991860847066</v>
+        <v>0.0008251055921475144</v>
       </c>
       <c r="H2">
-        <v>0.5977446227581709</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.606798536839861</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08986684875504247</v>
+        <v>0.06414908616756598</v>
       </c>
       <c r="K2">
-        <v>0.511761926386562</v>
+        <v>0.5618057121528395</v>
       </c>
       <c r="L2">
-        <v>0.1529381134602019</v>
+        <v>0.1658163337721561</v>
       </c>
       <c r="M2">
-        <v>0.5554162267506229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4219105942220693</v>
+      </c>
+      <c r="N2">
+        <v>1.276259260747231</v>
+      </c>
+      <c r="O2">
+        <v>1.248817776988787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.585022471542914</v>
+        <v>2.130294557725847</v>
       </c>
       <c r="C3">
-        <v>0.3839471720007168</v>
+        <v>0.2735171568986061</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04948283942868059</v>
+        <v>0.03185876017931699</v>
       </c>
       <c r="F3">
-        <v>1.226351144523647</v>
+        <v>1.698717565731215</v>
       </c>
       <c r="G3">
-        <v>0.2398556624926229</v>
+        <v>0.0008320131558446908</v>
       </c>
       <c r="H3">
-        <v>0.5568433914364874</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5783028833258399</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09487932267424437</v>
+        <v>0.06698032738832094</v>
       </c>
       <c r="K3">
-        <v>0.4426395109266039</v>
+        <v>0.4882669649198803</v>
       </c>
       <c r="L3">
-        <v>0.13239003859346</v>
+        <v>0.1513966565884601</v>
       </c>
       <c r="M3">
-        <v>0.4803759448590341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3728449096391699</v>
+      </c>
+      <c r="N3">
+        <v>1.330442165322324</v>
+      </c>
+      <c r="O3">
+        <v>1.18289359601507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.434725085093078</v>
+        <v>1.94866751170693</v>
       </c>
       <c r="C4">
-        <v>0.3474755954981958</v>
+        <v>0.2486825878715848</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04528929132765569</v>
+        <v>0.0316417454432032</v>
       </c>
       <c r="F4">
-        <v>1.123269502710585</v>
+        <v>1.64000726401926</v>
       </c>
       <c r="G4">
-        <v>0.2256945409463995</v>
+        <v>0.0008363808032248304</v>
       </c>
       <c r="H4">
-        <v>0.5332802345140522</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5624873567535431</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09806774914388483</v>
+        <v>0.0687614965125527</v>
       </c>
       <c r="K4">
-        <v>0.4005725732382501</v>
+        <v>0.4437110637397623</v>
       </c>
       <c r="L4">
-        <v>0.1199139479520888</v>
+        <v>0.1426883959350462</v>
       </c>
       <c r="M4">
-        <v>0.4347334826682854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3431664670591843</v>
+      </c>
+      <c r="N4">
+        <v>1.365410663349678</v>
+      </c>
+      <c r="O4">
+        <v>1.144845742694983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.373737089322049</v>
+        <v>1.875255606600831</v>
       </c>
       <c r="C5">
-        <v>0.3326950231539172</v>
+        <v>0.2386097765428872</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04359210511096379</v>
+        <v>0.03155657584884919</v>
       </c>
       <c r="F5">
-        <v>1.081792476282772</v>
+        <v>1.616785425835388</v>
       </c>
       <c r="G5">
-        <v>0.2200896053092762</v>
+        <v>0.0008381934227497112</v>
       </c>
       <c r="H5">
-        <v>0.5240365398714601</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5564337609690142</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09939422551952948</v>
+        <v>0.06949799187188277</v>
       </c>
       <c r="K5">
-        <v>0.3835076978701792</v>
+        <v>0.4256857820651447</v>
       </c>
       <c r="L5">
-        <v>0.1148602675888846</v>
+        <v>0.1391738791012287</v>
       </c>
       <c r="M5">
-        <v>0.4162254980502951</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3311737725990866</v>
+      </c>
+      <c r="N5">
+        <v>1.38007384548461</v>
+      </c>
+      <c r="O5">
+        <v>1.129909387621709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.363624232423263</v>
+        <v>1.863099942422593</v>
       </c>
       <c r="C6">
-        <v>0.3302451796609205</v>
+        <v>0.2369397410157745</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04331095709564892</v>
+        <v>0.03154262286844345</v>
       </c>
       <c r="F6">
-        <v>1.074935517650985</v>
+        <v>1.612970554525589</v>
       </c>
       <c r="G6">
-        <v>0.2191684703728924</v>
+        <v>0.0008384964137011876</v>
       </c>
       <c r="H6">
-        <v>0.5225224083311062</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5554513292387</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0996161082610163</v>
+        <v>0.06962092725048641</v>
       </c>
       <c r="K6">
-        <v>0.3806783273554117</v>
+        <v>0.422700128836361</v>
       </c>
       <c r="L6">
-        <v>0.1140228086548341</v>
+        <v>0.1385922925359253</v>
       </c>
       <c r="M6">
-        <v>0.413157323388667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3291882139448035</v>
+      </c>
+      <c r="N6">
+        <v>1.382533216856125</v>
+      </c>
+      <c r="O6">
+        <v>1.127462361891979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.433901598326969</v>
+        <v>1.947675107388051</v>
       </c>
       <c r="C7">
-        <v>0.3472759501400446</v>
+        <v>0.2485465647785219</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04526635682123725</v>
+        <v>0.03164058395338065</v>
       </c>
       <c r="F7">
-        <v>1.122708062851828</v>
+        <v>1.63969130164412</v>
       </c>
       <c r="G7">
-        <v>0.2256183001105683</v>
+        <v>0.0008364051148889788</v>
       </c>
       <c r="H7">
-        <v>0.5331541591517777</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5624041710273815</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09808552931422843</v>
+        <v>0.06877138612729672</v>
       </c>
       <c r="K7">
-        <v>0.4003421363835855</v>
+        <v>0.4434674591859604</v>
       </c>
       <c r="L7">
-        <v>0.1198456752852621</v>
+        <v>0.1426408626513975</v>
       </c>
       <c r="M7">
-        <v>0.4344835279410546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3430043325718657</v>
+      </c>
+      <c r="N7">
+        <v>1.365606761051176</v>
+      </c>
+      <c r="O7">
+        <v>1.144642058239839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.746442707918362</v>
+        <v>2.326374374033549</v>
       </c>
       <c r="C8">
-        <v>0.4231946239074489</v>
+        <v>0.3002124035638474</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05400172346622156</v>
+        <v>0.03210230102225031</v>
       </c>
       <c r="F8">
-        <v>1.338330520228268</v>
+        <v>1.763906846772045</v>
       </c>
       <c r="G8">
-        <v>0.2555794294350662</v>
+        <v>0.0008274617068672052</v>
       </c>
       <c r="H8">
-        <v>0.5833004862849123</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5966047905770395</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09157172936962077</v>
+        <v>0.06511635321417941</v>
       </c>
       <c r="K8">
-        <v>0.4878404794993116</v>
+        <v>0.5363140003736078</v>
       </c>
       <c r="L8">
-        <v>0.1458209080753576</v>
+        <v>0.1608127287696917</v>
       </c>
       <c r="M8">
-        <v>0.5294418529732567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4048927711261783</v>
+      </c>
+      <c r="N8">
+        <v>1.294579816108019</v>
+      </c>
+      <c r="O8">
+        <v>1.225556230869813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.371955967476197</v>
+        <v>3.094010825219016</v>
       </c>
       <c r="C9">
-        <v>0.57608233722911</v>
+        <v>0.4039615541289265</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0716143820267412</v>
+        <v>0.03313468597156755</v>
       </c>
       <c r="F9">
-        <v>1.782820845638483</v>
+        <v>2.033613765222555</v>
       </c>
       <c r="G9">
-        <v>0.3208870517596836</v>
+        <v>0.0008108781192691291</v>
       </c>
       <c r="H9">
-        <v>0.6954842963350387</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6785493649165772</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07971196274996517</v>
+        <v>0.05829375216460186</v>
       </c>
       <c r="K9">
-        <v>0.6632146765298899</v>
+        <v>0.7240411643153379</v>
       </c>
       <c r="L9">
-        <v>0.1981153298066332</v>
+        <v>0.1977210967359611</v>
       </c>
       <c r="M9">
-        <v>0.7199352879325644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5303618852353367</v>
+      </c>
+      <c r="N9">
+        <v>1.16947820001775</v>
+      </c>
+      <c r="O9">
+        <v>1.405598282232262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.843425779156007</v>
+        <v>3.678850105640095</v>
       </c>
       <c r="C10">
-        <v>0.6922124542463166</v>
+        <v>0.4825515406559191</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08495289444717002</v>
+        <v>0.03399435502724524</v>
       </c>
       <c r="F10">
-        <v>2.1271866919773</v>
+        <v>2.251336776469913</v>
       </c>
       <c r="G10">
-        <v>0.3741014435055945</v>
+        <v>0.0007992026314305135</v>
       </c>
       <c r="H10">
-        <v>0.7887221076515232</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7501848387201235</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0716125005388677</v>
+        <v>0.05350087681619087</v>
       </c>
       <c r="K10">
-        <v>0.7956424276600842</v>
+        <v>0.8668207849597707</v>
       </c>
       <c r="L10">
-        <v>0.2377350514320113</v>
+        <v>0.2257961528073764</v>
       </c>
       <c r="M10">
-        <v>0.8638096700643203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6258911225834112</v>
+      </c>
+      <c r="N10">
+        <v>1.087264857246332</v>
+      </c>
+      <c r="O10">
+        <v>1.554096984601387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.061558341703062</v>
+        <v>3.950836315797403</v>
       </c>
       <c r="C11">
-        <v>0.7462143762880373</v>
+        <v>0.5190405054491691</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09113301089009695</v>
+        <v>0.03441374268116304</v>
       </c>
       <c r="F11">
-        <v>2.288856850861137</v>
+        <v>2.355538186685806</v>
       </c>
       <c r="G11">
-        <v>0.3997581930346854</v>
+        <v>0.0007939834895103516</v>
       </c>
       <c r="H11">
-        <v>0.8340857985173216</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7858500210445243</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06807678092623082</v>
+        <v>0.0513709985453068</v>
       </c>
       <c r="K11">
-        <v>0.856985928563418</v>
+        <v>0.9331815115121884</v>
       </c>
       <c r="L11">
-        <v>0.2561121480819608</v>
+        <v>0.2388212042891524</v>
       </c>
       <c r="M11">
-        <v>0.9304417560677791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6702863343010677</v>
+      </c>
+      <c r="N11">
+        <v>1.052233807261452</v>
+      </c>
+      <c r="O11">
+        <v>1.62597305905463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.144785302543426</v>
+        <v>4.054814338855522</v>
       </c>
       <c r="C12">
-        <v>0.7668649973349773</v>
+        <v>0.5329849850113249</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09349174474951738</v>
+        <v>0.03457725118161292</v>
       </c>
       <c r="F12">
-        <v>2.35090500668322</v>
+        <v>2.395822222145497</v>
       </c>
       <c r="G12">
-        <v>0.4097115991925477</v>
+        <v>0.0007920187183830436</v>
       </c>
       <c r="H12">
-        <v>0.8517445478167645</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7998542305739704</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06676089639506744</v>
+        <v>0.05057203340069738</v>
       </c>
       <c r="K12">
-        <v>0.8804037073128228</v>
+        <v>0.9585460317400987</v>
       </c>
       <c r="L12">
-        <v>0.2631305693739208</v>
+        <v>0.2437939979162707</v>
       </c>
       <c r="M12">
-        <v>0.9558744076942176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6872519705674804</v>
+      </c>
+      <c r="N12">
+        <v>1.039334073742289</v>
+      </c>
+      <c r="O12">
+        <v>1.65388696618605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.126831398935792</v>
+        <v>4.032374908252564</v>
       </c>
       <c r="C13">
-        <v>0.7624080055353772</v>
+        <v>0.5299757911807319</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09298288934589749</v>
+        <v>0.03454181693624214</v>
       </c>
       <c r="F13">
-        <v>2.337503230691979</v>
+        <v>2.387108210314906</v>
       </c>
       <c r="G13">
-        <v>0.4075568769522278</v>
+        <v>0.0007924413787381313</v>
       </c>
       <c r="H13">
-        <v>0.8479190811090831</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7968150381072263</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06704324321760202</v>
+        <v>0.05074376217731502</v>
       </c>
       <c r="K13">
-        <v>0.8753513792932779</v>
+        <v>0.9530723152972485</v>
       </c>
       <c r="L13">
-        <v>0.2616162387798155</v>
+        <v>0.2427211487928673</v>
       </c>
       <c r="M13">
-        <v>0.9503875914709425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.6835909352947525</v>
+      </c>
+      <c r="N13">
+        <v>1.042095563501952</v>
+      </c>
+      <c r="O13">
+        <v>1.647842982423185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.068392343380538</v>
+        <v>3.95937016914985</v>
       </c>
       <c r="C14">
-        <v>0.7479090815045311</v>
+        <v>0.5201850553062286</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09132668147600853</v>
+        <v>0.0344270966158482</v>
       </c>
       <c r="F14">
-        <v>2.293944365695708</v>
+        <v>2.358835330890145</v>
       </c>
       <c r="G14">
-        <v>0.4005721205626571</v>
+        <v>0.0007938216238390978</v>
       </c>
       <c r="H14">
-        <v>0.8355286180170509</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7869918198096713</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0679680507604008</v>
+        <v>0.05130511334038856</v>
       </c>
       <c r="K14">
-        <v>0.8589085649613111</v>
+        <v>0.9352633545653362</v>
       </c>
       <c r="L14">
-        <v>0.2566883150033448</v>
+        <v>0.2392294831054613</v>
       </c>
       <c r="M14">
-        <v>0.9325299103249733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6716789013789253</v>
+      </c>
+      <c r="N14">
+        <v>1.051165053673699</v>
+      </c>
+      <c r="O14">
+        <v>1.628255149832484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.032681240530451</v>
+        <v>3.91478469077407</v>
       </c>
       <c r="C15">
-        <v>0.7390553137257712</v>
+        <v>0.5142051306171709</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09031468203352944</v>
+        <v>0.03435745868344231</v>
       </c>
       <c r="F15">
-        <v>2.267374358620131</v>
+        <v>2.34162746857541</v>
       </c>
       <c r="G15">
-        <v>0.3963256469559013</v>
+        <v>0.0007946685237802465</v>
       </c>
       <c r="H15">
-        <v>0.828003462562279</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7810415159813502</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06853757227876756</v>
+        <v>0.0516499540973463</v>
       </c>
       <c r="K15">
-        <v>0.8488623402796946</v>
+        <v>0.924386498941189</v>
       </c>
       <c r="L15">
-        <v>0.2536778253298593</v>
+        <v>0.2370961360329744</v>
       </c>
       <c r="M15">
-        <v>0.9216186404795934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6644031124677738</v>
+      </c>
+      <c r="N15">
+        <v>1.056768806945691</v>
+      </c>
+      <c r="O15">
+        <v>1.616350018406678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.829252114223777</v>
+        <v>3.661205381230047</v>
       </c>
       <c r="C16">
-        <v>0.6887096093691412</v>
+        <v>0.480183474009209</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08455146214450338</v>
+        <v>0.03396756812092594</v>
       </c>
       <c r="F16">
-        <v>2.116730904482765</v>
+        <v>2.24463770926836</v>
       </c>
       <c r="G16">
-        <v>0.372456310611895</v>
+        <v>0.0007995454315326916</v>
       </c>
       <c r="H16">
-        <v>0.7858215070364594</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7479206121577633</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07184669436390312</v>
+        <v>0.05364111019442319</v>
       </c>
       <c r="K16">
-        <v>0.7916581308917117</v>
+        <v>0.8625150159607387</v>
       </c>
       <c r="L16">
-        <v>0.2365418945130031</v>
+        <v>0.224950373074094</v>
       </c>
       <c r="M16">
-        <v>0.8594814347506841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6230102709868888</v>
+      </c>
+      <c r="N16">
+        <v>1.089603967752474</v>
+      </c>
+      <c r="O16">
+        <v>1.54949288350079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.705458812658037</v>
+        <v>3.507251378084334</v>
       </c>
       <c r="C17">
-        <v>0.6581466919809884</v>
+        <v>0.4595153621590384</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08104626290526085</v>
+        <v>0.03373605147526826</v>
       </c>
       <c r="F17">
-        <v>2.025672713393476</v>
+        <v>2.186515541395181</v>
       </c>
       <c r="G17">
-        <v>0.3582042874261049</v>
+        <v>0.0008025597290519615</v>
       </c>
       <c r="H17">
-        <v>0.7607377812031615</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7284282062658747</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07391590854250363</v>
+        <v>0.05487574514534543</v>
       </c>
       <c r="K17">
-        <v>0.7568675482511011</v>
+        <v>0.8249419163263241</v>
       </c>
       <c r="L17">
-        <v>0.2261259837177931</v>
+        <v>0.2175670327847143</v>
       </c>
       <c r="M17">
-        <v>0.8216858571687666</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.5978705127651125</v>
+      </c>
+      <c r="N17">
+        <v>1.110370939181621</v>
+      </c>
+      <c r="O17">
+        <v>1.509635930239426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.63459400094456</v>
+        <v>3.419251743691007</v>
       </c>
       <c r="C18">
-        <v>0.6406760290583406</v>
+        <v>0.4476956979206079</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07904059117487705</v>
+        <v>0.03360551246817511</v>
       </c>
       <c r="F18">
-        <v>1.973763662444938</v>
+        <v>2.153565240887431</v>
       </c>
       <c r="G18">
-        <v>0.3501413684223991</v>
+        <v>0.0008043022488547641</v>
       </c>
       <c r="H18">
-        <v>0.7465841579973755</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7175026877697164</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07511995652308268</v>
+        <v>0.05559059798263011</v>
       </c>
       <c r="K18">
-        <v>0.7369586146265732</v>
+        <v>0.8034614008129211</v>
       </c>
       <c r="L18">
-        <v>0.2201677761616381</v>
+        <v>0.2133439351141249</v>
       </c>
       <c r="M18">
-        <v>0.8000561725722619</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5834978647356053</v>
+      </c>
+      <c r="N18">
+        <v>1.122536797909504</v>
+      </c>
+      <c r="O18">
+        <v>1.48711330060155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.610655584161691</v>
+        <v>3.389547449353415</v>
       </c>
       <c r="C19">
-        <v>0.6347784390042364</v>
+        <v>0.4437048613875447</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07836322919623129</v>
+        <v>0.03356174722589556</v>
       </c>
       <c r="F19">
-        <v>1.956265003981983</v>
+        <v>2.142488873307485</v>
       </c>
       <c r="G19">
-        <v>0.3474336568132657</v>
+        <v>0.0008048937907406971</v>
       </c>
       <c r="H19">
-        <v>0.7418374070293936</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7138510107331655</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07552996706426596</v>
+        <v>0.05583343730741652</v>
       </c>
       <c r="K19">
-        <v>0.7302344000250116</v>
+        <v>0.7962099536638334</v>
       </c>
       <c r="L19">
-        <v>0.2181558087203541</v>
+        <v>0.2119180043064972</v>
       </c>
       <c r="M19">
-        <v>0.7927506375159297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5786459354748814</v>
+      </c>
+      <c r="N19">
+        <v>1.126693222844793</v>
+      </c>
+      <c r="O19">
+        <v>1.479554437360164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.71860117765749</v>
+        <v>3.52358216686406</v>
       </c>
       <c r="C20">
-        <v>0.6613887331146202</v>
+        <v>0.4617083281515306</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08141830228584368</v>
+        <v>0.03376042109796806</v>
       </c>
       <c r="F20">
-        <v>2.035317134210118</v>
+        <v>2.192652485802128</v>
       </c>
       <c r="G20">
-        <v>0.3597073207035208</v>
+        <v>0.0008022379549783576</v>
       </c>
       <c r="H20">
-        <v>0.7633792537698696</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7304732209385136</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07369418861907584</v>
+        <v>0.05474382514881992</v>
       </c>
       <c r="K20">
-        <v>0.7605603347519221</v>
+        <v>0.8289279025855336</v>
       </c>
       <c r="L20">
-        <v>0.2272313269072441</v>
+        <v>0.2183505310371885</v>
       </c>
       <c r="M20">
-        <v>0.8256977356905963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6005375381807951</v>
+      </c>
+      <c r="N20">
+        <v>1.108137187393069</v>
+      </c>
+      <c r="O20">
+        <v>1.51383664845504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.085539506909242</v>
+        <v>3.980785666195231</v>
       </c>
       <c r="C21">
-        <v>0.7521620261465785</v>
+        <v>0.5230572101651774</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09181262952809988</v>
+        <v>0.03446065988839564</v>
       </c>
       <c r="F21">
-        <v>2.306715311341833</v>
+        <v>2.36711665639578</v>
       </c>
       <c r="G21">
-        <v>0.4026170094309975</v>
+        <v>0.0007934159114070227</v>
       </c>
       <c r="H21">
-        <v>0.8391544745736894</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7898631275492889</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06769577341531807</v>
+        <v>0.05114002246271432</v>
       </c>
       <c r="K21">
-        <v>0.8637328509202291</v>
+        <v>0.9404876198545367</v>
       </c>
       <c r="L21">
-        <v>0.2581340807239272</v>
+        <v>0.2402539370770143</v>
       </c>
       <c r="M21">
-        <v>0.9377694424679461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6751734085927268</v>
+      </c>
+      <c r="N21">
+        <v>1.048490983127941</v>
+      </c>
+      <c r="O21">
+        <v>1.633989049677751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.329051667884357</v>
+        <v>4.285392671549857</v>
       </c>
       <c r="C22">
-        <v>0.8126787825716804</v>
+        <v>0.5639033632319865</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0987147370574526</v>
+        <v>0.03494603503025129</v>
       </c>
       <c r="F22">
-        <v>2.488968665880776</v>
+        <v>2.48599426483834</v>
       </c>
       <c r="G22">
-        <v>0.432062946267223</v>
+        <v>0.0007877169530899381</v>
       </c>
       <c r="H22">
-        <v>0.8915097904750269</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8316147784896728</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06391057808616019</v>
+        <v>0.04882907167459027</v>
       </c>
       <c r="K22">
-        <v>0.932276283815284</v>
+        <v>1.01478668227648</v>
       </c>
       <c r="L22">
-        <v>0.2786817609395271</v>
+        <v>0.2548072368866343</v>
       </c>
       <c r="M22">
-        <v>1.012200270557933</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7248610542364631</v>
+      </c>
+      <c r="N22">
+        <v>1.01165445505417</v>
+      </c>
+      <c r="O22">
+        <v>1.716612875732167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.198710682782632</v>
+        <v>4.122241500189773</v>
       </c>
       <c r="C23">
-        <v>0.7802590656704638</v>
+        <v>0.5420267658222144</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09502017838698507</v>
+        <v>0.03468421289828916</v>
       </c>
       <c r="F23">
-        <v>2.391212202665102</v>
+        <v>2.422072908480871</v>
       </c>
       <c r="G23">
-        <v>0.4162082014637605</v>
+        <v>0.0007907530719505456</v>
       </c>
       <c r="H23">
-        <v>0.8632872664613842</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8090421774769752</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06591783394317963</v>
+        <v>0.05005828832477155</v>
       </c>
       <c r="K23">
-        <v>0.8955805775748331</v>
+        <v>0.9749931750232719</v>
       </c>
       <c r="L23">
-        <v>0.2676799049575251</v>
+        <v>0.2470166419449811</v>
       </c>
       <c r="M23">
-        <v>0.9723556976438346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.698251798031599</v>
+      </c>
+      <c r="N23">
+        <v>1.031109400381936</v>
+      </c>
+      <c r="O23">
+        <v>1.672113376939052</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.712658569867926</v>
+        <v>3.516197436486266</v>
       </c>
       <c r="C24">
-        <v>0.6599226961065767</v>
+        <v>0.4607166944428798</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08125007381912752</v>
+        <v>0.03374939565421498</v>
       </c>
       <c r="F24">
-        <v>2.030955524192734</v>
+        <v>2.189876531356134</v>
       </c>
       <c r="G24">
-        <v>0.3590273942492672</v>
+        <v>0.0008023833990966705</v>
       </c>
       <c r="H24">
-        <v>0.7621842154830603</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7295477989367853</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07379438337204425</v>
+        <v>0.05480345048955004</v>
       </c>
       <c r="K24">
-        <v>0.7588905396533718</v>
+        <v>0.8271254644670023</v>
       </c>
       <c r="L24">
-        <v>0.2267315083215493</v>
+        <v>0.2179962442390462</v>
       </c>
       <c r="M24">
-        <v>0.8238836577583513</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.5993315265704382</v>
+      </c>
+      <c r="N24">
+        <v>1.109146362485106</v>
+      </c>
+      <c r="O24">
+        <v>1.51193628932289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.200977717927458</v>
+        <v>2.883119502870272</v>
       </c>
       <c r="C25">
-        <v>0.5341611282563292</v>
+        <v>0.3755484621260905</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06678776998852598</v>
+        <v>0.03283954700094016</v>
       </c>
       <c r="F25">
-        <v>1.659806852463703</v>
+        <v>1.957497853872781</v>
       </c>
       <c r="G25">
-        <v>0.302397646744609</v>
+        <v>0.0008152694429634287</v>
       </c>
       <c r="H25">
-        <v>0.6634223016880298</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6545587688548622</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0828171933242916</v>
+        <v>0.06010167791694077</v>
       </c>
       <c r="K25">
-        <v>0.6152422549011547</v>
+        <v>0.6725130820301999</v>
       </c>
       <c r="L25">
-        <v>0.1837867225050971</v>
+        <v>0.1875821946862999</v>
       </c>
       <c r="M25">
-        <v>0.667816020115616</v>
+        <v>0.4958970512603429</v>
+      </c>
+      <c r="N25">
+        <v>1.201700727881118</v>
+      </c>
+      <c r="O25">
+        <v>1.354292724062063</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.430484771450324</v>
+        <v>2.39297746086055</v>
       </c>
       <c r="C2">
-        <v>0.3143461407511268</v>
+        <v>0.5597489438521848</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03223522217795116</v>
+        <v>0.2141998247708798</v>
       </c>
       <c r="F2">
-        <v>1.799206576892033</v>
+        <v>1.742860129223985</v>
       </c>
       <c r="G2">
-        <v>0.0008251055921475144</v>
+        <v>0.8146080413754504</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4939868916003434</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06414908616756598</v>
+        <v>0.01686921918135464</v>
       </c>
       <c r="K2">
-        <v>0.5618057121528395</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1658163337721561</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4219105942220693</v>
+        <v>0.8635917234232551</v>
       </c>
       <c r="N2">
-        <v>1.276259260747231</v>
+        <v>0.5880046771843341</v>
       </c>
       <c r="O2">
-        <v>1.248817776988787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.130294557725847</v>
+        <v>2.071128694638503</v>
       </c>
       <c r="C3">
-        <v>0.2735171568986061</v>
+        <v>0.4875885435405962</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03185876017931699</v>
+        <v>0.1986018377443379</v>
       </c>
       <c r="F3">
-        <v>1.698717565731215</v>
+        <v>1.588817316989648</v>
       </c>
       <c r="G3">
-        <v>0.0008320131558446908</v>
+        <v>0.7321359379640029</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.463864338943992</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06698032738832094</v>
+        <v>0.01805165894082972</v>
       </c>
       <c r="K3">
-        <v>0.4882669649198803</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1513966565884601</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3728449096391699</v>
+        <v>0.7520651307091981</v>
       </c>
       <c r="N3">
-        <v>1.330442165322324</v>
+        <v>0.6331114572486909</v>
       </c>
       <c r="O3">
-        <v>1.18289359601507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.94866751170693</v>
+        <v>1.875024692500261</v>
       </c>
       <c r="C4">
-        <v>0.2486825878715848</v>
+        <v>0.4435264320131296</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0316417454432032</v>
+        <v>0.1892293453955034</v>
       </c>
       <c r="F4">
-        <v>1.64000726401926</v>
+        <v>1.497552731843342</v>
       </c>
       <c r="G4">
-        <v>0.0008363808032248304</v>
+        <v>0.6837434126167921</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4466300150448603</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0687614965125527</v>
+        <v>0.01884080255937892</v>
       </c>
       <c r="K4">
-        <v>0.4437110637397623</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1426883959350462</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3431664670591843</v>
+        <v>0.6842689064535392</v>
       </c>
       <c r="N4">
-        <v>1.365410663349678</v>
+        <v>0.6621054306576486</v>
       </c>
       <c r="O4">
-        <v>1.144845742694983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.875255606600831</v>
+        <v>1.795427083028216</v>
       </c>
       <c r="C5">
-        <v>0.2386097765428872</v>
+        <v>0.4256181202900962</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03155657584884919</v>
+        <v>0.1854581716661805</v>
       </c>
       <c r="F5">
-        <v>1.616785425835388</v>
+        <v>1.461128894949823</v>
       </c>
       <c r="G5">
-        <v>0.0008381934227497112</v>
+        <v>0.6645372016217266</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4399006649361894</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06949799187188277</v>
+        <v>0.0191774012613477</v>
       </c>
       <c r="K5">
-        <v>0.4256857820651447</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1391738791012287</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3311737725990866</v>
+        <v>0.6567907612305746</v>
       </c>
       <c r="N5">
-        <v>1.38007384548461</v>
+        <v>0.6742349734752704</v>
       </c>
       <c r="O5">
-        <v>1.129909387621709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.863099942422593</v>
+        <v>1.782227283285465</v>
       </c>
       <c r="C6">
-        <v>0.2369397410157745</v>
+        <v>0.4226469245762701</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03154262286844345</v>
+        <v>0.1848347897461515</v>
       </c>
       <c r="F6">
-        <v>1.612970554525589</v>
+        <v>1.455125202332852</v>
       </c>
       <c r="G6">
-        <v>0.0008384964137011876</v>
+        <v>0.6613776637225612</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4388003528212181</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06962092725048641</v>
+        <v>0.0192341763158197</v>
       </c>
       <c r="K6">
-        <v>0.422700128836361</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1385922925359253</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3291882139448035</v>
+        <v>0.652236442542474</v>
       </c>
       <c r="N6">
-        <v>1.382533216856125</v>
+        <v>0.676267714974955</v>
       </c>
       <c r="O6">
-        <v>1.127462361891979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.947675107388051</v>
+        <v>1.873950011646599</v>
       </c>
       <c r="C7">
-        <v>0.2485465647785219</v>
+        <v>0.4432847404839606</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03164058395338065</v>
+        <v>0.1891782950887055</v>
       </c>
       <c r="F7">
-        <v>1.63969130164412</v>
+        <v>1.497058486368857</v>
       </c>
       <c r="G7">
-        <v>0.0008364051148889788</v>
+        <v>0.6834823735661359</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4465381008607778</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06877138612729672</v>
+        <v>0.01884528233261307</v>
       </c>
       <c r="K7">
-        <v>0.4434674591859604</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1426408626513975</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3430043325718657</v>
+        <v>0.6838977498004866</v>
       </c>
       <c r="N7">
-        <v>1.365606761051176</v>
+        <v>0.6622677569664779</v>
       </c>
       <c r="O7">
-        <v>1.144642058239839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.326374374033549</v>
+        <v>2.281650097016382</v>
       </c>
       <c r="C8">
-        <v>0.3002124035638474</v>
+        <v>0.5348083786288385</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03210230102225031</v>
+        <v>0.2087770942926781</v>
       </c>
       <c r="F8">
-        <v>1.763906846772045</v>
+        <v>1.689015546411824</v>
       </c>
       <c r="G8">
-        <v>0.0008274617068672052</v>
+        <v>0.7856740300633049</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4833243550007751</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06511635321417941</v>
+        <v>0.01726328876302219</v>
       </c>
       <c r="K8">
-        <v>0.5363140003736078</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1608127287696917</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4048927711261783</v>
+        <v>0.8249821349302309</v>
       </c>
       <c r="N8">
-        <v>1.294579816108019</v>
+        <v>0.603280457337716</v>
       </c>
       <c r="O8">
-        <v>1.225556230869813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.094010825219016</v>
+        <v>3.096313845205771</v>
       </c>
       <c r="C9">
-        <v>0.4039615541289265</v>
+        <v>0.7169316831432013</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03313468597156755</v>
+        <v>0.24899655257002</v>
       </c>
       <c r="F9">
-        <v>2.033613765222555</v>
+        <v>2.095063544945575</v>
       </c>
       <c r="G9">
-        <v>0.0008108781192691291</v>
+        <v>1.006366428203918</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5666103114289598</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05829375216460186</v>
+        <v>0.01470382408807147</v>
       </c>
       <c r="K9">
-        <v>0.7240411643153379</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1977210967359611</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5303618852353367</v>
+        <v>1.10814411113865</v>
       </c>
       <c r="N9">
-        <v>1.16947820001775</v>
+        <v>0.4984984987909264</v>
       </c>
       <c r="O9">
-        <v>1.405598282232262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.678850105640095</v>
+        <v>3.708956589751494</v>
       </c>
       <c r="C10">
-        <v>0.4825515406559191</v>
+        <v>0.8534394560535077</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03399435502724524</v>
+        <v>0.2798816452830977</v>
       </c>
       <c r="F10">
-        <v>2.251336776469913</v>
+        <v>2.416457429645689</v>
       </c>
       <c r="G10">
-        <v>0.0007992026314305135</v>
+        <v>1.184656223511524</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6363382561974333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05350087681619087</v>
+        <v>0.01321854186633153</v>
       </c>
       <c r="K10">
-        <v>0.8668207849597707</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2257961528073764</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6258911225834112</v>
+        <v>1.321813254992776</v>
       </c>
       <c r="N10">
-        <v>1.087264857246332</v>
+        <v>0.4290477956198151</v>
       </c>
       <c r="O10">
-        <v>1.554096984601387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.950836315797403</v>
+        <v>3.991939696391171</v>
       </c>
       <c r="C11">
-        <v>0.5190405054491691</v>
+        <v>0.9164005883332322</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03441374268116304</v>
+        <v>0.2942829803266989</v>
       </c>
       <c r="F11">
-        <v>2.355538186685806</v>
+        <v>2.568920596213246</v>
       </c>
       <c r="G11">
-        <v>0.0007939834895103516</v>
+        <v>1.270210761078289</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6703469611326227</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0513709985453068</v>
+        <v>0.01264484899497376</v>
       </c>
       <c r="K11">
-        <v>0.9331815115121884</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2388212042891524</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6702863343010677</v>
+        <v>1.420654518929624</v>
       </c>
       <c r="N11">
-        <v>1.052233807261452</v>
+        <v>0.3993104330780621</v>
       </c>
       <c r="O11">
-        <v>1.62597305905463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.054814338855522</v>
+        <v>4.099826930796382</v>
       </c>
       <c r="C12">
-        <v>0.5329849850113249</v>
+        <v>0.9403919284284541</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03457725118161292</v>
+        <v>0.2997925077877426</v>
       </c>
       <c r="F12">
-        <v>2.395822222145497</v>
+        <v>2.627669907163067</v>
       </c>
       <c r="G12">
-        <v>0.0007920187183830436</v>
+        <v>1.303335590552649</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.6835948659172004</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05057203340069738</v>
+        <v>0.01244380882954843</v>
       </c>
       <c r="K12">
-        <v>0.9585460317400987</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2437939979162707</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6872519705674804</v>
+        <v>1.458357562549722</v>
       </c>
       <c r="N12">
-        <v>1.039334073742289</v>
+        <v>0.3883375107755942</v>
       </c>
       <c r="O12">
-        <v>1.65388696618605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.032374908252564</v>
+        <v>4.076557228120635</v>
       </c>
       <c r="C13">
-        <v>0.5299757911807319</v>
+        <v>0.9352178909299198</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03454181693624214</v>
+        <v>0.2986033460873969</v>
       </c>
       <c r="F13">
-        <v>2.387108210314906</v>
+        <v>2.614970103957234</v>
       </c>
       <c r="G13">
-        <v>0.0007924413787381313</v>
+        <v>1.296167734058344</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6807245679152061</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05074376217731502</v>
+        <v>0.01248635926081754</v>
       </c>
       <c r="K13">
-        <v>0.9530723152972485</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2427211487928673</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6835909352947525</v>
+        <v>1.450224705864187</v>
       </c>
       <c r="N13">
-        <v>1.042095563501952</v>
+        <v>0.3906875595698516</v>
       </c>
       <c r="O13">
-        <v>1.647842982423185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.95937016914985</v>
+        <v>4.000800383048102</v>
       </c>
       <c r="C14">
-        <v>0.5201850553062286</v>
+        <v>0.9183712231172194</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0344270966158482</v>
+        <v>0.2947350956331221</v>
       </c>
       <c r="F14">
-        <v>2.358835330890145</v>
+        <v>2.57373289970198</v>
       </c>
       <c r="G14">
-        <v>0.0007938216238390978</v>
+        <v>1.272920853659969</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6714292214161048</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05130511334038856</v>
+        <v>0.01262797506861801</v>
       </c>
       <c r="K14">
-        <v>0.9352633545653362</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2392294831054613</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6716789013789253</v>
+        <v>1.4237506486526</v>
       </c>
       <c r="N14">
-        <v>1.051165053673699</v>
+        <v>0.3984017843787697</v>
       </c>
       <c r="O14">
-        <v>1.628255149832484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.91478469077407</v>
+        <v>3.954495385044936</v>
       </c>
       <c r="C15">
-        <v>0.5142051306171709</v>
+        <v>0.9080723955922849</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03435745868344231</v>
+        <v>0.2923731528524129</v>
       </c>
       <c r="F15">
-        <v>2.34162746857541</v>
+        <v>2.548609686156368</v>
       </c>
       <c r="G15">
-        <v>0.0007946685237802465</v>
+        <v>1.25877891813056</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6657849502978763</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0516499540973463</v>
+        <v>0.01271687795228793</v>
       </c>
       <c r="K15">
-        <v>0.924386498941189</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2370961360329744</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6644031124677738</v>
+        <v>1.407571398225613</v>
       </c>
       <c r="N15">
-        <v>1.056768806945691</v>
+        <v>0.4031651342985967</v>
       </c>
       <c r="O15">
-        <v>1.616350018406678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.661205381230047</v>
+        <v>3.690558502826434</v>
       </c>
       <c r="C16">
-        <v>0.480183474009209</v>
+        <v>0.8493442581073793</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03396756812092594</v>
+        <v>0.2789480166729348</v>
       </c>
       <c r="F16">
-        <v>2.24463770926836</v>
+        <v>2.406629102893106</v>
       </c>
       <c r="G16">
-        <v>0.0007995454315326916</v>
+        <v>1.17916183057315</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6341651261017489</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05364111019442319</v>
+        <v>0.01325821380484093</v>
       </c>
       <c r="K16">
-        <v>0.8625150159607387</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.224950373074094</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6230102709868888</v>
+        <v>1.315389938767908</v>
       </c>
       <c r="N16">
-        <v>1.089603967752474</v>
+        <v>0.4310303042630883</v>
       </c>
       <c r="O16">
-        <v>1.54949288350079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.507251378084334</v>
+        <v>3.529815616903932</v>
       </c>
       <c r="C17">
-        <v>0.4595153621590384</v>
+        <v>0.8135545875409491</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03373605147526826</v>
+        <v>0.2708059229565336</v>
       </c>
       <c r="F17">
-        <v>2.186515541395181</v>
+        <v>2.321209846613982</v>
       </c>
       <c r="G17">
-        <v>0.0008025597290519615</v>
+        <v>1.131518309619622</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6153811104535407</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05487574514534543</v>
+        <v>0.01361746616976411</v>
       </c>
       <c r="K17">
-        <v>0.8249419163263241</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2175670327847143</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5978705127651125</v>
+        <v>1.259285928378901</v>
       </c>
       <c r="N17">
-        <v>1.110370939181621</v>
+        <v>0.4486144061681294</v>
       </c>
       <c r="O17">
-        <v>1.509635930239426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.419251743691007</v>
+        <v>3.437756955986117</v>
       </c>
       <c r="C18">
-        <v>0.4476956979206079</v>
+        <v>0.7930488862543257</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03360551246817511</v>
+        <v>0.2661555365838808</v>
       </c>
       <c r="F18">
-        <v>2.153565240887431</v>
+        <v>2.272660601355724</v>
       </c>
       <c r="G18">
-        <v>0.0008043022488547641</v>
+        <v>1.104528097405108</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.604789850412061</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05559059798263011</v>
+        <v>0.01383359450360189</v>
       </c>
       <c r="K18">
-        <v>0.8034614008129211</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2133439351141249</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5834978647356053</v>
+        <v>1.227168462578902</v>
       </c>
       <c r="N18">
-        <v>1.122536797909504</v>
+        <v>0.4589016412881497</v>
       </c>
       <c r="O18">
-        <v>1.48711330060155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.389547449353415</v>
+        <v>3.406652361562521</v>
       </c>
       <c r="C19">
-        <v>0.4437048613875447</v>
+        <v>0.7861189504367871</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03356174722589556</v>
+        <v>0.2645864579855512</v>
       </c>
       <c r="F19">
-        <v>2.142488873307485</v>
+        <v>2.256319251414212</v>
       </c>
       <c r="G19">
-        <v>0.0008048937907406971</v>
+        <v>1.095458107169065</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6012392192681659</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05583343730741652</v>
+        <v>0.01390835856926387</v>
       </c>
       <c r="K19">
-        <v>0.7962099536638334</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2119180043064972</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5786459354748814</v>
+        <v>1.216319068133529</v>
       </c>
       <c r="N19">
-        <v>1.126693222844793</v>
+        <v>0.4624138834513278</v>
       </c>
       <c r="O19">
-        <v>1.479554437360164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.52358216686406</v>
+        <v>3.546885179049639</v>
       </c>
       <c r="C20">
-        <v>0.4617083281515306</v>
+        <v>0.8173560499000985</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03376042109796806</v>
+        <v>0.2716692370550007</v>
       </c>
       <c r="F20">
-        <v>2.192652485802128</v>
+        <v>2.330241879364266</v>
       </c>
       <c r="G20">
-        <v>0.0008022379549783576</v>
+        <v>1.136546687637434</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6173583969544438</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05474382514881992</v>
+        <v>0.01357822973593059</v>
       </c>
       <c r="K20">
-        <v>0.8289279025855336</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2183505310371885</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6005375381807951</v>
+        <v>1.265242294601478</v>
       </c>
       <c r="N20">
-        <v>1.108137187393069</v>
+        <v>0.4467244642189128</v>
       </c>
       <c r="O20">
-        <v>1.51383664845504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.980785666195231</v>
+        <v>4.023031313349065</v>
       </c>
       <c r="C21">
-        <v>0.5230572101651774</v>
+        <v>0.9233152301771668</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03446065988839564</v>
+        <v>0.2958697267540629</v>
       </c>
       <c r="F21">
-        <v>2.36711665639578</v>
+        <v>2.585816751338058</v>
       </c>
       <c r="G21">
-        <v>0.0007934159114070227</v>
+        <v>1.279728548372162</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.6741491175276337</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05114002246271432</v>
+        <v>0.01258592611173448</v>
       </c>
       <c r="K21">
-        <v>0.9404876198545367</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2402539370770143</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6751734085927268</v>
+        <v>1.43151896327096</v>
       </c>
       <c r="N21">
-        <v>1.048490983127941</v>
+        <v>0.3961279354199299</v>
       </c>
       <c r="O21">
-        <v>1.633989049677751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.285392671549857</v>
+        <v>4.338522010102224</v>
       </c>
       <c r="C22">
-        <v>0.5639033632319865</v>
+        <v>0.9934498676675219</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03494603503025129</v>
+        <v>0.312015823536484</v>
       </c>
       <c r="F22">
-        <v>2.48599426483834</v>
+        <v>2.758826873301444</v>
       </c>
       <c r="G22">
-        <v>0.0007877169530899381</v>
+        <v>1.377592176557272</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7134410681475742</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04882907167459027</v>
+        <v>0.01203270017123614</v>
       </c>
       <c r="K22">
-        <v>1.01478668227648</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2548072368866343</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7248610542364631</v>
+        <v>1.541807974826384</v>
       </c>
       <c r="N22">
-        <v>1.01165445505417</v>
+        <v>0.3647500874391625</v>
       </c>
       <c r="O22">
-        <v>1.716612875732167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.122241500189773</v>
+        <v>4.169705284426243</v>
       </c>
       <c r="C23">
-        <v>0.5420267658222144</v>
+        <v>0.9559277019899639</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03468421289828916</v>
+        <v>0.3033662218403848</v>
       </c>
       <c r="F23">
-        <v>2.422072908480871</v>
+        <v>2.665900142022167</v>
       </c>
       <c r="G23">
-        <v>0.0007907530719505456</v>
+        <v>1.324937013746052</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6922566287357199</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05005828832477155</v>
+        <v>0.01231869038334388</v>
       </c>
       <c r="K23">
-        <v>0.9749931750232719</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2470166419449811</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.698251798031599</v>
+        <v>1.482783078624465</v>
       </c>
       <c r="N23">
-        <v>1.031109400381936</v>
+        <v>0.3813348684289615</v>
       </c>
       <c r="O23">
-        <v>1.672113376939052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.516197436486266</v>
+        <v>3.539166933850595</v>
       </c>
       <c r="C24">
-        <v>0.4607166944428798</v>
+        <v>0.8156371918029208</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03374939565421498</v>
+        <v>0.2712788378115221</v>
       </c>
       <c r="F24">
-        <v>2.189876531356134</v>
+        <v>2.326156763405407</v>
       </c>
       <c r="G24">
-        <v>0.0008023833990966705</v>
+        <v>1.134272116385489</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6164638210996713</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05480345048955004</v>
+        <v>0.01359593877327825</v>
       </c>
       <c r="K24">
-        <v>0.8271254644670023</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2179962442390462</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5993315265704382</v>
+        <v>1.262548996035264</v>
       </c>
       <c r="N24">
-        <v>1.109146362485106</v>
+        <v>0.4475783544195435</v>
       </c>
       <c r="O24">
-        <v>1.51193628932289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.883119502870272</v>
+        <v>2.873827034884982</v>
       </c>
       <c r="C25">
-        <v>0.3755484621260905</v>
+        <v>0.6672732264453032</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03283954700094016</v>
+        <v>0.2379006632541092</v>
       </c>
       <c r="F25">
-        <v>1.957497853872781</v>
+        <v>1.981555255479137</v>
       </c>
       <c r="G25">
-        <v>0.0008152694429634287</v>
+        <v>0.9441218496627073</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.542715687721298</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06010167791694077</v>
+        <v>0.01533187397857105</v>
       </c>
       <c r="K25">
-        <v>0.6725130820301999</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1875821946862999</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4958970512603429</v>
+        <v>1.030682561519093</v>
       </c>
       <c r="N25">
-        <v>1.201700727881118</v>
+        <v>0.5255916142439627</v>
       </c>
       <c r="O25">
-        <v>1.354292724062063</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.39297746086055</v>
+        <v>0.8258382392119188</v>
       </c>
       <c r="C2">
-        <v>0.5597489438521848</v>
+        <v>0.169130870859135</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2141998247708798</v>
+        <v>0.4201928946818256</v>
       </c>
       <c r="F2">
-        <v>1.742860129223985</v>
+        <v>2.188402845309867</v>
       </c>
       <c r="G2">
-        <v>0.8146080413754504</v>
+        <v>0.6932782575092489</v>
       </c>
       <c r="H2">
-        <v>0.4939868916003434</v>
+        <v>0.7473974425159327</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01686921918135464</v>
+        <v>0.04093914717267033</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8635917234232551</v>
+        <v>0.5224473424993192</v>
       </c>
       <c r="N2">
-        <v>0.5880046771843341</v>
+        <v>1.190615592527177</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.071128694638503</v>
+        <v>0.7345745284280838</v>
       </c>
       <c r="C3">
-        <v>0.4875885435405962</v>
+        <v>0.1475884978857778</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1986018377443379</v>
+        <v>0.4182430313368641</v>
       </c>
       <c r="F3">
-        <v>1.588817316989648</v>
+        <v>2.166182142814748</v>
       </c>
       <c r="G3">
-        <v>0.7321359379640029</v>
+        <v>0.6789583914570159</v>
       </c>
       <c r="H3">
-        <v>0.463864338943992</v>
+        <v>0.7463789717493938</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01805165894082972</v>
+        <v>0.04159194831786817</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7520651307091981</v>
+        <v>0.4941220946971541</v>
       </c>
       <c r="N3">
-        <v>0.6331114572486909</v>
+        <v>1.208097573569571</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.875024692500261</v>
+        <v>0.6786953740740955</v>
       </c>
       <c r="C4">
-        <v>0.4435264320131296</v>
+        <v>0.1343205559346927</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1892293453955034</v>
+        <v>0.4171838556245469</v>
       </c>
       <c r="F4">
-        <v>1.497552731843342</v>
+        <v>2.153872985124437</v>
       </c>
       <c r="G4">
-        <v>0.6837434126167921</v>
+        <v>0.6707938444422865</v>
       </c>
       <c r="H4">
-        <v>0.4466300150448603</v>
+        <v>0.7462467883566006</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01884080255937892</v>
+        <v>0.04201820398814249</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6842689064535392</v>
+        <v>0.4769575867037616</v>
       </c>
       <c r="N4">
-        <v>0.6621054306576486</v>
+        <v>1.219378047094391</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.795427083028216</v>
+        <v>0.6559636986867474</v>
       </c>
       <c r="C5">
-        <v>0.4256181202900962</v>
+        <v>0.1289034637228212</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1854581716661805</v>
+        <v>0.4167870263868743</v>
       </c>
       <c r="F5">
-        <v>1.461128894949823</v>
+        <v>2.149191853536038</v>
       </c>
       <c r="G5">
-        <v>0.6645372016217266</v>
+        <v>0.667623692121694</v>
       </c>
       <c r="H5">
-        <v>0.4399006649361894</v>
+        <v>0.7463166238134988</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0191774012613477</v>
+        <v>0.04219828478950305</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6567907612305746</v>
+        <v>0.4700201826739629</v>
       </c>
       <c r="N5">
-        <v>0.6742349734752704</v>
+        <v>1.22411217004081</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.782227283285465</v>
+        <v>0.6521915100061335</v>
       </c>
       <c r="C6">
-        <v>0.4226469245762701</v>
+        <v>0.1280033369282307</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1848347897461515</v>
+        <v>0.4167232370038079</v>
       </c>
       <c r="F6">
-        <v>1.455125202332852</v>
+        <v>2.148434767796033</v>
       </c>
       <c r="G6">
-        <v>0.6613776637225612</v>
+        <v>0.6671067441366745</v>
       </c>
       <c r="H6">
-        <v>0.4388003528212181</v>
+        <v>0.7463356822208027</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0192341763158197</v>
+        <v>0.0422285717928057</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.652236442542474</v>
+        <v>0.4688716945816722</v>
       </c>
       <c r="N6">
-        <v>0.676267714974955</v>
+        <v>1.224906551372982</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.873950011646599</v>
+        <v>0.678388646642901</v>
       </c>
       <c r="C7">
-        <v>0.4432847404839606</v>
+        <v>0.1342475408653456</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1891782950887055</v>
+        <v>0.4171783628624368</v>
       </c>
       <c r="F7">
-        <v>1.497058486368857</v>
+        <v>2.153808498354806</v>
       </c>
       <c r="G7">
-        <v>0.6834823735661359</v>
+        <v>0.6707504563339768</v>
       </c>
       <c r="H7">
-        <v>0.4465381008607778</v>
+        <v>0.7462472297332141</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01884528233261307</v>
+        <v>0.04202060681924458</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6838977498004866</v>
+        <v>0.47686379440011</v>
       </c>
       <c r="N7">
-        <v>0.6622677569664779</v>
+        <v>1.219441337695391</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.281650097016382</v>
+        <v>0.7943378803104224</v>
       </c>
       <c r="C8">
-        <v>0.5348083786288385</v>
+        <v>0.1617115121189272</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2087770942926781</v>
+        <v>0.4194919764214653</v>
       </c>
       <c r="F8">
-        <v>1.689015546411824</v>
+        <v>2.180463803662747</v>
       </c>
       <c r="G8">
-        <v>0.7856740300633049</v>
+        <v>0.6882098809967232</v>
       </c>
       <c r="H8">
-        <v>0.4833243550007751</v>
+        <v>0.7469437294120382</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01726328876302219</v>
+        <v>0.04115894404298714</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8249821349302309</v>
+        <v>0.5126336765949091</v>
       </c>
       <c r="N8">
-        <v>0.603280457337716</v>
+        <v>1.196529856138355</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.096313845205771</v>
+        <v>1.022972125688511</v>
       </c>
       <c r="C9">
-        <v>0.7169316831432013</v>
+        <v>0.2152482490811849</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.24899655257002</v>
+        <v>0.4251213910440015</v>
       </c>
       <c r="F9">
-        <v>2.095063544945575</v>
+        <v>2.243356318210473</v>
       </c>
       <c r="G9">
-        <v>1.006366428203918</v>
+        <v>0.7274745104736553</v>
       </c>
       <c r="H9">
-        <v>0.5666103114289598</v>
+        <v>0.7522377330166847</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01470382408807147</v>
+        <v>0.03967178027370721</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.10814411113865</v>
+        <v>0.584581151045434</v>
       </c>
       <c r="N9">
-        <v>0.4984984987909264</v>
+        <v>1.155943701018495</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.708956589751494</v>
+        <v>1.191750234745257</v>
       </c>
       <c r="C10">
-        <v>0.8534394560535077</v>
+        <v>0.2543960113758601</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2798816452830977</v>
+        <v>0.4299202405926295</v>
       </c>
       <c r="F10">
-        <v>2.416457429645689</v>
+        <v>2.296093396280284</v>
       </c>
       <c r="G10">
-        <v>1.184656223511524</v>
+        <v>0.7594524398460578</v>
       </c>
       <c r="H10">
-        <v>0.6363382561974333</v>
+        <v>0.7585447336814184</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01321854186633153</v>
+        <v>0.0387036549152171</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.321813254992776</v>
+        <v>0.638545313450777</v>
       </c>
       <c r="N10">
-        <v>0.4290477956198151</v>
+        <v>1.128781812921993</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.991939696391171</v>
+        <v>1.268714011767372</v>
       </c>
       <c r="C11">
-        <v>0.9164005883332322</v>
+        <v>0.2721673122339325</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2942829803266989</v>
+        <v>0.4322467291632321</v>
       </c>
       <c r="F11">
-        <v>2.568920596213246</v>
+        <v>2.321515224393977</v>
       </c>
       <c r="G11">
-        <v>1.270210761078289</v>
+        <v>0.7746941806902328</v>
       </c>
       <c r="H11">
-        <v>0.6703469611326227</v>
+        <v>0.761943954729901</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01264484899497376</v>
+        <v>0.03829048196739926</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.420654518929624</v>
+        <v>0.6633363860717623</v>
       </c>
       <c r="N11">
-        <v>0.3993104330780621</v>
+        <v>1.117004060657731</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.099826930796382</v>
+        <v>1.297885210333106</v>
       </c>
       <c r="C12">
-        <v>0.9403919284284541</v>
+        <v>0.2788915925816582</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2997925077877426</v>
+        <v>0.4331482760470848</v>
       </c>
       <c r="F12">
-        <v>2.627669907163067</v>
+        <v>2.331348505092819</v>
       </c>
       <c r="G12">
-        <v>1.303335590552649</v>
+        <v>0.7805668407144992</v>
       </c>
       <c r="H12">
-        <v>0.6835948659172004</v>
+        <v>0.7633077686868432</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01244380882954843</v>
+        <v>0.03813795957469956</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.458357562549722</v>
+        <v>0.6727589903848923</v>
       </c>
       <c r="N12">
-        <v>0.3883375107755942</v>
+        <v>1.112627506889167</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.076557228120635</v>
+        <v>1.291601484210901</v>
       </c>
       <c r="C13">
-        <v>0.9352178909299198</v>
+        <v>0.2774436349208429</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2986033460873969</v>
+        <v>0.4329531987302531</v>
       </c>
       <c r="F13">
-        <v>2.614970103957234</v>
+        <v>2.329221532260277</v>
       </c>
       <c r="G13">
-        <v>1.296167734058344</v>
+        <v>0.7792975523681207</v>
       </c>
       <c r="H13">
-        <v>0.6807245679152061</v>
+        <v>0.7630106340955365</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01248635926081754</v>
+        <v>0.03817063254949637</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.450224705864187</v>
+        <v>0.6707281195456574</v>
       </c>
       <c r="N13">
-        <v>0.3906875595698516</v>
+        <v>1.113566361433071</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.000800383048102</v>
+        <v>1.271113409110342</v>
       </c>
       <c r="C14">
-        <v>0.9183712231172194</v>
+        <v>0.2727206294032669</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2947350956331221</v>
+        <v>0.4323204884151366</v>
       </c>
       <c r="F14">
-        <v>2.57373289970198</v>
+        <v>2.322320069737202</v>
       </c>
       <c r="G14">
-        <v>1.272920853659969</v>
+        <v>0.7751752989927638</v>
       </c>
       <c r="H14">
-        <v>0.6714292214161048</v>
+        <v>0.7620546191623134</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01262797506861801</v>
+        <v>0.03827785482718937</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.4237506486526</v>
+        <v>0.6641108933039703</v>
       </c>
       <c r="N14">
-        <v>0.3984017843787697</v>
+        <v>1.116642325449924</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.954495385044936</v>
+        <v>1.258567346278312</v>
       </c>
       <c r="C15">
-        <v>0.9080723955922849</v>
+        <v>0.2698269593976761</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2923731528524129</v>
+        <v>0.4319356099023963</v>
       </c>
       <c r="F15">
-        <v>2.548609686156368</v>
+        <v>2.318119650466144</v>
       </c>
       <c r="G15">
-        <v>1.25877891813056</v>
+        <v>0.7726634762342712</v>
       </c>
       <c r="H15">
-        <v>0.6657849502978763</v>
+        <v>0.7614790193810848</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01271687795228793</v>
+        <v>0.0383440449482304</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.407571398225613</v>
+        <v>0.6600621751863542</v>
       </c>
       <c r="N15">
-        <v>0.4031651342985967</v>
+        <v>1.118537314576177</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.690558502826434</v>
+        <v>1.186724206544</v>
       </c>
       <c r="C16">
-        <v>0.8493442581073793</v>
+        <v>0.2532338683868716</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2789480166729348</v>
+        <v>0.4297710796602843</v>
       </c>
       <c r="F16">
-        <v>2.406629102893106</v>
+        <v>2.29446088811882</v>
       </c>
       <c r="G16">
-        <v>1.17916183057315</v>
+        <v>0.7584704256681505</v>
       </c>
       <c r="H16">
-        <v>0.6341651261017489</v>
+        <v>0.7583332858118013</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01325821380484093</v>
+        <v>0.03873120653355677</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.315389938767908</v>
+        <v>0.6369300289875213</v>
       </c>
       <c r="N16">
-        <v>0.4310303042630883</v>
+        <v>1.12956317646392</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.529815616903932</v>
+        <v>1.142698324996786</v>
       </c>
       <c r="C17">
-        <v>0.8135545875409491</v>
+        <v>0.2430450308840761</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2708059229565336</v>
+        <v>0.4284799028815058</v>
       </c>
       <c r="F17">
-        <v>2.321209846613982</v>
+        <v>2.28031416271439</v>
       </c>
       <c r="G17">
-        <v>1.131518309619622</v>
+        <v>0.7499421397851336</v>
       </c>
       <c r="H17">
-        <v>0.6153811104535407</v>
+        <v>0.7565395226142186</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01361746616976411</v>
+        <v>0.03897570750487134</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.259285928378901</v>
+        <v>0.6228012392765407</v>
       </c>
       <c r="N17">
-        <v>0.4486144061681294</v>
+        <v>1.136475493966051</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.437756955986117</v>
+        <v>1.117393288781841</v>
       </c>
       <c r="C18">
-        <v>0.7930488862543257</v>
+        <v>0.2371811767381757</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2661555365838808</v>
+        <v>0.4277507604217732</v>
       </c>
       <c r="F18">
-        <v>2.272660601355724</v>
+        <v>2.272312031974238</v>
       </c>
       <c r="G18">
-        <v>1.104528097405108</v>
+        <v>0.7451022332793968</v>
       </c>
       <c r="H18">
-        <v>0.604789850412061</v>
+        <v>0.7555576739601975</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01383359450360189</v>
+        <v>0.03911889992819795</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.227168462578902</v>
+        <v>0.6146975650725039</v>
       </c>
       <c r="N18">
-        <v>0.4589016412881497</v>
+        <v>1.14050569496065</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.406652361562521</v>
+        <v>1.10882844260658</v>
       </c>
       <c r="C19">
-        <v>0.7861189504367871</v>
+        <v>0.2351951738763489</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2645864579855512</v>
+        <v>0.4275062076489959</v>
       </c>
       <c r="F19">
-        <v>2.256319251414212</v>
+        <v>2.269625758886946</v>
       </c>
       <c r="G19">
-        <v>1.095458107169065</v>
+        <v>0.7434747146705263</v>
       </c>
       <c r="H19">
-        <v>0.6012392192681659</v>
+        <v>0.7552337919853187</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01390835856926387</v>
+        <v>0.03916782179126521</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.216319068133529</v>
+        <v>0.6119577250065618</v>
       </c>
       <c r="N19">
-        <v>0.4624138834513278</v>
+        <v>1.14187959033514</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.546885179049639</v>
+        <v>1.147383145687058</v>
       </c>
       <c r="C20">
-        <v>0.8173560499000985</v>
+        <v>0.244130012528899</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2716692370550007</v>
+        <v>0.4286159533409375</v>
       </c>
       <c r="F20">
-        <v>2.330241879364266</v>
+        <v>2.281806160394396</v>
       </c>
       <c r="G20">
-        <v>1.136546687637434</v>
+        <v>0.7508432207164617</v>
       </c>
       <c r="H20">
-        <v>0.6173583969544438</v>
+        <v>0.7567253070868958</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01357822973593059</v>
+        <v>0.03894941465602564</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.265242294601478</v>
+        <v>0.6243029108405267</v>
       </c>
       <c r="N20">
-        <v>0.4467244642189128</v>
+        <v>1.135734031966424</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.023031313349065</v>
+        <v>1.277130529304827</v>
       </c>
       <c r="C21">
-        <v>0.9233152301771668</v>
+        <v>0.2741080349309755</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2958697267540629</v>
+        <v>0.4325057734724709</v>
       </c>
       <c r="F21">
-        <v>2.585816751338058</v>
+        <v>2.324341583923825</v>
       </c>
       <c r="G21">
-        <v>1.279728548372162</v>
+        <v>0.7763833569271696</v>
       </c>
       <c r="H21">
-        <v>0.6741491175276337</v>
+        <v>0.76233334198119</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01258592611173448</v>
+        <v>0.03824625401938953</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.43151896327096</v>
+        <v>0.6660535904415639</v>
       </c>
       <c r="N21">
-        <v>0.3961279354199299</v>
+        <v>1.115736573990031</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.338522010102224</v>
+        <v>1.362083489119527</v>
       </c>
       <c r="C22">
-        <v>0.9934498676675219</v>
+        <v>0.2936693774267383</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.312015823536484</v>
+        <v>0.4351677788273491</v>
       </c>
       <c r="F22">
-        <v>2.758826873301444</v>
+        <v>2.353345434801895</v>
       </c>
       <c r="G22">
-        <v>1.377592176557272</v>
+        <v>0.7936641698746598</v>
       </c>
       <c r="H22">
-        <v>0.7134410681475742</v>
+        <v>0.7664451902732878</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01203270017123614</v>
+        <v>0.03780965715487916</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.541807974826384</v>
+        <v>0.6935426514670979</v>
       </c>
       <c r="N22">
-        <v>0.3647500874391625</v>
+        <v>1.103153472499157</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.169705284426243</v>
+        <v>1.316728269627959</v>
       </c>
       <c r="C23">
-        <v>0.9559277019899639</v>
+        <v>0.2832319508053729</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3033662218403848</v>
+        <v>0.4337360806810935</v>
       </c>
       <c r="F23">
-        <v>2.665900142022167</v>
+        <v>2.337755074950053</v>
       </c>
       <c r="G23">
-        <v>1.324937013746052</v>
+        <v>0.7843868529122631</v>
       </c>
       <c r="H23">
-        <v>0.6922566287357199</v>
+        <v>0.7642096257334003</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01231869038334388</v>
+        <v>0.03804056925253185</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.482783078624465</v>
+        <v>0.6788527212869013</v>
       </c>
       <c r="N23">
-        <v>0.3813348684289615</v>
+        <v>1.109824717198466</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.539166933850595</v>
+        <v>1.145265119472526</v>
       </c>
       <c r="C24">
-        <v>0.8156371918029208</v>
+        <v>0.2436395115062453</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2712788378115221</v>
+        <v>0.4285544038934574</v>
       </c>
       <c r="F24">
-        <v>2.326156763405407</v>
+        <v>2.281131220217674</v>
       </c>
       <c r="G24">
-        <v>1.134272116385489</v>
+        <v>0.750435645499067</v>
       </c>
       <c r="H24">
-        <v>0.6164638210996713</v>
+        <v>0.7566411600465983</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01359593877327825</v>
+        <v>0.03896129347596933</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.262548996035264</v>
+        <v>0.6236239454537014</v>
       </c>
       <c r="N24">
-        <v>0.4475783544195435</v>
+        <v>1.136069071841025</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.873827034884982</v>
+        <v>0.9609823812872378</v>
       </c>
       <c r="C25">
-        <v>0.6672732264453032</v>
+        <v>0.2007984392826643</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2379006632541092</v>
+        <v>0.4234818519158807</v>
       </c>
       <c r="F25">
-        <v>1.981555255479137</v>
+        <v>2.225199485342813</v>
       </c>
       <c r="G25">
-        <v>0.9441218496627073</v>
+        <v>0.7163074592028522</v>
       </c>
       <c r="H25">
-        <v>0.542715687721298</v>
+        <v>0.750382684294479</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01533187397857105</v>
+        <v>0.04005230891283684</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.030682561519093</v>
+        <v>0.5649239122673677</v>
       </c>
       <c r="N25">
-        <v>0.5255916142439627</v>
+        <v>1.166457452264634</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8258382392119188</v>
+        <v>2.392977460860493</v>
       </c>
       <c r="C2">
-        <v>0.169130870859135</v>
+        <v>0.5597489438521848</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4201928946818256</v>
+        <v>0.2141998247708798</v>
       </c>
       <c r="F2">
-        <v>2.188402845309867</v>
+        <v>1.742860129223985</v>
       </c>
       <c r="G2">
-        <v>0.6932782575092489</v>
+        <v>0.8146080413753651</v>
       </c>
       <c r="H2">
-        <v>0.7473974425159327</v>
+        <v>0.4939868916003434</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04093914717267033</v>
+        <v>0.01686921918135376</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5224473424993192</v>
+        <v>0.8635917234232551</v>
       </c>
       <c r="N2">
-        <v>1.190615592527177</v>
+        <v>0.5880046771843386</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7345745284280838</v>
+        <v>2.071128694638503</v>
       </c>
       <c r="C3">
-        <v>0.1475884978857778</v>
+        <v>0.4875885435406246</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4182430313368641</v>
+        <v>0.1986018377443379</v>
       </c>
       <c r="F3">
-        <v>2.166182142814748</v>
+        <v>1.588817316989633</v>
       </c>
       <c r="G3">
-        <v>0.6789583914570159</v>
+        <v>0.7321359379639603</v>
       </c>
       <c r="H3">
-        <v>0.7463789717493938</v>
+        <v>0.4638643389438784</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04159194831786817</v>
+        <v>0.01805165894079153</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4941220946971541</v>
+        <v>0.7520651307092194</v>
       </c>
       <c r="N3">
-        <v>1.208097573569571</v>
+        <v>0.6331114572486465</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6786953740740955</v>
+        <v>1.875024692500176</v>
       </c>
       <c r="C4">
-        <v>0.1343205559346927</v>
+        <v>0.4435264320133854</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4171838556245469</v>
+        <v>0.1892293453954856</v>
       </c>
       <c r="F4">
-        <v>2.153872985124437</v>
+        <v>1.497552731843342</v>
       </c>
       <c r="G4">
-        <v>0.6707938444422865</v>
+        <v>0.6837434126167921</v>
       </c>
       <c r="H4">
-        <v>0.7462467883566006</v>
+        <v>0.446630015044974</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04201820398814249</v>
+        <v>0.01884080255939846</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4769575867037616</v>
+        <v>0.6842689064535534</v>
       </c>
       <c r="N4">
-        <v>1.219378047094391</v>
+        <v>0.6621054306576539</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6559636986867474</v>
+        <v>1.795427083028301</v>
       </c>
       <c r="C5">
-        <v>0.1289034637228212</v>
+        <v>0.4256181202902098</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4167870263868743</v>
+        <v>0.185458171666177</v>
       </c>
       <c r="F5">
-        <v>2.149191853536038</v>
+        <v>1.461128894949795</v>
       </c>
       <c r="G5">
-        <v>0.667623692121694</v>
+        <v>0.664537201621755</v>
       </c>
       <c r="H5">
-        <v>0.7463166238134988</v>
+        <v>0.4399006649360331</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04219828478950305</v>
+        <v>0.01917740126134326</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4700201826739629</v>
+        <v>0.6567907612305603</v>
       </c>
       <c r="N5">
-        <v>1.22411217004081</v>
+        <v>0.6742349734752633</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6521915100061335</v>
+        <v>1.782227283285465</v>
       </c>
       <c r="C6">
-        <v>0.1280033369282307</v>
+        <v>0.422646924576469</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4167232370038079</v>
+        <v>0.1848347897461728</v>
       </c>
       <c r="F6">
-        <v>2.148434767796033</v>
+        <v>1.455125202332852</v>
       </c>
       <c r="G6">
-        <v>0.6671067441366745</v>
+        <v>0.661377663722547</v>
       </c>
       <c r="H6">
-        <v>0.7463356822208027</v>
+        <v>0.4388003528212181</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0422285717928057</v>
+        <v>0.01923417631587032</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4688716945816722</v>
+        <v>0.6522364425424882</v>
       </c>
       <c r="N6">
-        <v>1.224906551372982</v>
+        <v>0.6762677149749416</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.678388646642901</v>
+        <v>1.873950011646599</v>
       </c>
       <c r="C7">
-        <v>0.1342475408653456</v>
+        <v>0.4432847404837901</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4171783628624368</v>
+        <v>0.1891782950887269</v>
       </c>
       <c r="F7">
-        <v>2.153808498354806</v>
+        <v>1.497058486368871</v>
       </c>
       <c r="G7">
-        <v>0.6707504563339768</v>
+        <v>0.6834823735661075</v>
       </c>
       <c r="H7">
-        <v>0.7462472297332141</v>
+        <v>0.4465381008607636</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04202060681924458</v>
+        <v>0.01884528233260596</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.47686379440011</v>
+        <v>0.6838977498005079</v>
       </c>
       <c r="N7">
-        <v>1.219441337695391</v>
+        <v>0.6622677569665303</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7943378803104224</v>
+        <v>2.281650097016325</v>
       </c>
       <c r="C8">
-        <v>0.1617115121189272</v>
+        <v>0.5348083786286395</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4194919764214653</v>
+        <v>0.2087770942926852</v>
       </c>
       <c r="F8">
-        <v>2.180463803662747</v>
+        <v>1.689015546411838</v>
       </c>
       <c r="G8">
-        <v>0.6882098809967232</v>
+        <v>0.7856740300633334</v>
       </c>
       <c r="H8">
-        <v>0.7469437294120382</v>
+        <v>0.4833243550007751</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04115894404298714</v>
+        <v>0.01726328876297867</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5126336765949091</v>
+        <v>0.8249821349302167</v>
       </c>
       <c r="N8">
-        <v>1.196529856138355</v>
+        <v>0.6032804573377186</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.022972125688511</v>
+        <v>3.096313845205827</v>
       </c>
       <c r="C9">
-        <v>0.2152482490811849</v>
+        <v>0.7169316831429455</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4251213910440015</v>
+        <v>0.2489965525700271</v>
       </c>
       <c r="F9">
-        <v>2.243356318210473</v>
+        <v>2.095063544945575</v>
       </c>
       <c r="G9">
-        <v>0.7274745104736553</v>
+        <v>1.006366428203947</v>
       </c>
       <c r="H9">
-        <v>0.7522377330166847</v>
+        <v>0.5666103114288461</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03967178027370721</v>
+        <v>0.01470382408807502</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.584581151045434</v>
+        <v>1.10814411113865</v>
       </c>
       <c r="N9">
-        <v>1.155943701018495</v>
+        <v>0.4984984987909273</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.191750234745257</v>
+        <v>3.708956589751438</v>
       </c>
       <c r="C10">
-        <v>0.2543960113758601</v>
+        <v>0.8534394560536214</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4299202405926295</v>
+        <v>0.2798816452830835</v>
       </c>
       <c r="F10">
-        <v>2.296093396280284</v>
+        <v>2.416457429645689</v>
       </c>
       <c r="G10">
-        <v>0.7594524398460578</v>
+        <v>1.184656223511467</v>
       </c>
       <c r="H10">
-        <v>0.7585447336814184</v>
+        <v>0.6363382561974049</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0387036549152171</v>
+        <v>0.01321854186644522</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.638545313450777</v>
+        <v>1.32181325499279</v>
       </c>
       <c r="N10">
-        <v>1.128781812921993</v>
+        <v>0.4290477956198293</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.268714011767372</v>
+        <v>3.991939696391171</v>
       </c>
       <c r="C11">
-        <v>0.2721673122339325</v>
+        <v>0.9164005883332891</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4322467291632321</v>
+        <v>0.294282980326706</v>
       </c>
       <c r="F11">
-        <v>2.321515224393977</v>
+        <v>2.568920596213218</v>
       </c>
       <c r="G11">
-        <v>0.7746941806902328</v>
+        <v>1.270210761078317</v>
       </c>
       <c r="H11">
-        <v>0.761943954729901</v>
+        <v>0.6703469611327364</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03829048196739926</v>
+        <v>0.01264484899492224</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6633363860717623</v>
+        <v>1.420654518929624</v>
       </c>
       <c r="N11">
-        <v>1.117004060657731</v>
+        <v>0.3993104330781296</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.297885210333106</v>
+        <v>4.099826930796382</v>
       </c>
       <c r="C12">
-        <v>0.2788915925816582</v>
+        <v>0.9403919284286246</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4331482760470848</v>
+        <v>0.2997925077877781</v>
       </c>
       <c r="F12">
-        <v>2.331348505092819</v>
+        <v>2.627669907163039</v>
       </c>
       <c r="G12">
-        <v>0.7805668407144992</v>
+        <v>1.303335590552706</v>
       </c>
       <c r="H12">
-        <v>0.7633077686868432</v>
+        <v>0.6835948659172004</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03813795957469956</v>
+        <v>0.01244380882955021</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6727589903848923</v>
+        <v>1.458357562549722</v>
       </c>
       <c r="N12">
-        <v>1.112627506889167</v>
+        <v>0.3883375107756564</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.291601484210901</v>
+        <v>4.076557228120464</v>
       </c>
       <c r="C13">
-        <v>0.2774436349208429</v>
+        <v>0.9352178909300051</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4329531987302531</v>
+        <v>0.2986033460873969</v>
       </c>
       <c r="F13">
-        <v>2.329221532260277</v>
+        <v>2.614970103957234</v>
       </c>
       <c r="G13">
-        <v>0.7792975523681207</v>
+        <v>1.296167734058344</v>
       </c>
       <c r="H13">
-        <v>0.7630106340955365</v>
+        <v>0.6807245679152061</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03817063254949637</v>
+        <v>0.01248635926087616</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6707281195456574</v>
+        <v>1.450224705864187</v>
       </c>
       <c r="N13">
-        <v>1.113566361433071</v>
+        <v>0.3906875595698605</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.271113409110342</v>
+        <v>4.000800383048102</v>
       </c>
       <c r="C14">
-        <v>0.2727206294032669</v>
+        <v>0.918371223116992</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4323204884151366</v>
+        <v>0.2947350956331647</v>
       </c>
       <c r="F14">
-        <v>2.322320069737202</v>
+        <v>2.573732899701952</v>
       </c>
       <c r="G14">
-        <v>0.7751752989927638</v>
+        <v>1.272920853659883</v>
       </c>
       <c r="H14">
-        <v>0.7620546191623134</v>
+        <v>0.6714292214161048</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03827785482718937</v>
+        <v>0.01262797506878854</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6641108933039703</v>
+        <v>1.423750648652614</v>
       </c>
       <c r="N14">
-        <v>1.116642325449924</v>
+        <v>0.3984017843787022</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.258567346278312</v>
+        <v>3.954495385044993</v>
       </c>
       <c r="C15">
-        <v>0.2698269593976761</v>
+        <v>0.9080723955921428</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4319356099023963</v>
+        <v>0.2923731528524129</v>
       </c>
       <c r="F15">
-        <v>2.318119650466144</v>
+        <v>2.54860968615634</v>
       </c>
       <c r="G15">
-        <v>0.7726634762342712</v>
+        <v>1.25877891813056</v>
       </c>
       <c r="H15">
-        <v>0.7614790193810848</v>
+        <v>0.66578495029799</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0383440449482304</v>
+        <v>0.01271687795228438</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6600621751863542</v>
+        <v>1.407571398225613</v>
       </c>
       <c r="N15">
-        <v>1.118537314576177</v>
+        <v>0.4031651342985985</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.186724206544</v>
+        <v>3.690558502826377</v>
       </c>
       <c r="C16">
-        <v>0.2532338683868716</v>
+        <v>0.8493442581074078</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4297710796602843</v>
+        <v>0.278948016672949</v>
       </c>
       <c r="F16">
-        <v>2.29446088811882</v>
+        <v>2.406629102893106</v>
       </c>
       <c r="G16">
-        <v>0.7584704256681505</v>
+        <v>1.179161830573179</v>
       </c>
       <c r="H16">
-        <v>0.7583332858118013</v>
+        <v>0.6341651261018342</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03873120653355677</v>
+        <v>0.01325821380477343</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6369300289875213</v>
+        <v>1.315389938767879</v>
       </c>
       <c r="N16">
-        <v>1.12956317646392</v>
+        <v>0.4310303042630785</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.142698324996786</v>
+        <v>3.529815616903818</v>
       </c>
       <c r="C17">
-        <v>0.2430450308840761</v>
+        <v>0.8135545875407786</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4284799028815058</v>
+        <v>0.2708059229565052</v>
       </c>
       <c r="F17">
-        <v>2.28031416271439</v>
+        <v>2.321209846614025</v>
       </c>
       <c r="G17">
-        <v>0.7499421397851336</v>
+        <v>1.131518309619622</v>
       </c>
       <c r="H17">
-        <v>0.7565395226142186</v>
+        <v>0.6153811104536544</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03897570750487134</v>
+        <v>0.01361746616986359</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6228012392765407</v>
+        <v>1.259285928378901</v>
       </c>
       <c r="N17">
-        <v>1.136475493966051</v>
+        <v>0.4486144061681285</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.117393288781841</v>
+        <v>3.437756955986117</v>
       </c>
       <c r="C18">
-        <v>0.2371811767381757</v>
+        <v>0.7930488862543257</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4277507604217732</v>
+        <v>0.2661555365838808</v>
       </c>
       <c r="F18">
-        <v>2.272312031974238</v>
+        <v>2.272660601355739</v>
       </c>
       <c r="G18">
-        <v>0.7451022332793968</v>
+        <v>1.104528097405108</v>
       </c>
       <c r="H18">
-        <v>0.7555576739601975</v>
+        <v>0.604789850412061</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03911889992819795</v>
+        <v>0.01383359450360366</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6146975650725039</v>
+        <v>1.227168462578902</v>
       </c>
       <c r="N18">
-        <v>1.14050569496065</v>
+        <v>0.4589016412881435</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.10882844260658</v>
+        <v>3.406652361562521</v>
       </c>
       <c r="C19">
-        <v>0.2351951738763489</v>
+        <v>0.7861189504367871</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4275062076489959</v>
+        <v>0.2645864579855584</v>
       </c>
       <c r="F19">
-        <v>2.269625758886946</v>
+        <v>2.25631925141424</v>
       </c>
       <c r="G19">
-        <v>0.7434747146705263</v>
+        <v>1.095458107169065</v>
       </c>
       <c r="H19">
-        <v>0.7552337919853187</v>
+        <v>0.6012392192681659</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03916782179126521</v>
+        <v>0.01390835856932249</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6119577250065618</v>
+        <v>1.216319068133529</v>
       </c>
       <c r="N19">
-        <v>1.14187959033514</v>
+        <v>0.4624138834513305</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.147383145687058</v>
+        <v>3.546885179049696</v>
       </c>
       <c r="C20">
-        <v>0.244130012528899</v>
+        <v>0.81735604990007</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4286159533409375</v>
+        <v>0.2716692370549865</v>
       </c>
       <c r="F20">
-        <v>2.281806160394396</v>
+        <v>2.330241879364266</v>
       </c>
       <c r="G20">
-        <v>0.7508432207164617</v>
+        <v>1.136546687637463</v>
       </c>
       <c r="H20">
-        <v>0.7567253070868958</v>
+        <v>0.6173583969544438</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03894941465602564</v>
+        <v>0.01357822973589151</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6243029108405267</v>
+        <v>1.265242294601478</v>
       </c>
       <c r="N20">
-        <v>1.135734031966424</v>
+        <v>0.4467244642189883</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.277130529304827</v>
+        <v>4.023031313348952</v>
       </c>
       <c r="C21">
-        <v>0.2741080349309755</v>
+        <v>0.9233152301771383</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4325057734724709</v>
+        <v>0.2958697267540842</v>
       </c>
       <c r="F21">
-        <v>2.324341583923825</v>
+        <v>2.585816751338058</v>
       </c>
       <c r="G21">
-        <v>0.7763833569271696</v>
+        <v>1.279728548372162</v>
       </c>
       <c r="H21">
-        <v>0.76233334198119</v>
+        <v>0.6741491175276337</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03824625401938953</v>
+        <v>0.0125859261118908</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6660535904415639</v>
+        <v>1.43151896327096</v>
       </c>
       <c r="N21">
-        <v>1.115736573990031</v>
+        <v>0.396127935419857</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.362083489119527</v>
+        <v>4.338522010102054</v>
       </c>
       <c r="C22">
-        <v>0.2936693774267383</v>
+        <v>0.9934498676674934</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4351677788273491</v>
+        <v>0.3120158235365054</v>
       </c>
       <c r="F22">
-        <v>2.353345434801895</v>
+        <v>2.758826873301444</v>
       </c>
       <c r="G22">
-        <v>0.7936641698746598</v>
+        <v>1.377592176557243</v>
       </c>
       <c r="H22">
-        <v>0.7664451902732878</v>
+        <v>0.7134410681474606</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03780965715487916</v>
+        <v>0.01203270017118463</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6935426514670979</v>
+        <v>1.541807974826369</v>
       </c>
       <c r="N22">
-        <v>1.103153472499157</v>
+        <v>0.3647500874391643</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.316728269627959</v>
+        <v>4.169705284426186</v>
       </c>
       <c r="C23">
-        <v>0.2832319508053729</v>
+        <v>0.9559277019897081</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4337360806810935</v>
+        <v>0.3033662218404274</v>
       </c>
       <c r="F23">
-        <v>2.337755074950053</v>
+        <v>2.665900142022195</v>
       </c>
       <c r="G23">
-        <v>0.7843868529122631</v>
+        <v>1.324937013746052</v>
       </c>
       <c r="H23">
-        <v>0.7642096257334003</v>
+        <v>0.6922566287357199</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03804056925253185</v>
+        <v>0.01231869038322131</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6788527212869013</v>
+        <v>1.482783078624479</v>
       </c>
       <c r="N23">
-        <v>1.109824717198466</v>
+        <v>0.3813348684289615</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.145265119472526</v>
+        <v>3.539166933850595</v>
       </c>
       <c r="C24">
-        <v>0.2436395115062453</v>
+        <v>0.8156371918028924</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4285544038934574</v>
+        <v>0.2712788378114723</v>
       </c>
       <c r="F24">
-        <v>2.281131220217674</v>
+        <v>2.326156763405407</v>
       </c>
       <c r="G24">
-        <v>0.750435645499067</v>
+        <v>1.134272116385461</v>
       </c>
       <c r="H24">
-        <v>0.7566411600465983</v>
+        <v>0.6164638210995577</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03896129347596933</v>
+        <v>0.01359593877329246</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6236239454537014</v>
+        <v>1.262548996035221</v>
       </c>
       <c r="N24">
-        <v>1.136069071841025</v>
+        <v>0.4475783544195426</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9609823812872378</v>
+        <v>2.873827034884926</v>
       </c>
       <c r="C25">
-        <v>0.2007984392826643</v>
+        <v>0.6672732264451042</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4234818519158807</v>
+        <v>0.237900663254095</v>
       </c>
       <c r="F25">
-        <v>2.225199485342813</v>
+        <v>1.981555255479137</v>
       </c>
       <c r="G25">
-        <v>0.7163074592028522</v>
+        <v>0.9441218496626789</v>
       </c>
       <c r="H25">
-        <v>0.750382684294479</v>
+        <v>0.5427156877213122</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04005230891283684</v>
+        <v>0.01533187397855063</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5649239122673677</v>
+        <v>1.030682561519107</v>
       </c>
       <c r="N25">
-        <v>1.166457452264634</v>
+        <v>0.5255916142439485</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.392977460860493</v>
+        <v>0.8693838865496843</v>
       </c>
       <c r="C2">
-        <v>0.5597489438521848</v>
+        <v>0.1517861308324555</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2141998247708798</v>
+        <v>0.1283177422699566</v>
       </c>
       <c r="F2">
-        <v>1.742860129223985</v>
+        <v>0.957462496615598</v>
       </c>
       <c r="G2">
-        <v>0.8146080413753651</v>
+        <v>0.3120025454425743</v>
       </c>
       <c r="H2">
-        <v>0.4939868916003434</v>
+        <v>0.005939715293153291</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003865680018797057</v>
       </c>
       <c r="J2">
-        <v>0.01686921918135376</v>
+        <v>0.3022978197635595</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3609233152319291</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08926856225802027</v>
       </c>
       <c r="M2">
-        <v>0.8635917234232551</v>
+        <v>0.6933900688541286</v>
       </c>
       <c r="N2">
-        <v>0.5880046771843386</v>
+        <v>0.3200371391309034</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2544815189707919</v>
+      </c>
+      <c r="P2">
+        <v>0.9342679499947586</v>
+      </c>
+      <c r="Q2">
+        <v>1.241484543128195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.071128694638503</v>
+        <v>0.7577051081477464</v>
       </c>
       <c r="C3">
-        <v>0.4875885435406246</v>
+        <v>0.1486707675317973</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1986018377443379</v>
+        <v>0.120722076658577</v>
       </c>
       <c r="F3">
-        <v>1.588817316989633</v>
+        <v>0.9135948282534372</v>
       </c>
       <c r="G3">
-        <v>0.7321359379639603</v>
+        <v>0.3077106542515864</v>
       </c>
       <c r="H3">
-        <v>0.4638643389438784</v>
+        <v>0.007784003226113556</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.005072485989570552</v>
       </c>
       <c r="J3">
-        <v>0.01805165894079153</v>
+        <v>0.3038623885743874</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3624205983202522</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08049807242755946</v>
       </c>
       <c r="M3">
-        <v>0.7520651307092194</v>
+        <v>0.6073427812379464</v>
       </c>
       <c r="N3">
-        <v>0.6331114572486465</v>
+        <v>0.28856104744996</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2236660010302245</v>
+      </c>
+      <c r="P3">
+        <v>0.958711323681559</v>
+      </c>
+      <c r="Q3">
+        <v>1.235426627483932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.875024692500176</v>
+        <v>0.6887928656641975</v>
       </c>
       <c r="C4">
-        <v>0.4435264320133854</v>
+        <v>0.1467380307775024</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1892293453954856</v>
+        <v>0.1160529530902039</v>
       </c>
       <c r="F4">
-        <v>1.497552731843342</v>
+        <v>0.8871950386461549</v>
       </c>
       <c r="G4">
-        <v>0.6837434126167921</v>
+        <v>0.3053507770450565</v>
       </c>
       <c r="H4">
-        <v>0.446630015044974</v>
+        <v>0.00909110517011856</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.005968862918515505</v>
       </c>
       <c r="J4">
-        <v>0.01884080255939846</v>
+        <v>0.3050217880695456</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3635344841346928</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07510814019942558</v>
       </c>
       <c r="M4">
-        <v>0.6842689064535534</v>
+        <v>0.5543678739141171</v>
       </c>
       <c r="N4">
-        <v>0.6621054306576539</v>
+        <v>0.2693328006672004</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2047251922656237</v>
+      </c>
+      <c r="P4">
+        <v>0.9742972786149746</v>
+      </c>
+      <c r="Q4">
+        <v>1.232700695554797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.795427083028301</v>
+        <v>0.6600614793493378</v>
       </c>
       <c r="C5">
-        <v>0.4256181202902098</v>
+        <v>0.145984929010627</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.185458171666177</v>
+        <v>0.1141215363339718</v>
       </c>
       <c r="F5">
-        <v>1.461128894949795</v>
+        <v>0.876154894356219</v>
       </c>
       <c r="G5">
-        <v>0.664537201621755</v>
+        <v>0.3042191905988858</v>
       </c>
       <c r="H5">
-        <v>0.4399006649360331</v>
+        <v>0.009669334077331303</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.006450892114910012</v>
       </c>
       <c r="J5">
-        <v>0.01917740126134326</v>
+        <v>0.3054196033345633</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3638000442192961</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07296969066025127</v>
       </c>
       <c r="M5">
-        <v>0.6567907612305603</v>
+        <v>0.5327425567524813</v>
       </c>
       <c r="N5">
-        <v>0.6742349734752633</v>
+        <v>0.2617020646765411</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1969714071522404</v>
+      </c>
+      <c r="P5">
+        <v>0.9808123627309779</v>
+      </c>
+      <c r="Q5">
+        <v>1.231071461590403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.782227283285465</v>
+        <v>0.6545962709329842</v>
       </c>
       <c r="C6">
-        <v>0.422646924576469</v>
+        <v>0.1459095816062188</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1848347897461728</v>
+        <v>0.1137675473334028</v>
       </c>
       <c r="F6">
-        <v>1.455125202332852</v>
+        <v>0.8738255438900921</v>
       </c>
       <c r="G6">
-        <v>0.661377663722547</v>
+        <v>0.3037458115049674</v>
       </c>
       <c r="H6">
-        <v>0.4388003528212181</v>
+        <v>0.009771618837431023</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00663693874540261</v>
       </c>
       <c r="J6">
-        <v>0.01923417631587032</v>
+        <v>0.3053374085310949</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3635583458805343</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07268802949802478</v>
       </c>
       <c r="M6">
-        <v>0.6522364425424882</v>
+        <v>0.5291493964001575</v>
       </c>
       <c r="N6">
-        <v>0.6762677149749416</v>
+        <v>0.2606594395118833</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1956473778264964</v>
+      </c>
+      <c r="P6">
+        <v>0.9819301041153157</v>
+      </c>
+      <c r="Q6">
+        <v>1.229884856437934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.873950011646599</v>
+        <v>0.6865173113075684</v>
       </c>
       <c r="C7">
-        <v>0.4432847404837901</v>
+        <v>0.1468659965859054</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1891782950887269</v>
+        <v>0.115936460937121</v>
       </c>
       <c r="F7">
-        <v>1.497058486368871</v>
+        <v>0.8856702493054129</v>
       </c>
       <c r="G7">
-        <v>0.6834823735661075</v>
+        <v>0.3045454799616181</v>
       </c>
       <c r="H7">
-        <v>0.4465381008607636</v>
+        <v>0.009108358451317411</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.006242877608287678</v>
       </c>
       <c r="J7">
-        <v>0.01884528233260596</v>
+        <v>0.3046151325674842</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3627509360869183</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0752809897883715</v>
       </c>
       <c r="M7">
-        <v>0.6838977498005079</v>
+        <v>0.5540763970166722</v>
       </c>
       <c r="N7">
-        <v>0.6622677569665303</v>
+        <v>0.2698401946467612</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2045215488070724</v>
+      </c>
+      <c r="P7">
+        <v>0.9744705856047986</v>
+      </c>
+      <c r="Q7">
+        <v>1.230140255727548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.281650097016325</v>
+        <v>0.8284248026289731</v>
       </c>
       <c r="C8">
-        <v>0.5348083786286395</v>
+        <v>0.150907357822728</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2087770942926852</v>
+        <v>0.1255806742731522</v>
       </c>
       <c r="F8">
-        <v>1.689015546411838</v>
+        <v>0.9404065547518741</v>
       </c>
       <c r="G8">
-        <v>0.7856740300633334</v>
+        <v>0.3094235472488052</v>
       </c>
       <c r="H8">
-        <v>0.4833243550007751</v>
+        <v>0.00654862689859903</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.004571895490518507</v>
       </c>
       <c r="J8">
-        <v>0.01726328876297867</v>
+        <v>0.302255548434097</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3603653105996045</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.08651534121204207</v>
       </c>
       <c r="M8">
-        <v>0.8249821349302167</v>
+        <v>0.6637485878298719</v>
       </c>
       <c r="N8">
-        <v>0.6032804573377186</v>
+        <v>0.3099754429939452</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2437273439360794</v>
+      </c>
+      <c r="P8">
+        <v>0.9427377587153849</v>
+      </c>
+      <c r="Q8">
+        <v>1.235847808014924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.096313845205827</v>
+        <v>1.107447725310379</v>
       </c>
       <c r="C9">
-        <v>0.7169316831429455</v>
+        <v>0.1584459289064029</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2489965525700271</v>
+        <v>0.1446236559710243</v>
       </c>
       <c r="F9">
-        <v>2.095063544945575</v>
+        <v>1.054673735047487</v>
       </c>
       <c r="G9">
-        <v>1.006366428203947</v>
+        <v>0.3226926830808168</v>
       </c>
       <c r="H9">
-        <v>0.5666103114288461</v>
+        <v>0.002968761246881391</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00217635055665788</v>
       </c>
       <c r="J9">
-        <v>0.01470382408807502</v>
+        <v>0.2999788439194759</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3586719957224496</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1081785146554637</v>
       </c>
       <c r="M9">
-        <v>1.10814411113865</v>
+        <v>0.877802334647555</v>
       </c>
       <c r="N9">
-        <v>0.4984984987909273</v>
+        <v>0.388448996685014</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.3206690862720905</v>
+      </c>
+      <c r="P9">
+        <v>0.8849878968713014</v>
+      </c>
+      <c r="Q9">
+        <v>1.259764692154249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.708956589751438</v>
+        <v>1.304674822141578</v>
       </c>
       <c r="C10">
-        <v>0.8534394560536214</v>
+        <v>0.1645067144124752</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2798816452830835</v>
+        <v>0.15456451598142</v>
       </c>
       <c r="F10">
-        <v>2.416457429645689</v>
+        <v>1.127362329849205</v>
       </c>
       <c r="G10">
-        <v>1.184656223511467</v>
+        <v>0.3303453868150967</v>
       </c>
       <c r="H10">
-        <v>0.6363382561974049</v>
+        <v>0.001586856378106294</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001434667286468461</v>
       </c>
       <c r="J10">
-        <v>0.01321854186644522</v>
+        <v>0.2975085156891737</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3552732139205226</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1265024836537947</v>
       </c>
       <c r="M10">
-        <v>1.32181325499279</v>
+        <v>1.034578482941555</v>
       </c>
       <c r="N10">
-        <v>0.4290477956198293</v>
+        <v>0.4345877880334541</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3716042332299381</v>
+      </c>
+      <c r="P10">
+        <v>0.8468839819611063</v>
+      </c>
+      <c r="Q10">
+        <v>1.271189569685646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.991939696391171</v>
+        <v>1.344885412693543</v>
       </c>
       <c r="C11">
-        <v>0.9164005883332891</v>
+        <v>0.1727310167672229</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.294282980326706</v>
+        <v>0.1268669833676555</v>
       </c>
       <c r="F11">
-        <v>2.568920596213218</v>
+        <v>1.042532295672103</v>
       </c>
       <c r="G11">
-        <v>1.270210761078317</v>
+        <v>0.3050617998084277</v>
       </c>
       <c r="H11">
-        <v>0.6703469611327364</v>
+        <v>0.02017606825213747</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001809164120449402</v>
       </c>
       <c r="J11">
-        <v>0.01264484899492224</v>
+        <v>0.2818400308624618</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3291394942087358</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1568324428394519</v>
       </c>
       <c r="M11">
-        <v>1.420654518929624</v>
+        <v>1.1054946154064</v>
       </c>
       <c r="N11">
-        <v>0.3993104330781296</v>
+        <v>0.3541390999019853</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3472773675629526</v>
+      </c>
+      <c r="P11">
+        <v>0.8437912421141895</v>
+      </c>
+      <c r="Q11">
+        <v>1.184917854972156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.099826930796382</v>
+        <v>1.339515871231271</v>
       </c>
       <c r="C12">
-        <v>0.9403919284286246</v>
+        <v>0.1793673066200085</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2997925077877781</v>
+        <v>0.1050836737127554</v>
       </c>
       <c r="F12">
-        <v>2.627669907163039</v>
+        <v>0.9597761981113564</v>
       </c>
       <c r="G12">
-        <v>1.303335590552706</v>
+        <v>0.2837146110899198</v>
       </c>
       <c r="H12">
-        <v>0.6835948659172004</v>
+        <v>0.05898098865084478</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001787181482290734</v>
       </c>
       <c r="J12">
-        <v>0.01244380882955021</v>
+        <v>0.2698465817084781</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3097313362315255</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1809734508603569</v>
       </c>
       <c r="M12">
-        <v>1.458357562549722</v>
+        <v>1.132302430312222</v>
       </c>
       <c r="N12">
-        <v>0.3883375107756564</v>
+        <v>0.283436231927368</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3169640039347144</v>
+      </c>
+      <c r="P12">
+        <v>0.8522342237418101</v>
+      </c>
+      <c r="Q12">
+        <v>1.114591366974977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.076557228120464</v>
+        <v>1.295796338001651</v>
       </c>
       <c r="C13">
-        <v>0.9352178909300051</v>
+        <v>0.1852815590821706</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2986033460873969</v>
+        <v>0.08649248921283892</v>
       </c>
       <c r="F13">
-        <v>2.614970103957234</v>
+        <v>0.8717882235453516</v>
       </c>
       <c r="G13">
-        <v>1.296167734058344</v>
+        <v>0.2628532945321282</v>
       </c>
       <c r="H13">
-        <v>0.6807245679152061</v>
+        <v>0.1149807147695014</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001832096649475368</v>
       </c>
       <c r="J13">
-        <v>0.01248635926087616</v>
+        <v>0.2592866638433904</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2930859925522817</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2018029477284315</v>
       </c>
       <c r="M13">
-        <v>1.450224705864187</v>
+        <v>1.126469791516968</v>
       </c>
       <c r="N13">
-        <v>0.3906875595698605</v>
+        <v>0.217402763870993</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2803339819981048</v>
+      </c>
+      <c r="P13">
+        <v>0.8695718521667928</v>
+      </c>
+      <c r="Q13">
+        <v>1.048224710678156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.000800383048102</v>
+        <v>1.247423095786218</v>
       </c>
       <c r="C14">
-        <v>0.918371223116992</v>
+        <v>0.1892935521948829</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2947350956331647</v>
+        <v>0.07547212792817959</v>
       </c>
       <c r="F14">
-        <v>2.573732899701952</v>
+        <v>0.8083168158040621</v>
       </c>
       <c r="G14">
-        <v>1.272920853659883</v>
+        <v>0.2484500326640386</v>
       </c>
       <c r="H14">
-        <v>0.6714292214161048</v>
+        <v>0.1645542288333104</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001989676144317443</v>
       </c>
       <c r="J14">
-        <v>0.01262797506878854</v>
+        <v>0.2525092560688691</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2826814449493966</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2151520273969041</v>
       </c>
       <c r="M14">
-        <v>1.423750648652614</v>
+        <v>1.107596657149543</v>
       </c>
       <c r="N14">
-        <v>0.3984017843787022</v>
+        <v>0.1748690760023024</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2521714068659939</v>
+      </c>
+      <c r="P14">
+        <v>0.8860411650733013</v>
+      </c>
+      <c r="Q14">
+        <v>1.003444907223056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.954495385044993</v>
+        <v>1.226884931356153</v>
       </c>
       <c r="C15">
-        <v>0.9080723955921428</v>
+        <v>0.1901010916164694</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2923731528524129</v>
+        <v>0.07301113369499923</v>
       </c>
       <c r="F15">
-        <v>2.54860968615634</v>
+        <v>0.7911693773779973</v>
       </c>
       <c r="G15">
-        <v>1.25877891813056</v>
+        <v>0.244769610377034</v>
       </c>
       <c r="H15">
-        <v>0.66578495029799</v>
+        <v>0.1771715828604528</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002170116087960139</v>
       </c>
       <c r="J15">
-        <v>0.01271687795228438</v>
+        <v>0.2510318814399</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2804361373823028</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2174140704777585</v>
       </c>
       <c r="M15">
-        <v>1.407571398225613</v>
+        <v>1.096025174354196</v>
       </c>
       <c r="N15">
-        <v>0.4031651342985985</v>
+        <v>0.1647064251268233</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2438945698514452</v>
+      </c>
+      <c r="P15">
+        <v>0.8916570915445945</v>
+      </c>
+      <c r="Q15">
+        <v>0.9925195742396085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.690558502826377</v>
+        <v>1.150777987865041</v>
       </c>
       <c r="C16">
-        <v>0.8493442581074078</v>
+        <v>0.1861179714913845</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.278948016672949</v>
+        <v>0.07288160849303438</v>
       </c>
       <c r="F16">
-        <v>2.406629102893106</v>
+        <v>0.7781438659084188</v>
       </c>
       <c r="G16">
-        <v>1.179161830573179</v>
+        <v>0.2451955911382626</v>
       </c>
       <c r="H16">
-        <v>0.6341651261018342</v>
+        <v>0.165026447400578</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002595835275066349</v>
       </c>
       <c r="J16">
-        <v>0.01325821380477343</v>
+        <v>0.2538651799752358</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2847391877498513</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2046945469344976</v>
       </c>
       <c r="M16">
-        <v>1.315389938767879</v>
+        <v>1.029557612349635</v>
       </c>
       <c r="N16">
-        <v>0.4310303042630785</v>
+        <v>0.1602339301590874</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2303634242856205</v>
+      </c>
+      <c r="P16">
+        <v>0.9024549243020132</v>
+      </c>
+      <c r="Q16">
+        <v>0.9992004809930961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.529815616903818</v>
+        <v>1.117983504250816</v>
       </c>
       <c r="C17">
-        <v>0.8135545875407786</v>
+        <v>0.1808867891483388</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2708059229565052</v>
+        <v>0.07824580661337066</v>
       </c>
       <c r="F17">
-        <v>2.321209846614025</v>
+        <v>0.801472163077996</v>
       </c>
       <c r="G17">
-        <v>1.131518309619622</v>
+        <v>0.2531377608244867</v>
       </c>
       <c r="H17">
-        <v>0.6153811104536544</v>
+        <v>0.12759281334543</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002871579264537516</v>
       </c>
       <c r="J17">
-        <v>0.01361746616986359</v>
+        <v>0.2596510439944169</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2935025238977182</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1877691848300245</v>
       </c>
       <c r="M17">
-        <v>1.259285928378901</v>
+        <v>0.9887181721310867</v>
       </c>
       <c r="N17">
-        <v>0.4486144061681285</v>
+        <v>0.1784469808408815</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.234695432720514</v>
+      </c>
+      <c r="P17">
+        <v>0.902169131545044</v>
+      </c>
+      <c r="Q17">
+        <v>1.02806262928479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.437756955986117</v>
+        <v>1.12006410306202</v>
       </c>
       <c r="C18">
-        <v>0.7930488862543257</v>
+        <v>0.174248164312651</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2661555365838808</v>
+        <v>0.09081661362046667</v>
       </c>
       <c r="F18">
-        <v>2.272660601355739</v>
+        <v>0.8610643745596818</v>
       </c>
       <c r="G18">
-        <v>1.104528097405108</v>
+        <v>0.2692529004460624</v>
       </c>
       <c r="H18">
-        <v>0.604789850412061</v>
+        <v>0.07482536639646753</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002707515091621815</v>
       </c>
       <c r="J18">
-        <v>0.01383359450360366</v>
+        <v>0.2689943727622648</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3080227351501819</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1662326724053216</v>
       </c>
       <c r="M18">
-        <v>1.227168462578902</v>
+        <v>0.9652100625245055</v>
       </c>
       <c r="N18">
-        <v>0.4589016412881435</v>
+        <v>0.2220982587538955</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2555428230238981</v>
+      </c>
+      <c r="P18">
+        <v>0.8933282964555289</v>
+      </c>
+      <c r="Q18">
+        <v>1.081748999375733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.406652361562521</v>
+        <v>1.146379652392824</v>
       </c>
       <c r="C19">
-        <v>0.7861189504367871</v>
+        <v>0.1684105098081972</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2645864579855584</v>
+        <v>0.1109667854527316</v>
       </c>
       <c r="F19">
-        <v>2.25631925141424</v>
+        <v>0.9460027430479556</v>
       </c>
       <c r="G19">
-        <v>1.095458107169065</v>
+        <v>0.2900991134878126</v>
       </c>
       <c r="H19">
-        <v>0.6012392192681659</v>
+        <v>0.02926826153637307</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002750647648726456</v>
       </c>
       <c r="J19">
-        <v>0.01390835856932249</v>
+        <v>0.2800802592170086</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3257238368279758</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1447516571496408</v>
       </c>
       <c r="M19">
-        <v>1.216319068133529</v>
+        <v>0.9573217888219006</v>
       </c>
       <c r="N19">
-        <v>0.4624138834513305</v>
+        <v>0.2904383902553462</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2890860186264348</v>
+      </c>
+      <c r="P19">
+        <v>0.8812889798259569</v>
+      </c>
+      <c r="Q19">
+        <v>1.149156768373516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.546885179049696</v>
+        <v>1.246738114194812</v>
       </c>
       <c r="C20">
-        <v>0.81735604990007</v>
+        <v>0.1634615771118035</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2716692370549865</v>
+        <v>0.151511827978684</v>
       </c>
       <c r="F20">
-        <v>2.330241879364266</v>
+        <v>1.103253601587227</v>
       </c>
       <c r="G20">
-        <v>1.136546687637463</v>
+        <v>0.3256729012616617</v>
       </c>
       <c r="H20">
-        <v>0.6173583969544438</v>
+        <v>0.001882017995121998</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002390301662552829</v>
       </c>
       <c r="J20">
-        <v>0.01357822973589151</v>
+        <v>0.2967718445870133</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3536017127772659</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.122435286328745</v>
       </c>
       <c r="M20">
-        <v>1.265242294601478</v>
+        <v>0.9934318152512276</v>
       </c>
       <c r="N20">
-        <v>0.4467244642189883</v>
+        <v>0.4238342835049735</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3576874061409541</v>
+      </c>
+      <c r="P20">
+        <v>0.8573631290678634</v>
+      </c>
+      <c r="Q20">
+        <v>1.259643570804897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.023031313348952</v>
+        <v>1.406947056469676</v>
       </c>
       <c r="C21">
-        <v>0.9233152301771383</v>
+        <v>0.1672868774593965</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2958697267540842</v>
+        <v>0.1653991504930765</v>
       </c>
       <c r="F21">
-        <v>2.585816751338058</v>
+        <v>1.182110021278859</v>
       </c>
       <c r="G21">
-        <v>1.279728548372162</v>
+        <v>0.3376825458963424</v>
       </c>
       <c r="H21">
-        <v>0.6741491175276337</v>
+        <v>0.0007587235671067116</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001914123785743627</v>
       </c>
       <c r="J21">
-        <v>0.0125859261118908</v>
+        <v>0.2980657804662172</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3562156296225893</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1329115889773291</v>
       </c>
       <c r="M21">
-        <v>1.43151896327096</v>
+        <v>1.113698651697604</v>
       </c>
       <c r="N21">
-        <v>0.396127935419857</v>
+        <v>0.4783961329038107</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.4053881673886366</v>
+      </c>
+      <c r="P21">
+        <v>0.8273175525278766</v>
+      </c>
+      <c r="Q21">
+        <v>1.288096822375067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.338522010102054</v>
+        <v>1.511260584805825</v>
       </c>
       <c r="C22">
-        <v>0.9934498676674934</v>
+        <v>0.1698235479557368</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3120158235365054</v>
+        <v>0.1725579082826236</v>
       </c>
       <c r="F22">
-        <v>2.758826873301444</v>
+        <v>1.229142479965887</v>
       </c>
       <c r="G22">
-        <v>1.377592176557243</v>
+        <v>0.3452069601576895</v>
       </c>
       <c r="H22">
-        <v>0.7134410681474606</v>
+        <v>0.0003543667093099945</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001470296032558771</v>
       </c>
       <c r="J22">
-        <v>0.01203270017118463</v>
+        <v>0.298795786139685</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3576904401782173</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1406576543761275</v>
       </c>
       <c r="M22">
-        <v>1.541807974826369</v>
+        <v>1.192259657203493</v>
       </c>
       <c r="N22">
-        <v>0.3647500874391643</v>
+        <v>0.5070407726807815</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.4339060528565852</v>
+      </c>
+      <c r="P22">
+        <v>0.8085816774129135</v>
+      </c>
+      <c r="Q22">
+        <v>1.305755905642854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.169705284426186</v>
+        <v>1.457909593919226</v>
       </c>
       <c r="C23">
-        <v>0.9559277019897081</v>
+        <v>0.168268093658817</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3033662218404274</v>
+        <v>0.1688411151451525</v>
       </c>
       <c r="F23">
-        <v>2.665900142022195</v>
+        <v>1.205584882260126</v>
       </c>
       <c r="G23">
-        <v>1.324937013746052</v>
+        <v>0.3420711951573452</v>
       </c>
       <c r="H23">
-        <v>0.6922566287357199</v>
+        <v>0.0005482255045190509</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001378201928321054</v>
       </c>
       <c r="J23">
-        <v>0.01231869038322131</v>
+        <v>0.2988536399096091</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3577793086531713</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1362713006321101</v>
       </c>
       <c r="M23">
-        <v>1.482783078624479</v>
+        <v>1.150334223904451</v>
       </c>
       <c r="N23">
-        <v>0.3813348684289615</v>
+        <v>0.4909988901873277</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.4188059715449128</v>
+      </c>
+      <c r="P23">
+        <v>0.8182528991172333</v>
+      </c>
+      <c r="Q23">
+        <v>1.299134703570061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.539166933850595</v>
+        <v>1.251770389424593</v>
       </c>
       <c r="C24">
-        <v>0.8156371918028924</v>
+        <v>0.1627128333505468</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2712788378114723</v>
+        <v>0.1546164067752187</v>
       </c>
       <c r="F24">
-        <v>2.326156763405407</v>
+        <v>1.115235287821378</v>
       </c>
       <c r="G24">
-        <v>1.134272116385461</v>
+        <v>0.3294745862472865</v>
       </c>
       <c r="H24">
-        <v>0.6164638210995577</v>
+        <v>0.001704805250161257</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001875683831112696</v>
       </c>
       <c r="J24">
-        <v>0.01359593877329246</v>
+        <v>0.2987852209665434</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3571639732896941</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1201006349451532</v>
       </c>
       <c r="M24">
-        <v>1.262548996035221</v>
+        <v>0.9915045296614551</v>
       </c>
       <c r="N24">
-        <v>0.4475783544195426</v>
+        <v>0.4317159536696664</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3614637845411934</v>
+      </c>
+      <c r="P24">
+        <v>0.8565738044564846</v>
+      </c>
+      <c r="Q24">
+        <v>1.271917739219788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.873827034884926</v>
+        <v>1.028762464971294</v>
       </c>
       <c r="C25">
-        <v>0.6672732264451042</v>
+        <v>0.1566972243807463</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.237900663254095</v>
+        <v>0.1393116221859358</v>
       </c>
       <c r="F25">
-        <v>1.981555255479137</v>
+        <v>1.02077328847767</v>
       </c>
       <c r="G25">
-        <v>0.9441218496626789</v>
+        <v>0.3174284364201583</v>
       </c>
       <c r="H25">
-        <v>0.5427156877213122</v>
+        <v>0.003781718849835691</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003133076362762388</v>
       </c>
       <c r="J25">
-        <v>0.01533187397855063</v>
+        <v>0.299685741692727</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3575576087942309</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1026879494546051</v>
       </c>
       <c r="M25">
-        <v>1.030682561519107</v>
+        <v>0.8199842024435213</v>
       </c>
       <c r="N25">
-        <v>0.5255916142439485</v>
+        <v>0.3682333955285344</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.299677204653392</v>
+      </c>
+      <c r="P25">
+        <v>0.900393989325309</v>
+      </c>
+      <c r="Q25">
+        <v>1.247845219892866</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8693838865496843</v>
+        <v>0.8411022564795303</v>
       </c>
       <c r="C2">
-        <v>0.1517861308324555</v>
+        <v>0.13595237396461</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1283177422699566</v>
+        <v>0.126552870423982</v>
       </c>
       <c r="F2">
-        <v>0.957462496615598</v>
+        <v>0.9259373194255929</v>
       </c>
       <c r="G2">
-        <v>0.3120025454425743</v>
+        <v>0.276442532546028</v>
       </c>
       <c r="H2">
-        <v>0.005939715293153291</v>
+        <v>0.005152521930607723</v>
       </c>
       <c r="I2">
-        <v>0.003865680018797057</v>
+        <v>0.002917483396924325</v>
       </c>
       <c r="J2">
-        <v>0.3022978197635595</v>
+        <v>0.31585496002144</v>
       </c>
       <c r="K2">
-        <v>0.3609233152319291</v>
+        <v>0.333130149986907</v>
       </c>
       <c r="L2">
-        <v>0.08926856225802027</v>
+        <v>0.1594360024405432</v>
       </c>
       <c r="M2">
-        <v>0.6933900688541286</v>
+        <v>0.09537271849379536</v>
       </c>
       <c r="N2">
-        <v>0.3200371391309034</v>
+        <v>0.09081833016361429</v>
       </c>
       <c r="O2">
-        <v>0.2544815189707919</v>
+        <v>0.6957079452893709</v>
       </c>
       <c r="P2">
-        <v>0.9342679499947586</v>
+        <v>0.3369275491312749</v>
       </c>
       <c r="Q2">
-        <v>1.241484543128195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2529718937985415</v>
+      </c>
+      <c r="R2">
+        <v>0.9133504836278163</v>
+      </c>
+      <c r="S2">
+        <v>1.170704676243474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7577051081477464</v>
+        <v>0.7357908099216957</v>
       </c>
       <c r="C3">
-        <v>0.1486707675317973</v>
+        <v>0.1316210905584398</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.120722076658577</v>
+        <v>0.1193255651077401</v>
       </c>
       <c r="F3">
-        <v>0.9135948282534372</v>
+        <v>0.8856409222144563</v>
       </c>
       <c r="G3">
-        <v>0.3077106542515864</v>
+        <v>0.2745950774359969</v>
       </c>
       <c r="H3">
-        <v>0.007784003226113556</v>
+        <v>0.006789822740403073</v>
       </c>
       <c r="I3">
-        <v>0.005072485989570552</v>
+        <v>0.003819622402182254</v>
       </c>
       <c r="J3">
-        <v>0.3038623885743874</v>
+        <v>0.3160015949357486</v>
       </c>
       <c r="K3">
-        <v>0.3624205983202522</v>
+        <v>0.335786202205032</v>
       </c>
       <c r="L3">
-        <v>0.08049807242755946</v>
+        <v>0.1639101860755723</v>
       </c>
       <c r="M3">
-        <v>0.6073427812379464</v>
+        <v>0.09448846816600032</v>
       </c>
       <c r="N3">
-        <v>0.28856104744996</v>
+        <v>0.08122562984635806</v>
       </c>
       <c r="O3">
-        <v>0.2236660010302245</v>
+        <v>0.6097894763514233</v>
       </c>
       <c r="P3">
-        <v>0.958711323681559</v>
+        <v>0.3037456628881614</v>
       </c>
       <c r="Q3">
-        <v>1.235426627483932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2224504740798103</v>
+      </c>
+      <c r="R3">
+        <v>0.9347691884686959</v>
+      </c>
+      <c r="S3">
+        <v>1.169154893069447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6887928656641975</v>
+        <v>0.6706485362945216</v>
       </c>
       <c r="C4">
-        <v>0.1467380307775024</v>
+        <v>0.1289724067508402</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1160529530902039</v>
+        <v>0.1148806956781065</v>
       </c>
       <c r="F4">
-        <v>0.8871950386461549</v>
+        <v>0.861336500505594</v>
       </c>
       <c r="G4">
-        <v>0.3053507770450565</v>
+        <v>0.2737387165659442</v>
       </c>
       <c r="H4">
-        <v>0.00909110517011856</v>
+        <v>0.007952909135316766</v>
       </c>
       <c r="I4">
-        <v>0.005968862918515505</v>
+        <v>0.00450902550438359</v>
       </c>
       <c r="J4">
-        <v>0.3050217880695456</v>
+        <v>0.3161667225673312</v>
       </c>
       <c r="K4">
-        <v>0.3635344841346928</v>
+        <v>0.3375513830041896</v>
       </c>
       <c r="L4">
-        <v>0.07510814019942558</v>
+        <v>0.1667695637842073</v>
       </c>
       <c r="M4">
-        <v>0.5543678739141171</v>
+        <v>0.09443804788852894</v>
       </c>
       <c r="N4">
-        <v>0.2693328006672004</v>
+        <v>0.07534851291956457</v>
       </c>
       <c r="O4">
-        <v>0.2047251922656237</v>
+        <v>0.556879250550935</v>
       </c>
       <c r="P4">
-        <v>0.9742972786149746</v>
+        <v>0.283520770684305</v>
       </c>
       <c r="Q4">
-        <v>1.232700695554797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2036787083627587</v>
+      </c>
+      <c r="R4">
+        <v>0.9485206225097791</v>
+      </c>
+      <c r="S4">
+        <v>1.168980433593788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6600614793493378</v>
+        <v>0.643419829067966</v>
       </c>
       <c r="C5">
-        <v>0.145984929010627</v>
+        <v>0.1279528742621423</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1141215363339718</v>
+        <v>0.1130402311665364</v>
       </c>
       <c r="F5">
-        <v>0.876154894356219</v>
+        <v>0.8511267547535937</v>
       </c>
       <c r="G5">
-        <v>0.3042191905988858</v>
+        <v>0.2732285605656628</v>
       </c>
       <c r="H5">
-        <v>0.009669334077331303</v>
+        <v>0.008468104239919796</v>
       </c>
       <c r="I5">
-        <v>0.006450892114910012</v>
+        <v>0.004914135771056038</v>
       </c>
       <c r="J5">
-        <v>0.3054196033345633</v>
+        <v>0.3161242089129033</v>
       </c>
       <c r="K5">
-        <v>0.3638000442192961</v>
+        <v>0.3380759255110348</v>
       </c>
       <c r="L5">
-        <v>0.07296969066025127</v>
+        <v>0.1678419695100608</v>
       </c>
       <c r="M5">
-        <v>0.5327425567524813</v>
+        <v>0.09449023636806331</v>
       </c>
       <c r="N5">
-        <v>0.2617020646765411</v>
+        <v>0.07301849847602782</v>
       </c>
       <c r="O5">
-        <v>0.1969714071522404</v>
+        <v>0.5352774546562671</v>
       </c>
       <c r="P5">
-        <v>0.9808123627309779</v>
+        <v>0.2755017350012565</v>
       </c>
       <c r="Q5">
-        <v>1.231071461590403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.19599076351221</v>
+      </c>
+      <c r="R5">
+        <v>0.9543112060050696</v>
+      </c>
+      <c r="S5">
+        <v>1.168350669069198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6545962709329842</v>
+        <v>0.638203269740103</v>
       </c>
       <c r="C6">
-        <v>0.1459095816062188</v>
+        <v>0.1278557696245954</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1137675473334028</v>
+        <v>0.1127013368872838</v>
       </c>
       <c r="F6">
-        <v>0.8738255438900921</v>
+        <v>0.8489346041678587</v>
       </c>
       <c r="G6">
-        <v>0.3037458115049674</v>
+        <v>0.2728688014904321</v>
       </c>
       <c r="H6">
-        <v>0.009771618837431023</v>
+        <v>0.008559391190084975</v>
       </c>
       <c r="I6">
-        <v>0.00663693874540261</v>
+        <v>0.005103623626013132</v>
       </c>
       <c r="J6">
-        <v>0.3053374085310949</v>
+        <v>0.3159613512566892</v>
       </c>
       <c r="K6">
-        <v>0.3635583458805343</v>
+        <v>0.3378869090530259</v>
       </c>
       <c r="L6">
-        <v>0.07268802949802478</v>
+        <v>0.167874518646439</v>
       </c>
       <c r="M6">
-        <v>0.5291493964001575</v>
+        <v>0.09444365007608901</v>
       </c>
       <c r="N6">
-        <v>0.2606594395118833</v>
+        <v>0.07270846686987298</v>
       </c>
       <c r="O6">
-        <v>0.1956473778264964</v>
+        <v>0.5316884121854315</v>
       </c>
       <c r="P6">
-        <v>0.9819301041153157</v>
+        <v>0.2744016873712667</v>
       </c>
       <c r="Q6">
-        <v>1.229884856437934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1946771537507743</v>
+      </c>
+      <c r="R6">
+        <v>0.9553304421169067</v>
+      </c>
+      <c r="S6">
+        <v>1.16734329258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6865173113075684</v>
+        <v>0.6680783725425954</v>
       </c>
       <c r="C7">
-        <v>0.1468659965859054</v>
+        <v>0.1290738638680224</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.115936460937121</v>
+        <v>0.1148562839722445</v>
       </c>
       <c r="F7">
-        <v>0.8856702493054129</v>
+        <v>0.8592427997870544</v>
       </c>
       <c r="G7">
-        <v>0.3045454799616181</v>
+        <v>0.2749436531263001</v>
       </c>
       <c r="H7">
-        <v>0.009108358451317411</v>
+        <v>0.007972731554886758</v>
       </c>
       <c r="I7">
-        <v>0.006242877608287678</v>
+        <v>0.004828903362390058</v>
       </c>
       <c r="J7">
-        <v>0.3046151325674842</v>
+        <v>0.3128362053748788</v>
       </c>
       <c r="K7">
-        <v>0.3627509360869183</v>
+        <v>0.3365227780402158</v>
       </c>
       <c r="L7">
-        <v>0.0752809897883715</v>
+        <v>0.1662508326245522</v>
       </c>
       <c r="M7">
-        <v>0.5540763970166722</v>
+        <v>0.09418941115469082</v>
       </c>
       <c r="N7">
-        <v>0.2698401946467612</v>
+        <v>0.07561882624612792</v>
       </c>
       <c r="O7">
-        <v>0.2045215488070724</v>
+        <v>0.5559761107099206</v>
       </c>
       <c r="P7">
-        <v>0.9744705856047986</v>
+        <v>0.284147234821404</v>
       </c>
       <c r="Q7">
-        <v>1.230140255727548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2034594998902399</v>
+      </c>
+      <c r="R7">
+        <v>0.948828773927076</v>
+      </c>
+      <c r="S7">
+        <v>1.16486737285129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8284248026289731</v>
+        <v>0.8013093739012334</v>
       </c>
       <c r="C8">
-        <v>0.150907357822728</v>
+        <v>0.1344510423456882</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1255806742731522</v>
+        <v>0.1242488029130335</v>
       </c>
       <c r="F8">
-        <v>0.9404065547518741</v>
+        <v>0.9082116149250723</v>
       </c>
       <c r="G8">
-        <v>0.3094235472488052</v>
+        <v>0.2813567939014092</v>
       </c>
       <c r="H8">
-        <v>0.00654862689859903</v>
+        <v>0.005703600036724654</v>
       </c>
       <c r="I8">
-        <v>0.004571895490518507</v>
+        <v>0.0035871892462227</v>
       </c>
       <c r="J8">
-        <v>0.302255548434097</v>
+        <v>0.3059654674170247</v>
       </c>
       <c r="K8">
-        <v>0.3603653105996045</v>
+        <v>0.332122932465591</v>
       </c>
       <c r="L8">
-        <v>0.08651534121204207</v>
+        <v>0.1600717602289095</v>
       </c>
       <c r="M8">
-        <v>0.6637485878298719</v>
+        <v>0.09441821363326497</v>
       </c>
       <c r="N8">
-        <v>0.3099754429939452</v>
+        <v>0.08809979475618235</v>
       </c>
       <c r="O8">
-        <v>0.2437273439360794</v>
+        <v>0.6640602904775506</v>
       </c>
       <c r="P8">
-        <v>0.9427377587153849</v>
+        <v>0.3266516003704965</v>
       </c>
       <c r="Q8">
-        <v>1.235847808014924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.242267740283534</v>
+      </c>
+      <c r="R8">
+        <v>0.9212197591431561</v>
+      </c>
+      <c r="S8">
+        <v>1.161435794899376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.107447725310379</v>
+        <v>1.063320087882659</v>
       </c>
       <c r="C9">
-        <v>0.1584459289064029</v>
+        <v>0.145038892060537</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1446236559710243</v>
+        <v>0.1424498283716851</v>
       </c>
       <c r="F9">
-        <v>1.054673735047487</v>
+        <v>1.01247944690725</v>
       </c>
       <c r="G9">
-        <v>0.3226926830808168</v>
+        <v>0.290338210029141</v>
       </c>
       <c r="H9">
-        <v>0.002968761246881391</v>
+        <v>0.002538091912877016</v>
       </c>
       <c r="I9">
-        <v>0.00217635055665788</v>
+        <v>0.001781072303443487</v>
       </c>
       <c r="J9">
-        <v>0.2999788439194759</v>
+        <v>0.3040217658045634</v>
       </c>
       <c r="K9">
-        <v>0.3586719957224496</v>
+        <v>0.3269362043252926</v>
       </c>
       <c r="L9">
-        <v>0.1081785146554637</v>
+        <v>0.14997660208833</v>
       </c>
       <c r="M9">
-        <v>0.877802334647555</v>
+        <v>0.09942010585384331</v>
       </c>
       <c r="N9">
-        <v>0.388448996685014</v>
+        <v>0.1119994819724468</v>
       </c>
       <c r="O9">
-        <v>0.3206690862720905</v>
+        <v>0.8770854936369403</v>
       </c>
       <c r="P9">
-        <v>0.8849878968713014</v>
+        <v>0.4097504298738102</v>
       </c>
       <c r="Q9">
-        <v>1.259764692154249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.3183891576399347</v>
+      </c>
+      <c r="R9">
+        <v>0.8712973976796761</v>
+      </c>
+      <c r="S9">
+        <v>1.171403113268454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.304674822141578</v>
+        <v>1.246103181698118</v>
       </c>
       <c r="C10">
-        <v>0.1645067144124752</v>
+        <v>0.1531593736329455</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.15456451598142</v>
+        <v>0.1523662659960046</v>
       </c>
       <c r="F10">
-        <v>1.127362329849205</v>
+        <v>1.074702340643356</v>
       </c>
       <c r="G10">
-        <v>0.3303453868150967</v>
+        <v>0.3071921114405995</v>
       </c>
       <c r="H10">
-        <v>0.001586856378106294</v>
+        <v>0.001363063101466722</v>
       </c>
       <c r="I10">
-        <v>0.001434667286468461</v>
+        <v>0.001381087800616854</v>
       </c>
       <c r="J10">
-        <v>0.2975085156891737</v>
+        <v>0.2864395263560837</v>
       </c>
       <c r="K10">
-        <v>0.3552732139205226</v>
+        <v>0.3196300918394854</v>
       </c>
       <c r="L10">
-        <v>0.1265024836537947</v>
+        <v>0.1416186526052226</v>
       </c>
       <c r="M10">
-        <v>1.034578482941555</v>
+        <v>0.1037921208693504</v>
       </c>
       <c r="N10">
-        <v>0.4345877880334541</v>
+        <v>0.1326902893230724</v>
       </c>
       <c r="O10">
-        <v>0.3716042332299381</v>
+        <v>1.029290603659689</v>
       </c>
       <c r="P10">
-        <v>0.8468839819611063</v>
+        <v>0.4596735551355948</v>
       </c>
       <c r="Q10">
-        <v>1.271189569685646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3686035255014488</v>
+      </c>
+      <c r="R10">
+        <v>0.8404084145760748</v>
+      </c>
+      <c r="S10">
+        <v>1.163704836763443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.344885412693543</v>
+        <v>1.282553663071752</v>
       </c>
       <c r="C11">
-        <v>0.1727310167672229</v>
+        <v>0.1624674353852029</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1268669833676555</v>
+        <v>0.1258412191387208</v>
       </c>
       <c r="F11">
-        <v>1.042532295672103</v>
+        <v>0.9863635614930644</v>
       </c>
       <c r="G11">
-        <v>0.3050617998084277</v>
+        <v>0.3090736838469041</v>
       </c>
       <c r="H11">
-        <v>0.02017606825213747</v>
+        <v>0.01998062377803933</v>
       </c>
       <c r="I11">
-        <v>0.001809164120449402</v>
+        <v>0.001934853862804786</v>
       </c>
       <c r="J11">
-        <v>0.2818400308624618</v>
+        <v>0.2479328267542584</v>
       </c>
       <c r="K11">
-        <v>0.3291394942087358</v>
+        <v>0.2935746988290795</v>
       </c>
       <c r="L11">
-        <v>0.1568324428394519</v>
+        <v>0.1302824748401523</v>
       </c>
       <c r="M11">
-        <v>1.1054946154064</v>
+        <v>0.09660159945839908</v>
       </c>
       <c r="N11">
-        <v>0.3541390999019853</v>
+        <v>0.1658048634209308</v>
       </c>
       <c r="O11">
-        <v>0.3472773675629526</v>
+        <v>1.091587345873194</v>
       </c>
       <c r="P11">
-        <v>0.8437912421141895</v>
+        <v>0.3774842246512407</v>
       </c>
       <c r="Q11">
-        <v>1.184917854972156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3442169352254894</v>
+      </c>
+      <c r="R11">
+        <v>0.8464981698742449</v>
+      </c>
+      <c r="S11">
+        <v>1.066365341263051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.339515871231271</v>
+        <v>1.278378358035866</v>
       </c>
       <c r="C12">
-        <v>0.1793673066200085</v>
+        <v>0.1694054911046834</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1050836737127554</v>
+        <v>0.1045112814387075</v>
       </c>
       <c r="F12">
-        <v>0.9597761981113564</v>
+        <v>0.9051994238900534</v>
       </c>
       <c r="G12">
-        <v>0.2837146110899198</v>
+        <v>0.3001761753610026</v>
       </c>
       <c r="H12">
-        <v>0.05898098865084478</v>
+        <v>0.05878430252585787</v>
       </c>
       <c r="I12">
-        <v>0.001787181482290734</v>
+        <v>0.001923899412144436</v>
       </c>
       <c r="J12">
-        <v>0.2698465817084781</v>
+        <v>0.231263654922266</v>
       </c>
       <c r="K12">
-        <v>0.3097313362315255</v>
+        <v>0.2760585049969393</v>
       </c>
       <c r="L12">
-        <v>0.1809734508603569</v>
+        <v>0.1237423030435885</v>
       </c>
       <c r="M12">
-        <v>1.132302430312222</v>
+        <v>0.09040363437408239</v>
       </c>
       <c r="N12">
-        <v>0.283436231927368</v>
+        <v>0.1914705402575834</v>
       </c>
       <c r="O12">
-        <v>0.3169640039347144</v>
+        <v>1.114295999089677</v>
       </c>
       <c r="P12">
-        <v>0.8522342237418101</v>
+        <v>0.3040584904309185</v>
       </c>
       <c r="Q12">
-        <v>1.114591366974977</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3140781538404482</v>
+      </c>
+      <c r="R12">
+        <v>0.860658593587452</v>
+      </c>
+      <c r="S12">
+        <v>0.9970504756388863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.295796338001651</v>
+        <v>1.240617443130446</v>
       </c>
       <c r="C13">
-        <v>0.1852815590821706</v>
+        <v>0.17565281650716</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08649248921283892</v>
+        <v>0.08586212121330483</v>
       </c>
       <c r="F13">
-        <v>0.8717882235453516</v>
+        <v>0.8236376384749207</v>
       </c>
       <c r="G13">
-        <v>0.2628532945321282</v>
+        <v>0.2762018020357502</v>
       </c>
       <c r="H13">
-        <v>0.1149807147695014</v>
+        <v>0.1147539893354406</v>
       </c>
       <c r="I13">
-        <v>0.001832096649475368</v>
+        <v>0.001928236224592261</v>
       </c>
       <c r="J13">
-        <v>0.2592866638433904</v>
+        <v>0.2280076370374537</v>
       </c>
       <c r="K13">
-        <v>0.2930859925522817</v>
+        <v>0.263104854625686</v>
       </c>
       <c r="L13">
-        <v>0.2018029477284315</v>
+        <v>0.1196806783842899</v>
       </c>
       <c r="M13">
-        <v>1.126469791516968</v>
+        <v>0.08453906489599028</v>
       </c>
       <c r="N13">
-        <v>0.217402763870993</v>
+        <v>0.2123820570740165</v>
       </c>
       <c r="O13">
-        <v>0.2803339819981048</v>
+        <v>1.109435335544106</v>
       </c>
       <c r="P13">
-        <v>0.8695718521667928</v>
+        <v>0.2344629153886189</v>
       </c>
       <c r="Q13">
-        <v>1.048224710678156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2778277734429437</v>
+      </c>
+      <c r="R13">
+        <v>0.8798152606290444</v>
+      </c>
+      <c r="S13">
+        <v>0.9433997962715779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.247423095786218</v>
+        <v>1.198462997702592</v>
       </c>
       <c r="C14">
-        <v>0.1892935521948829</v>
+        <v>0.1799897658151153</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07547212792817959</v>
+        <v>0.07468748104525247</v>
       </c>
       <c r="F14">
-        <v>0.8083168158040621</v>
+        <v>0.7664248320526283</v>
       </c>
       <c r="G14">
-        <v>0.2484500326640386</v>
+        <v>0.2537379742616892</v>
       </c>
       <c r="H14">
-        <v>0.1645542288333104</v>
+        <v>0.1642914644966851</v>
       </c>
       <c r="I14">
-        <v>0.001989676144317443</v>
+        <v>0.002046331352916653</v>
       </c>
       <c r="J14">
-        <v>0.2525092560688691</v>
+        <v>0.2304450939272016</v>
       </c>
       <c r="K14">
-        <v>0.2826814449493966</v>
+        <v>0.2558639104945186</v>
       </c>
       <c r="L14">
-        <v>0.2151520273969041</v>
+        <v>0.1177362439093805</v>
       </c>
       <c r="M14">
-        <v>1.107596657149543</v>
+        <v>0.08063574931927775</v>
       </c>
       <c r="N14">
-        <v>0.1748690760023024</v>
+        <v>0.2250318727224396</v>
       </c>
       <c r="O14">
-        <v>0.2521714068659939</v>
+        <v>1.09347627366995</v>
       </c>
       <c r="P14">
-        <v>0.8860411650733013</v>
+        <v>0.1892609206221536</v>
       </c>
       <c r="Q14">
-        <v>1.003444907223056</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2500042994799792</v>
+      </c>
+      <c r="R14">
+        <v>0.8953912496412713</v>
+      </c>
+      <c r="S14">
+        <v>0.9118252751942606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.226884931356153</v>
+        <v>1.180345027494809</v>
       </c>
       <c r="C15">
-        <v>0.1901010916164694</v>
+        <v>0.1809612868961352</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07301113369499923</v>
+        <v>0.07215723249087169</v>
       </c>
       <c r="F15">
-        <v>0.7911693773779973</v>
+        <v>0.7515829456341692</v>
       </c>
       <c r="G15">
-        <v>0.244769610377034</v>
+        <v>0.2457517828533682</v>
       </c>
       <c r="H15">
-        <v>0.1771715828604528</v>
+        <v>0.1768906080558139</v>
       </c>
       <c r="I15">
-        <v>0.002170116087960139</v>
+        <v>0.002226198538703095</v>
       </c>
       <c r="J15">
-        <v>0.2510318814399</v>
+        <v>0.233135766753243</v>
       </c>
       <c r="K15">
-        <v>0.2804361373823028</v>
+        <v>0.25466500329685</v>
       </c>
       <c r="L15">
-        <v>0.2174140704777585</v>
+        <v>0.1175714383100885</v>
       </c>
       <c r="M15">
-        <v>1.096025174354196</v>
+        <v>0.07967743551290241</v>
       </c>
       <c r="N15">
-        <v>0.1647064251268233</v>
+        <v>0.2268101815605661</v>
       </c>
       <c r="O15">
-        <v>0.2438945698514452</v>
+        <v>1.083568105818557</v>
       </c>
       <c r="P15">
-        <v>0.8916570915445945</v>
+        <v>0.1783476115422928</v>
       </c>
       <c r="Q15">
-        <v>0.9925195742396085</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2418442545154385</v>
+      </c>
+      <c r="R15">
+        <v>0.8999083288912857</v>
+      </c>
+      <c r="S15">
+        <v>0.9060016632070926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.150777987865041</v>
+        <v>1.112088373662885</v>
       </c>
       <c r="C16">
-        <v>0.1861179714913845</v>
+        <v>0.1773738476731666</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07288160849303438</v>
+        <v>0.07172399567688004</v>
       </c>
       <c r="F16">
-        <v>0.7781438659084188</v>
+        <v>0.745411677928459</v>
       </c>
       <c r="G16">
-        <v>0.2451955911382626</v>
+        <v>0.2272466219101119</v>
       </c>
       <c r="H16">
-        <v>0.165026447400578</v>
+        <v>0.1646462601485297</v>
       </c>
       <c r="I16">
-        <v>0.002595835275066349</v>
+        <v>0.002545340051155698</v>
       </c>
       <c r="J16">
-        <v>0.2538651799752358</v>
+        <v>0.2542036354899295</v>
       </c>
       <c r="K16">
-        <v>0.2847391877498513</v>
+        <v>0.2612871236402672</v>
       </c>
       <c r="L16">
-        <v>0.2046945469344976</v>
+        <v>0.1210867866799212</v>
       </c>
       <c r="M16">
-        <v>1.029557612349635</v>
+        <v>0.08007709536987839</v>
       </c>
       <c r="N16">
-        <v>0.1602339301590874</v>
+        <v>0.2115327125468411</v>
       </c>
       <c r="O16">
-        <v>0.2303634242856205</v>
+        <v>1.024908992880086</v>
       </c>
       <c r="P16">
-        <v>0.9024549243020132</v>
+        <v>0.172738555227717</v>
       </c>
       <c r="Q16">
-        <v>0.9992004809930961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2286304477368759</v>
+      </c>
+      <c r="R16">
+        <v>0.9033373328348873</v>
+      </c>
+      <c r="S16">
+        <v>0.9286561565403701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.117983504250816</v>
+        <v>1.081512378641662</v>
       </c>
       <c r="C17">
-        <v>0.1808867891483388</v>
+        <v>0.1719493841583102</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07824580661337066</v>
+        <v>0.07688376266876418</v>
       </c>
       <c r="F17">
-        <v>0.801472163077996</v>
+        <v>0.7703043655321267</v>
       </c>
       <c r="G17">
-        <v>0.2531377608244867</v>
+        <v>0.2270518043078624</v>
       </c>
       <c r="H17">
-        <v>0.12759281334543</v>
+        <v>0.1271547329742901</v>
       </c>
       <c r="I17">
-        <v>0.002871579264537516</v>
+        <v>0.002761845116749484</v>
       </c>
       <c r="J17">
-        <v>0.2596510439944169</v>
+        <v>0.2685159055311743</v>
       </c>
       <c r="K17">
-        <v>0.2935025238977182</v>
+        <v>0.2700900684686136</v>
       </c>
       <c r="L17">
-        <v>0.1877691848300245</v>
+        <v>0.1250409598011526</v>
       </c>
       <c r="M17">
-        <v>0.9887181721310867</v>
+        <v>0.08223882999234888</v>
       </c>
       <c r="N17">
-        <v>0.1784469808408815</v>
+        <v>0.1934067529248296</v>
       </c>
       <c r="O17">
-        <v>0.234695432720514</v>
+        <v>0.9873943144868065</v>
       </c>
       <c r="P17">
-        <v>0.902169131545044</v>
+        <v>0.1914139007585689</v>
       </c>
       <c r="Q17">
-        <v>1.02806262928479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2330196521389603</v>
+      </c>
+      <c r="R17">
+        <v>0.8990429347683886</v>
+      </c>
+      <c r="S17">
+        <v>0.9616596862675664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.12006410306202</v>
+        <v>1.082047885644926</v>
       </c>
       <c r="C18">
-        <v>0.174248164312651</v>
+        <v>0.1647436513820466</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09081661362046667</v>
+        <v>0.08917041494164657</v>
       </c>
       <c r="F18">
-        <v>0.8610643745596818</v>
+        <v>0.8281554437274394</v>
       </c>
       <c r="G18">
-        <v>0.2692529004460624</v>
+        <v>0.2384160704390368</v>
       </c>
       <c r="H18">
-        <v>0.07482536639646753</v>
+        <v>0.07437304420731294</v>
       </c>
       <c r="I18">
-        <v>0.002707515091621815</v>
+        <v>0.002531344707732863</v>
       </c>
       <c r="J18">
-        <v>0.2689943727622648</v>
+        <v>0.2810948829297146</v>
       </c>
       <c r="K18">
-        <v>0.3080227351501819</v>
+        <v>0.2830678515462939</v>
       </c>
       <c r="L18">
-        <v>0.1662326724053216</v>
+        <v>0.1303459126676483</v>
       </c>
       <c r="M18">
-        <v>0.9652100625245055</v>
+        <v>0.08648658351340721</v>
       </c>
       <c r="N18">
-        <v>0.2220982587538955</v>
+        <v>0.1713072646641933</v>
       </c>
       <c r="O18">
-        <v>0.2555428230238981</v>
+        <v>0.9652684900514714</v>
       </c>
       <c r="P18">
-        <v>0.8933282964555289</v>
+        <v>0.2368416814092313</v>
       </c>
       <c r="Q18">
-        <v>1.081748999375733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.253741070866198</v>
+      </c>
+      <c r="R18">
+        <v>0.8875572407985644</v>
+      </c>
+      <c r="S18">
+        <v>1.012632052802829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.146379652392824</v>
+        <v>1.104236773170925</v>
       </c>
       <c r="C19">
-        <v>0.1684105098081972</v>
+        <v>0.1582117767100755</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1109667854527316</v>
+        <v>0.1089390227865294</v>
       </c>
       <c r="F19">
-        <v>0.9460027430479556</v>
+        <v>0.909066888774781</v>
       </c>
       <c r="G19">
-        <v>0.2900991134878126</v>
+        <v>0.2559373330893209</v>
       </c>
       <c r="H19">
-        <v>0.02926826153637307</v>
+        <v>0.02884867581715156</v>
       </c>
       <c r="I19">
-        <v>0.002750647648726456</v>
+        <v>0.002621248640649831</v>
       </c>
       <c r="J19">
-        <v>0.2800802592170086</v>
+        <v>0.2922839030353046</v>
       </c>
       <c r="K19">
-        <v>0.3257238368279758</v>
+        <v>0.2981772374521405</v>
       </c>
       <c r="L19">
-        <v>0.1447516571496408</v>
+        <v>0.1362119206815855</v>
       </c>
       <c r="M19">
-        <v>0.9573217888219006</v>
+        <v>0.09197524386401845</v>
       </c>
       <c r="N19">
-        <v>0.2904383902553462</v>
+        <v>0.1495983691686718</v>
       </c>
       <c r="O19">
-        <v>0.2890860186264348</v>
+        <v>0.9577299933009442</v>
       </c>
       <c r="P19">
-        <v>0.8812889798259569</v>
+        <v>0.3080606055743402</v>
       </c>
       <c r="Q19">
-        <v>1.149156768373516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2870187742456807</v>
+      </c>
+      <c r="R19">
+        <v>0.8736259207800927</v>
+      </c>
+      <c r="S19">
+        <v>1.07298520284607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.246738114194812</v>
+        <v>1.193301403263575</v>
       </c>
       <c r="C20">
-        <v>0.1634615771118035</v>
+        <v>0.1521849943973308</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.151511827978684</v>
+        <v>0.14898854163091</v>
       </c>
       <c r="F20">
-        <v>1.103253601587227</v>
+        <v>1.055532315061953</v>
       </c>
       <c r="G20">
-        <v>0.3256729012616617</v>
+        <v>0.2928074590498824</v>
       </c>
       <c r="H20">
-        <v>0.001882017995121998</v>
+        <v>0.001604552296163853</v>
       </c>
       <c r="I20">
-        <v>0.002390301662552829</v>
+        <v>0.002408820237299381</v>
       </c>
       <c r="J20">
-        <v>0.2967718445870133</v>
+        <v>0.298949795503944</v>
       </c>
       <c r="K20">
-        <v>0.3536017127772659</v>
+        <v>0.3201475675711691</v>
       </c>
       <c r="L20">
-        <v>0.122435286328745</v>
+        <v>0.1432501700443876</v>
       </c>
       <c r="M20">
-        <v>0.9934318152512276</v>
+        <v>0.1019882470019802</v>
       </c>
       <c r="N20">
-        <v>0.4238342835049735</v>
+        <v>0.1276821878157577</v>
       </c>
       <c r="O20">
-        <v>0.3576874061409541</v>
+        <v>0.9916428341615244</v>
       </c>
       <c r="P20">
-        <v>0.8573631290678634</v>
+        <v>0.4475686909381977</v>
       </c>
       <c r="Q20">
-        <v>1.259643570804897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3549408389531621</v>
+      </c>
+      <c r="R20">
+        <v>0.8487375115254423</v>
+      </c>
+      <c r="S20">
+        <v>1.163297751919359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.406947056469676</v>
+        <v>1.334748706703408</v>
       </c>
       <c r="C21">
-        <v>0.1672868774593965</v>
+        <v>0.1556149537993363</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1653991504930765</v>
+        <v>0.1646169002317102</v>
       </c>
       <c r="F21">
-        <v>1.182110021278859</v>
+        <v>1.113968136361194</v>
       </c>
       <c r="G21">
-        <v>0.3376825458963424</v>
+        <v>0.3529664186859165</v>
       </c>
       <c r="H21">
-        <v>0.0007587235671067116</v>
+        <v>0.0006340874205008618</v>
       </c>
       <c r="I21">
-        <v>0.001914123785743627</v>
+        <v>0.002140351481497937</v>
       </c>
       <c r="J21">
-        <v>0.2980657804662172</v>
+        <v>0.2475513322014713</v>
       </c>
       <c r="K21">
-        <v>0.3562156296225893</v>
+        <v>0.3139612316865446</v>
       </c>
       <c r="L21">
-        <v>0.1329115889773291</v>
+        <v>0.1369524996557416</v>
       </c>
       <c r="M21">
-        <v>1.113698651697604</v>
+        <v>0.1055511996067011</v>
       </c>
       <c r="N21">
-        <v>0.4783961329038107</v>
+        <v>0.1418049995212058</v>
       </c>
       <c r="O21">
-        <v>0.4053881673886366</v>
+        <v>1.096232447059066</v>
       </c>
       <c r="P21">
-        <v>0.8273175525278766</v>
+        <v>0.5080661958563724</v>
       </c>
       <c r="Q21">
-        <v>1.288096822375067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.4016621061782928</v>
+      </c>
+      <c r="R21">
+        <v>0.8270020207742022</v>
+      </c>
+      <c r="S21">
+        <v>1.144958915259735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.511260584805825</v>
+        <v>1.426318115280168</v>
       </c>
       <c r="C22">
-        <v>0.1698235479557368</v>
+        <v>0.1578448076436487</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1725579082826236</v>
+        <v>0.1731724405891519</v>
       </c>
       <c r="F22">
-        <v>1.229142479965887</v>
+        <v>1.146827893303225</v>
       </c>
       <c r="G22">
-        <v>0.3452069601576895</v>
+        <v>0.3997280914587691</v>
       </c>
       <c r="H22">
-        <v>0.0003543667093099945</v>
+        <v>0.0002937473088706621</v>
       </c>
       <c r="I22">
-        <v>0.001470296032558771</v>
+        <v>0.001724649811269963</v>
       </c>
       <c r="J22">
-        <v>0.298795786139685</v>
+        <v>0.2211268564948377</v>
       </c>
       <c r="K22">
-        <v>0.3576904401782173</v>
+        <v>0.3093443695610247</v>
       </c>
       <c r="L22">
-        <v>0.1406576543761275</v>
+        <v>0.1328197419689001</v>
       </c>
       <c r="M22">
-        <v>1.192259657203493</v>
+        <v>0.1078945683257579</v>
       </c>
       <c r="N22">
-        <v>0.5070407726807815</v>
+        <v>0.1521666515797762</v>
       </c>
       <c r="O22">
-        <v>0.4339060528565852</v>
+        <v>1.163345108395106</v>
       </c>
       <c r="P22">
-        <v>0.8085816774129135</v>
+        <v>0.5405862347914194</v>
       </c>
       <c r="Q22">
-        <v>1.305755905642854</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.42951361536295</v>
+      </c>
+      <c r="R22">
+        <v>0.8143670648378958</v>
+      </c>
+      <c r="S22">
+        <v>1.129737303307451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.457909593919226</v>
+        <v>1.380645704906385</v>
       </c>
       <c r="C23">
-        <v>0.168268093658817</v>
+        <v>0.1565809291721649</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1688411151451525</v>
+        <v>0.1684371269739984</v>
       </c>
       <c r="F23">
-        <v>1.205584882260126</v>
+        <v>1.132374852019566</v>
       </c>
       <c r="G23">
-        <v>0.3420711951573452</v>
+        <v>0.3689987162671002</v>
       </c>
       <c r="H23">
-        <v>0.0005482255045190509</v>
+        <v>0.0004550763387702883</v>
       </c>
       <c r="I23">
-        <v>0.001378201928321054</v>
+        <v>0.00155818828598786</v>
       </c>
       <c r="J23">
-        <v>0.2988536399096091</v>
+        <v>0.2385669740307499</v>
       </c>
       <c r="K23">
-        <v>0.3577793086531713</v>
+        <v>0.313285590860481</v>
       </c>
       <c r="L23">
-        <v>0.1362713006321101</v>
+        <v>0.1354909752846609</v>
       </c>
       <c r="M23">
-        <v>1.150334223904451</v>
+        <v>0.1072547758169549</v>
       </c>
       <c r="N23">
-        <v>0.4909988901873277</v>
+        <v>0.1460881874596893</v>
       </c>
       <c r="O23">
-        <v>0.4188059715449128</v>
+        <v>1.129243148482402</v>
       </c>
       <c r="P23">
-        <v>0.8182528991172333</v>
+        <v>0.522126902513989</v>
       </c>
       <c r="Q23">
-        <v>1.299134703570061</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.4148176464106186</v>
+      </c>
+      <c r="R23">
+        <v>0.8200794330357297</v>
+      </c>
+      <c r="S23">
+        <v>1.144582061907471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.251770389424593</v>
+        <v>1.197972487281135</v>
       </c>
       <c r="C24">
-        <v>0.1627128333505468</v>
+        <v>0.151143728600843</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1546164067752187</v>
+        <v>0.1520348645712275</v>
       </c>
       <c r="F24">
-        <v>1.115235287821378</v>
+        <v>1.067113587592274</v>
       </c>
       <c r="G24">
-        <v>0.3294745862472865</v>
+        <v>0.2959319229129562</v>
       </c>
       <c r="H24">
-        <v>0.001704805250161257</v>
+        <v>0.001432414622885125</v>
       </c>
       <c r="I24">
-        <v>0.001875683831112696</v>
+        <v>0.001796503434388974</v>
       </c>
       <c r="J24">
-        <v>0.2987852209665434</v>
+        <v>0.3012566372602308</v>
       </c>
       <c r="K24">
-        <v>0.3571639732896941</v>
+        <v>0.3233318599866806</v>
       </c>
       <c r="L24">
-        <v>0.1201006349451532</v>
+        <v>0.1444884115343523</v>
       </c>
       <c r="M24">
-        <v>0.9915045296614551</v>
+        <v>0.1031366463063002</v>
       </c>
       <c r="N24">
-        <v>0.4317159536696664</v>
+        <v>0.1252447371686785</v>
       </c>
       <c r="O24">
-        <v>0.3614637845411934</v>
+        <v>0.9898430737615342</v>
       </c>
       <c r="P24">
-        <v>0.8565738044564846</v>
+        <v>0.4557395389874586</v>
       </c>
       <c r="Q24">
-        <v>1.271917739219788</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.35869207110877</v>
+      </c>
+      <c r="R24">
+        <v>0.847387651693694</v>
+      </c>
+      <c r="S24">
+        <v>1.174780057863529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.028762464971294</v>
+        <v>0.9898619542140921</v>
       </c>
       <c r="C25">
-        <v>0.1566972243807463</v>
+        <v>0.1427160826078229</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1393116221859358</v>
+        <v>0.1372352889071138</v>
       </c>
       <c r="F25">
-        <v>1.02077328847767</v>
+        <v>0.9822248045021809</v>
       </c>
       <c r="G25">
-        <v>0.3174284364201583</v>
+        <v>0.2834136978787924</v>
       </c>
       <c r="H25">
-        <v>0.003781718849835691</v>
+        <v>0.003251022073422205</v>
       </c>
       <c r="I25">
-        <v>0.003133076362762388</v>
+        <v>0.002676944236720047</v>
       </c>
       <c r="J25">
-        <v>0.299685741692727</v>
+        <v>0.3076848189036312</v>
       </c>
       <c r="K25">
-        <v>0.3575576087942309</v>
+        <v>0.3272962854317321</v>
       </c>
       <c r="L25">
-        <v>0.1026879494546051</v>
+        <v>0.1522349814185553</v>
       </c>
       <c r="M25">
-        <v>0.8199842024435213</v>
+        <v>0.09732823642921851</v>
       </c>
       <c r="N25">
-        <v>0.3682333955285344</v>
+        <v>0.1057750760383485</v>
       </c>
       <c r="O25">
-        <v>0.299677204653392</v>
+        <v>0.8204584492644074</v>
       </c>
       <c r="P25">
-        <v>0.900393989325309</v>
+        <v>0.3881228690486722</v>
       </c>
       <c r="Q25">
-        <v>1.247845219892866</v>
+        <v>0.2976527165284821</v>
+      </c>
+      <c r="R25">
+        <v>0.8845494682324642</v>
+      </c>
+      <c r="S25">
+        <v>1.165892198051694</v>
       </c>
     </row>
   </sheetData>
